--- a/日本版コアインボイス/EN16931-1_Annex_A和訳.xlsx
+++ b/日本版コアインボイス/EN16931-1_Annex_A和訳.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pontsoleil/Documents/GitHub/EIPA/日本版コアインボイス/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{135DAAB2-604D-D941-B84F-856B7DA391BD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18C7B469-A060-D14C-94AC-B29BAE1DA7F3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1280" yWindow="580" windowWidth="24080" windowHeight="15360" activeTab="5" xr2:uid="{12D2A6F6-74CB-D142-9378-ACF39F2C2E77}"/>
+    <workbookView xWindow="1280" yWindow="580" windowWidth="24080" windowHeight="15360" activeTab="7" xr2:uid="{12D2A6F6-74CB-D142-9378-ACF39F2C2E77}"/>
   </bookViews>
   <sheets>
     <sheet name="Example 1" sheetId="1" r:id="rId1"/>
@@ -2264,10 +2264,6 @@
 Sum of Invoice line net amount with TAX</t>
   </si>
   <si>
-    <t>明細行の総合計金額
-jbt-108 = jbt-109明細行の税抜き合計金額＋jbt-110明細行の合計税額＋(jbt-107 + jbt-108)(調整などの請求に関連する取引金額)</t>
-  </si>
-  <si>
     <t>BT-107</t>
   </si>
   <si>
@@ -2777,46 +2773,6 @@
   <si>
     <t>課税対象金額(税抜き)
 Invoice line net amount without TAX</t>
-  </si>
-  <si>
-    <t>欧州規格は税抜き。ビジネスルールをXML Schematronで検証するときの記述を明瞭にするため税抜きと税込みを別項目として定義する。
-jbt−131 = ( jbt-146単価(税抜き) ÷ jbt-149品目価格ベース数量 )
-× jbt-129数量
-+ jbt-141明細行の追加請求金額(税抜き) − jbt-136明細行の控除(返還請求)金額(税抜き)
-消費税課税対象金額(税抜き)は小数点以下第2位に四捨五入する必要があるため、計算のさまざまな部分を個別に四捨五入する必要があることに注意。
-つまり、jbt-131消費税課税対象金額(税抜き) = (jbt-146単価(税抜き) ÷ jbt-149品目価格ベース数量) × jbt-129数量 の結果は、小数点以下第2位に四捨五入する必要がある。
-明細行の追加請求金額(税抜き) 及び明細行の追加請求金額(税抜き)も個別に四捨五入される。</t>
-    <rPh sb="140" eb="141">
-      <t>メイサイ</t>
-    </rPh>
-    <rPh sb="149" eb="151">
-      <t>ゼイ</t>
-    </rPh>
-    <rPh sb="163" eb="166">
-      <t>メイサイ</t>
-    </rPh>
-    <rPh sb="167" eb="169">
-      <t>コウジヨ</t>
-    </rPh>
-    <rPh sb="170" eb="174">
-      <t>ヘンカn</t>
-    </rPh>
-    <rPh sb="175" eb="177">
-      <t>キンガク</t>
-    </rPh>
-    <rPh sb="178" eb="180">
-      <t>ゼイ</t>
-    </rPh>
-    <rPh sb="322" eb="324">
-      <t>ヒンモク</t>
-    </rPh>
-    <rPh sb="371" eb="372">
-      <t>オヨビ</t>
-    </rPh>
-    <rPh sb="374" eb="375">
-      <t>ツイカ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>BT-132</t>
@@ -3587,6 +3543,48 @@
   <si>
     <t>BT-153</t>
     <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>明細行の総合計金額</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>欧州規格は税抜き。ビジネスルールをXML Schematronで検証するときの記述を明瞭にするため税抜きと税込みを別項目として定義する。
+jbt−131 = jbt-146単価(税抜き) × (jbt-129数量  ÷ jbt-149品目価格ベース数量 ) + jbt-141明細行の追加請求金額(税抜き) − jbt-136明細行の控除(返還請求)金額(税抜き)
+消費税課税対象金額(税抜き)は小数点以下第2位に四捨五入する必要があるため、計算のさまざまな部分を個別に四捨五入する必要があることに注意。
+つまり、jbt-131消費税課税対象金額(税抜き) = jbt-146単価(税抜き) × (jbt-129数量  ÷ jbt-149品目価格ベース数量)  の結果は、小数点以下第2位に四捨五入する必要がある。
+明細行の追加請求金額(税抜き) 及び明細行の追加請求金額(税抜き)も個別に四捨五入される。</t>
+    <rPh sb="139" eb="140">
+      <t>メイサイ</t>
+    </rPh>
+    <rPh sb="148" eb="150">
+      <t>ゼイ</t>
+    </rPh>
+    <rPh sb="162" eb="165">
+      <t>メイサイ</t>
+    </rPh>
+    <rPh sb="166" eb="168">
+      <t>コウジヨ</t>
+    </rPh>
+    <rPh sb="169" eb="173">
+      <t>ヘンカn</t>
+    </rPh>
+    <rPh sb="174" eb="176">
+      <t>キンガク</t>
+    </rPh>
+    <rPh sb="177" eb="179">
+      <t>ゼイ</t>
+    </rPh>
+    <rPh sb="323" eb="325">
+      <t>ヒンモク</t>
+    </rPh>
+    <rPh sb="372" eb="373">
+      <t>オヨビ</t>
+    </rPh>
+    <rPh sb="375" eb="376">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
   </si>
 </sst>
 </file>
@@ -3809,7 +3807,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4007,6 +4005,9 @@
     </xf>
     <xf numFmtId="10" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -4360,10 +4361,10 @@
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>10</v>
@@ -4584,7 +4585,7 @@
         <v>60</v>
       </c>
       <c r="M9" s="21" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="30">
@@ -4705,7 +4706,7 @@
         <v>90</v>
       </c>
       <c r="M17" s="21" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
     </row>
     <row r="18" spans="10:13" ht="30">
@@ -5026,10 +5027,10 @@
     </row>
     <row r="2" spans="1:14">
       <c r="A2" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="B2" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="C2" t="s">
         <v>10</v>
@@ -5223,7 +5224,7 @@
         <v>45</v>
       </c>
       <c r="N9" s="21" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="30">
@@ -5471,10 +5472,10 @@
     </row>
     <row r="2" spans="1:16">
       <c r="A2" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="B2" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="C2" t="s">
         <v>10</v>
@@ -5725,7 +5726,7 @@
         <v>12.35</v>
       </c>
       <c r="P11" s="21" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
     </row>
     <row r="12" spans="1:16" ht="30">
@@ -5986,10 +5987,10 @@
     </row>
     <row r="2" spans="1:18" ht="19">
       <c r="A2" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="B2" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="C2" t="s">
         <v>10</v>
@@ -6309,7 +6310,7 @@
         <v>222.5</v>
       </c>
       <c r="R12" s="21" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
     </row>
     <row r="13" spans="1:18" ht="30">
@@ -6485,7 +6486,7 @@
         <v>64.12</v>
       </c>
       <c r="R23" s="21" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
     </row>
     <row r="24" spans="15:18" ht="30">
@@ -7025,10 +7026,10 @@
     </row>
     <row r="2" spans="1:16">
       <c r="A2" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="B2" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="C2" t="s">
         <v>10</v>
@@ -7218,7 +7219,7 @@
         <v>Case</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="30">
+    <row r="6" spans="1:16" ht="45">
       <c r="M6" s="20" t="s">
         <v>11</v>
       </c>
@@ -7316,7 +7317,7 @@
         <v>212.5</v>
       </c>
       <c r="P11" s="21" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
     </row>
     <row r="12" spans="1:16" ht="30">
@@ -7381,7 +7382,7 @@
         <v>Case</v>
       </c>
     </row>
-    <row r="16" spans="1:16" ht="30">
+    <row r="16" spans="1:16" ht="45">
       <c r="M16" s="20" t="s">
         <v>11</v>
       </c>
@@ -7479,7 +7480,7 @@
         <v>-85</v>
       </c>
       <c r="P21" s="41" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
     </row>
     <row r="22" spans="13:16" ht="30">
@@ -7603,7 +7604,7 @@
       <c r="O29" s="14"/>
       <c r="P29" s="15"/>
     </row>
-    <row r="30" spans="13:16" ht="30">
+    <row r="30" spans="13:16" ht="45">
       <c r="M30" s="18" t="s">
         <v>26</v>
       </c>
@@ -7698,8 +7699,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04B0C6C4-7C93-B342-B7F1-F7DCFFD93203}">
   <dimension ref="A1:P23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="N4" sqref="N4"/>
+    <sheetView topLeftCell="C3" workbookViewId="0">
+      <selection activeCell="N18" sqref="N18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -7730,10 +7731,10 @@
     </row>
     <row r="2" spans="1:16">
       <c r="A2" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="B2" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="C2" t="s">
         <v>10</v>
@@ -7940,7 +7941,7 @@
         <v>110</v>
       </c>
       <c r="P9" s="21" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -8148,7 +8149,7 @@
         <v>-112.5</v>
       </c>
       <c r="P23" s="44" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
     </row>
   </sheetData>
@@ -8191,10 +8192,10 @@
     </row>
     <row r="2" spans="1:12" customFormat="1" ht="18">
       <c r="A2" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="B2" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="C2" t="s">
         <v>13</v>
@@ -8206,7 +8207,7 @@
         <v>17</v>
       </c>
       <c r="F2" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="L2" s="61"/>
     </row>
@@ -8304,7 +8305,7 @@
         <v>125</v>
       </c>
       <c r="K5" s="21" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="15">
@@ -8415,7 +8416,7 @@
         <v>24</v>
       </c>
       <c r="K9" s="21" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -8478,7 +8479,7 @@
         <v>136</v>
       </c>
       <c r="K13" s="21" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -8535,7 +8536,7 @@
         <v>95</v>
       </c>
       <c r="K17" s="21" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
     </row>
     <row r="18" spans="8:11">
@@ -8592,7 +8593,7 @@
         <v>53</v>
       </c>
       <c r="K21" s="21" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
     </row>
     <row r="22" spans="8:11">
@@ -8827,7 +8828,7 @@
         <v>70.25</v>
       </c>
       <c r="K38" s="21" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
     </row>
     <row r="39" spans="8:11">
@@ -9078,8 +9079,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{280470CF-CD39-6C4C-A658-4679FCC34477}">
   <dimension ref="A1:J324"/>
   <sheetViews>
-    <sheetView topLeftCell="A77" workbookViewId="0">
-      <selection activeCell="D149" sqref="D149"/>
+    <sheetView tabSelected="1" topLeftCell="C158" workbookViewId="0">
+      <selection activeCell="J163" sqref="J163"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -9096,14 +9097,14 @@
         <v>90</v>
       </c>
       <c r="C1" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="D1" t="str">
         <f t="shared" ref="D1:D64" si="0">IF(NOT(ISERROR(FIND(CHAR(10), E1) )),MID(E1,1,FIND(CHAR(10), E1) -1),E1)</f>
         <v>日本版コアインボイス</v>
       </c>
       <c r="E1" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="F1" t="s">
         <v>91</v>
@@ -9127,7 +9128,7 @@
         <v>請求書番号</v>
       </c>
       <c r="E2" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="F2" t="s">
         <v>96</v>
@@ -9151,7 +9152,7 @@
         <v>請求書発効日</v>
       </c>
       <c r="E3" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="F3" t="s">
         <v>100</v>
@@ -9175,7 +9176,7 @@
         <v>請求書タイプコード</v>
       </c>
       <c r="E4" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="F4" t="s">
         <v>104</v>
@@ -9199,7 +9200,7 @@
         <v>為替交換元通貨コード</v>
       </c>
       <c r="E5" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="F5" t="s">
         <v>108</v>
@@ -9307,7 +9308,7 @@
         <v>発注担当者コード</v>
       </c>
       <c r="E10" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="F10" t="s">
         <v>124</v>
@@ -9427,7 +9428,7 @@
         <v>（参照）受取通知書（検収書）番号</v>
       </c>
       <c r="E15" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
       <c r="F15" t="s">
         <v>144</v>
@@ -11656,7 +11657,7 @@
         <v>銀行口座振替</v>
       </c>
       <c r="E104" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
       <c r="G104" t="s">
         <v>496</v>
@@ -11680,7 +11681,7 @@
         <v>支払口座番号</v>
       </c>
       <c r="E105" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="H105" t="s">
         <v>500</v>
@@ -11704,7 +11705,7 @@
         <v>支払口座名義</v>
       </c>
       <c r="E106" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
       <c r="H106" t="s">
         <v>504</v>
@@ -11728,7 +11729,7 @@
         <v>支払金融機関番号</v>
       </c>
       <c r="E107" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="H107" t="s">
         <v>508</v>
@@ -12337,7 +12338,7 @@
         <v>609</v>
       </c>
       <c r="J132" t="s">
-        <v>610</v>
+        <v>906</v>
       </c>
     </row>
     <row r="133" spans="1:10">
@@ -12345,23 +12346,23 @@
         <v>223</v>
       </c>
       <c r="B133" t="s">
+        <v>610</v>
+      </c>
+      <c r="C133" t="s">
         <v>611</v>
-      </c>
-      <c r="C133" t="s">
-        <v>612</v>
       </c>
       <c r="D133" t="str">
         <f t="shared" si="2"/>
         <v>文書全体の控除(返還請求)の総合計金額(税抜き)</v>
       </c>
       <c r="E133" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="G133" t="s">
+        <v>612</v>
+      </c>
+      <c r="J133" t="s">
         <v>613</v>
-      </c>
-      <c r="J133" t="s">
-        <v>614</v>
       </c>
     </row>
     <row r="134" spans="1:10">
@@ -12369,23 +12370,23 @@
         <v>225</v>
       </c>
       <c r="B134" t="s">
+        <v>614</v>
+      </c>
+      <c r="C134" t="s">
         <v>615</v>
-      </c>
-      <c r="C134" t="s">
-        <v>616</v>
       </c>
       <c r="D134" t="str">
         <f t="shared" si="2"/>
         <v>文書全体の追加請求の総合計金額(税抜き)</v>
       </c>
       <c r="E134" t="s">
+        <v>616</v>
+      </c>
+      <c r="G134" t="s">
+        <v>616</v>
+      </c>
+      <c r="J134" t="s">
         <v>617</v>
-      </c>
-      <c r="G134" t="s">
-        <v>617</v>
-      </c>
-      <c r="J134" t="s">
-        <v>618</v>
       </c>
     </row>
     <row r="135" spans="1:10">
@@ -12393,26 +12394,26 @@
         <v>227</v>
       </c>
       <c r="B135" t="s">
+        <v>618</v>
+      </c>
+      <c r="C135" t="s">
         <v>619</v>
-      </c>
-      <c r="C135" t="s">
-        <v>620</v>
       </c>
       <c r="D135" t="str">
         <f t="shared" si="2"/>
         <v>税抜き合計金額</v>
       </c>
       <c r="E135" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="F135" t="s">
         <v>93</v>
       </c>
       <c r="G135" t="s">
+        <v>620</v>
+      </c>
+      <c r="J135" t="s">
         <v>621</v>
-      </c>
-      <c r="J135" t="s">
-        <v>622</v>
       </c>
     </row>
     <row r="136" spans="1:10">
@@ -12420,26 +12421,26 @@
         <v>228</v>
       </c>
       <c r="B136" t="s">
+        <v>622</v>
+      </c>
+      <c r="C136" t="s">
         <v>623</v>
-      </c>
-      <c r="C136" t="s">
-        <v>624</v>
       </c>
       <c r="D136" t="str">
         <f t="shared" si="2"/>
         <v>消費税合計金額</v>
       </c>
       <c r="E136" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="F136" t="s">
         <v>93</v>
       </c>
       <c r="G136" t="s">
+        <v>624</v>
+      </c>
+      <c r="J136" t="s">
         <v>625</v>
-      </c>
-      <c r="J136" t="s">
-        <v>626</v>
       </c>
     </row>
     <row r="137" spans="1:10">
@@ -12447,23 +12448,23 @@
         <v>229</v>
       </c>
       <c r="B137" t="s">
+        <v>626</v>
+      </c>
+      <c r="C137" t="s">
         <v>627</v>
-      </c>
-      <c r="C137" t="s">
-        <v>628</v>
       </c>
       <c r="D137" t="str">
         <f t="shared" si="2"/>
         <v>会計通貨での税込み合計金額</v>
       </c>
       <c r="E137" t="s">
+        <v>628</v>
+      </c>
+      <c r="G137" t="s">
+        <v>628</v>
+      </c>
+      <c r="J137" t="s">
         <v>629</v>
-      </c>
-      <c r="G137" t="s">
-        <v>629</v>
-      </c>
-      <c r="J137" t="s">
-        <v>630</v>
       </c>
     </row>
     <row r="138" spans="1:10">
@@ -12471,26 +12472,26 @@
         <v>230</v>
       </c>
       <c r="B138" t="s">
+        <v>630</v>
+      </c>
+      <c r="C138" t="s">
         <v>631</v>
-      </c>
-      <c r="C138" t="s">
-        <v>632</v>
       </c>
       <c r="D138" t="str">
         <f t="shared" si="2"/>
         <v>税込み合計金額</v>
       </c>
       <c r="E138" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="F138" t="s">
         <v>93</v>
       </c>
       <c r="G138" t="s">
+        <v>632</v>
+      </c>
+      <c r="J138" t="s">
         <v>633</v>
-      </c>
-      <c r="J138" t="s">
-        <v>634</v>
       </c>
     </row>
     <row r="139" spans="1:10">
@@ -12498,7 +12499,7 @@
         <v>231</v>
       </c>
       <c r="B139" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="C139" t="s">
         <v>538</v>
@@ -12508,13 +12509,13 @@
         <v>支払済金額</v>
       </c>
       <c r="E139" t="s">
+        <v>635</v>
+      </c>
+      <c r="G139" t="s">
+        <v>635</v>
+      </c>
+      <c r="J139" t="s">
         <v>636</v>
-      </c>
-      <c r="G139" t="s">
-        <v>636</v>
-      </c>
-      <c r="J139" t="s">
-        <v>637</v>
       </c>
     </row>
     <row r="140" spans="1:10">
@@ -12522,23 +12523,23 @@
         <v>232</v>
       </c>
       <c r="B140" t="s">
+        <v>637</v>
+      </c>
+      <c r="C140" t="s">
         <v>638</v>
-      </c>
-      <c r="C140" t="s">
-        <v>639</v>
       </c>
       <c r="D140" t="str">
         <f t="shared" si="2"/>
         <v>端数処理金額</v>
       </c>
       <c r="E140" t="s">
+        <v>639</v>
+      </c>
+      <c r="G140" t="s">
+        <v>639</v>
+      </c>
+      <c r="J140" t="s">
         <v>640</v>
-      </c>
-      <c r="G140" t="s">
-        <v>640</v>
-      </c>
-      <c r="J140" t="s">
-        <v>641</v>
       </c>
     </row>
     <row r="141" spans="1:10">
@@ -12546,23 +12547,23 @@
         <v>233</v>
       </c>
       <c r="B141" t="s">
+        <v>641</v>
+      </c>
+      <c r="C141" t="s">
         <v>642</v>
-      </c>
-      <c r="C141" t="s">
-        <v>643</v>
       </c>
       <c r="D141" t="str">
         <f t="shared" si="2"/>
         <v>未払い金額</v>
       </c>
       <c r="E141" t="s">
+        <v>643</v>
+      </c>
+      <c r="G141" t="s">
+        <v>643</v>
+      </c>
+      <c r="J141" t="s">
         <v>644</v>
-      </c>
-      <c r="G141" t="s">
-        <v>644</v>
-      </c>
-      <c r="J141" t="s">
-        <v>645</v>
       </c>
     </row>
     <row r="142" spans="1:10">
@@ -12570,23 +12571,23 @@
         <v>235</v>
       </c>
       <c r="B142" t="s">
+        <v>645</v>
+      </c>
+      <c r="C142" t="s">
         <v>646</v>
-      </c>
-      <c r="C142" t="s">
-        <v>647</v>
       </c>
       <c r="D142" t="str">
         <f t="shared" si="2"/>
         <v>税の内訳</v>
       </c>
       <c r="E142" t="s">
+        <v>647</v>
+      </c>
+      <c r="F142" t="s">
+        <v>647</v>
+      </c>
+      <c r="J142" t="s">
         <v>648</v>
-      </c>
-      <c r="F142" t="s">
-        <v>648</v>
-      </c>
-      <c r="J142" t="s">
-        <v>649</v>
       </c>
     </row>
     <row r="143" spans="1:10">
@@ -12594,26 +12595,26 @@
         <v>236</v>
       </c>
       <c r="B143" t="s">
+        <v>649</v>
+      </c>
+      <c r="C143" t="s">
         <v>650</v>
-      </c>
-      <c r="C143" t="s">
-        <v>651</v>
       </c>
       <c r="D143" t="str">
         <f t="shared" si="2"/>
         <v>課税対象の合計金額(税抜き)</v>
       </c>
       <c r="E143" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="F143" t="s">
         <v>93</v>
       </c>
       <c r="G143" t="s">
+        <v>651</v>
+      </c>
+      <c r="J143" t="s">
         <v>652</v>
-      </c>
-      <c r="J143" t="s">
-        <v>653</v>
       </c>
     </row>
     <row r="144" spans="1:10">
@@ -12621,26 +12622,26 @@
         <v>238</v>
       </c>
       <c r="B144" t="s">
+        <v>653</v>
+      </c>
+      <c r="C144" t="s">
         <v>654</v>
-      </c>
-      <c r="C144" t="s">
-        <v>655</v>
       </c>
       <c r="D144" t="str">
         <f t="shared" si="2"/>
         <v>税額</v>
       </c>
       <c r="E144" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="F144" t="s">
         <v>93</v>
       </c>
       <c r="G144" t="s">
+        <v>655</v>
+      </c>
+      <c r="J144" t="s">
         <v>656</v>
-      </c>
-      <c r="J144" t="s">
-        <v>657</v>
       </c>
     </row>
     <row r="145" spans="1:10">
@@ -12648,26 +12649,26 @@
         <v>240</v>
       </c>
       <c r="B145" t="s">
+        <v>657</v>
+      </c>
+      <c r="C145" t="s">
         <v>658</v>
-      </c>
-      <c r="C145" t="s">
-        <v>659</v>
       </c>
       <c r="D145" t="str">
         <f t="shared" si="2"/>
         <v>課税分類コード</v>
       </c>
       <c r="E145" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="F145" t="s">
         <v>93</v>
       </c>
       <c r="G145" t="s">
+        <v>659</v>
+      </c>
+      <c r="J145" t="s">
         <v>660</v>
-      </c>
-      <c r="J145" t="s">
-        <v>661</v>
       </c>
     </row>
     <row r="146" spans="1:10">
@@ -12675,26 +12676,26 @@
         <v>242</v>
       </c>
       <c r="B146" t="s">
+        <v>661</v>
+      </c>
+      <c r="C146" t="s">
         <v>662</v>
-      </c>
-      <c r="C146" t="s">
-        <v>663</v>
       </c>
       <c r="D146" t="str">
         <f t="shared" si="2"/>
         <v>税率</v>
       </c>
       <c r="E146" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="F146" t="s">
         <v>93</v>
       </c>
       <c r="G146" t="s">
+        <v>663</v>
+      </c>
+      <c r="J146" t="s">
         <v>664</v>
-      </c>
-      <c r="J146" t="s">
-        <v>665</v>
       </c>
     </row>
     <row r="147" spans="1:10">
@@ -12702,13 +12703,13 @@
         <v>243</v>
       </c>
       <c r="B147" t="s">
+        <v>665</v>
+      </c>
+      <c r="C147" t="s">
         <v>666</v>
       </c>
-      <c r="C147" t="s">
-        <v>667</v>
-      </c>
       <c r="D147" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="E147" t="s">
         <v>93</v>
@@ -12719,13 +12720,13 @@
         <v>244</v>
       </c>
       <c r="B148" t="s">
+        <v>667</v>
+      </c>
+      <c r="C148" t="s">
         <v>668</v>
       </c>
-      <c r="C148" t="s">
-        <v>669</v>
-      </c>
       <c r="D148" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
       <c r="E148" t="s">
         <v>93</v>
@@ -12736,23 +12737,23 @@
         <v>246</v>
       </c>
       <c r="B149" t="s">
+        <v>669</v>
+      </c>
+      <c r="C149" t="s">
         <v>670</v>
-      </c>
-      <c r="C149" t="s">
-        <v>671</v>
       </c>
       <c r="D149" t="str">
         <f t="shared" si="2"/>
         <v>添付書類</v>
       </c>
       <c r="E149" t="s">
+        <v>671</v>
+      </c>
+      <c r="F149" t="s">
+        <v>671</v>
+      </c>
+      <c r="J149" t="s">
         <v>672</v>
-      </c>
-      <c r="F149" t="s">
-        <v>672</v>
-      </c>
-      <c r="J149" t="s">
-        <v>673</v>
       </c>
     </row>
     <row r="150" spans="1:10">
@@ -12760,23 +12761,23 @@
         <v>247</v>
       </c>
       <c r="B150" t="s">
+        <v>673</v>
+      </c>
+      <c r="C150" t="s">
         <v>674</v>
-      </c>
-      <c r="C150" t="s">
-        <v>675</v>
       </c>
       <c r="D150" t="str">
         <f t="shared" si="2"/>
         <v>添付書類への参照</v>
       </c>
       <c r="E150" t="s">
+        <v>675</v>
+      </c>
+      <c r="G150" t="s">
+        <v>675</v>
+      </c>
+      <c r="J150" t="s">
         <v>676</v>
-      </c>
-      <c r="G150" t="s">
-        <v>676</v>
-      </c>
-      <c r="J150" t="s">
-        <v>677</v>
       </c>
     </row>
     <row r="151" spans="1:10">
@@ -12784,23 +12785,23 @@
         <v>248</v>
       </c>
       <c r="B151" t="s">
+        <v>677</v>
+      </c>
+      <c r="C151" t="s">
         <v>678</v>
-      </c>
-      <c r="C151" t="s">
-        <v>679</v>
       </c>
       <c r="D151" t="str">
         <f t="shared" si="2"/>
         <v>添付書類の説明</v>
       </c>
       <c r="E151" t="s">
+        <v>679</v>
+      </c>
+      <c r="G151" t="s">
+        <v>679</v>
+      </c>
+      <c r="J151" t="s">
         <v>680</v>
-      </c>
-      <c r="G151" t="s">
-        <v>680</v>
-      </c>
-      <c r="J151" t="s">
-        <v>681</v>
       </c>
     </row>
     <row r="152" spans="1:10">
@@ -12808,23 +12809,23 @@
         <v>249</v>
       </c>
       <c r="B152" t="s">
+        <v>681</v>
+      </c>
+      <c r="C152" t="s">
         <v>682</v>
-      </c>
-      <c r="C152" t="s">
-        <v>683</v>
       </c>
       <c r="D152" t="str">
         <f t="shared" si="2"/>
         <v>外部の添付書類の場所</v>
       </c>
       <c r="E152" t="s">
+        <v>683</v>
+      </c>
+      <c r="G152" t="s">
+        <v>683</v>
+      </c>
+      <c r="J152" t="s">
         <v>684</v>
-      </c>
-      <c r="G152" t="s">
-        <v>684</v>
-      </c>
-      <c r="J152" t="s">
-        <v>685</v>
       </c>
     </row>
     <row r="153" spans="1:10">
@@ -12832,23 +12833,23 @@
         <v>250</v>
       </c>
       <c r="B153" t="s">
+        <v>685</v>
+      </c>
+      <c r="C153" t="s">
         <v>686</v>
-      </c>
-      <c r="C153" t="s">
-        <v>687</v>
       </c>
       <c r="D153" t="str">
         <f t="shared" si="2"/>
         <v>添付書類</v>
       </c>
       <c r="E153" t="s">
+        <v>687</v>
+      </c>
+      <c r="G153" t="s">
+        <v>687</v>
+      </c>
+      <c r="J153" t="s">
         <v>688</v>
-      </c>
-      <c r="G153" t="s">
-        <v>688</v>
-      </c>
-      <c r="J153" t="s">
-        <v>689</v>
       </c>
     </row>
     <row r="154" spans="1:10">
@@ -12856,23 +12857,23 @@
         <v>251</v>
       </c>
       <c r="B154" t="s">
+        <v>689</v>
+      </c>
+      <c r="C154" t="s">
         <v>690</v>
-      </c>
-      <c r="C154" t="s">
-        <v>691</v>
       </c>
       <c r="D154" t="str">
         <f t="shared" si="2"/>
         <v>添付書類MIMEコード</v>
       </c>
       <c r="E154" t="s">
+        <v>691</v>
+      </c>
+      <c r="H154" t="s">
+        <v>691</v>
+      </c>
+      <c r="J154" t="s">
         <v>692</v>
-      </c>
-      <c r="H154" t="s">
-        <v>692</v>
-      </c>
-      <c r="J154" t="s">
-        <v>693</v>
       </c>
     </row>
     <row r="155" spans="1:10">
@@ -12880,23 +12881,23 @@
         <v>252</v>
       </c>
       <c r="B155" t="s">
+        <v>693</v>
+      </c>
+      <c r="C155" t="s">
         <v>694</v>
-      </c>
-      <c r="C155" t="s">
-        <v>695</v>
       </c>
       <c r="D155" t="str">
         <f t="shared" si="2"/>
         <v>添付書類ファイル名</v>
       </c>
       <c r="E155" t="s">
+        <v>695</v>
+      </c>
+      <c r="H155" t="s">
+        <v>695</v>
+      </c>
+      <c r="J155" t="s">
         <v>696</v>
-      </c>
-      <c r="H155" t="s">
-        <v>696</v>
-      </c>
-      <c r="J155" t="s">
-        <v>697</v>
       </c>
     </row>
     <row r="156" spans="1:10">
@@ -12904,23 +12905,23 @@
         <v>253</v>
       </c>
       <c r="B156" t="s">
+        <v>697</v>
+      </c>
+      <c r="C156" t="s">
         <v>698</v>
-      </c>
-      <c r="C156" t="s">
-        <v>699</v>
       </c>
       <c r="D156" t="str">
         <f t="shared" si="2"/>
         <v>明細行</v>
       </c>
       <c r="E156" t="s">
+        <v>699</v>
+      </c>
+      <c r="F156" t="s">
+        <v>699</v>
+      </c>
+      <c r="J156" t="s">
         <v>700</v>
-      </c>
-      <c r="F156" t="s">
-        <v>700</v>
-      </c>
-      <c r="J156" t="s">
-        <v>701</v>
       </c>
     </row>
     <row r="157" spans="1:10">
@@ -12928,26 +12929,26 @@
         <v>254</v>
       </c>
       <c r="B157" t="s">
+        <v>701</v>
+      </c>
+      <c r="C157" t="s">
         <v>702</v>
-      </c>
-      <c r="C157" t="s">
-        <v>703</v>
       </c>
       <c r="D157" t="str">
         <f t="shared" si="2"/>
         <v>明細行番号</v>
       </c>
       <c r="E157" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="F157" t="s">
         <v>93</v>
       </c>
       <c r="G157" t="s">
+        <v>703</v>
+      </c>
+      <c r="J157" t="s">
         <v>704</v>
-      </c>
-      <c r="J157" t="s">
-        <v>705</v>
       </c>
     </row>
     <row r="158" spans="1:10">
@@ -12955,26 +12956,26 @@
         <v>258</v>
       </c>
       <c r="B158" t="s">
+        <v>705</v>
+      </c>
+      <c r="C158" t="s">
         <v>706</v>
-      </c>
-      <c r="C158" t="s">
-        <v>707</v>
       </c>
       <c r="D158" t="str">
         <f t="shared" si="2"/>
         <v>明細行注釈</v>
       </c>
       <c r="E158" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="F158" t="s">
         <v>93</v>
       </c>
       <c r="G158" t="s">
+        <v>707</v>
+      </c>
+      <c r="J158" t="s">
         <v>708</v>
-      </c>
-      <c r="J158" t="s">
-        <v>709</v>
       </c>
     </row>
     <row r="159" spans="1:10">
@@ -12982,23 +12983,23 @@
         <v>259</v>
       </c>
       <c r="B159" t="s">
+        <v>709</v>
+      </c>
+      <c r="C159" t="s">
         <v>710</v>
-      </c>
-      <c r="C159" t="s">
-        <v>711</v>
       </c>
       <c r="D159" t="str">
         <f t="shared" si="2"/>
         <v>請求書明細オブジェクト識別子</v>
       </c>
       <c r="E159" t="s">
+        <v>711</v>
+      </c>
+      <c r="G159" t="s">
+        <v>711</v>
+      </c>
+      <c r="J159" t="s">
         <v>712</v>
-      </c>
-      <c r="G159" t="s">
-        <v>712</v>
-      </c>
-      <c r="J159" t="s">
-        <v>713</v>
       </c>
     </row>
     <row r="160" spans="1:10">
@@ -13006,7 +13007,7 @@
         <v>260</v>
       </c>
       <c r="B160" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="C160" t="s">
         <v>217</v>
@@ -13022,7 +13023,7 @@
         <v>218</v>
       </c>
       <c r="J160" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
     </row>
     <row r="161" spans="1:10">
@@ -13030,26 +13031,26 @@
         <v>262</v>
       </c>
       <c r="B161" t="s">
+        <v>715</v>
+      </c>
+      <c r="C161" t="s">
         <v>716</v>
-      </c>
-      <c r="C161" t="s">
-        <v>717</v>
       </c>
       <c r="D161" t="str">
         <f t="shared" si="2"/>
         <v>数量</v>
       </c>
       <c r="E161" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="F161" t="s">
         <v>93</v>
       </c>
       <c r="G161" t="s">
+        <v>717</v>
+      </c>
+      <c r="J161" t="s">
         <v>718</v>
-      </c>
-      <c r="J161" t="s">
-        <v>719</v>
       </c>
     </row>
     <row r="162" spans="1:10">
@@ -13057,23 +13058,23 @@
         <v>263</v>
       </c>
       <c r="B162" t="s">
+        <v>719</v>
+      </c>
+      <c r="C162" t="s">
         <v>720</v>
-      </c>
-      <c r="C162" t="s">
-        <v>721</v>
       </c>
       <c r="D162" t="str">
         <f t="shared" si="2"/>
         <v>数量単位コード</v>
       </c>
       <c r="E162" t="s">
+        <v>721</v>
+      </c>
+      <c r="G162" t="s">
+        <v>721</v>
+      </c>
+      <c r="J162" t="s">
         <v>722</v>
-      </c>
-      <c r="G162" t="s">
-        <v>722</v>
-      </c>
-      <c r="J162" t="s">
-        <v>723</v>
       </c>
     </row>
     <row r="163" spans="1:10">
@@ -13081,26 +13082,26 @@
         <v>267</v>
       </c>
       <c r="B163" t="s">
+        <v>723</v>
+      </c>
+      <c r="C163" t="s">
         <v>724</v>
-      </c>
-      <c r="C163" t="s">
-        <v>725</v>
       </c>
       <c r="D163" t="str">
         <f t="shared" si="2"/>
         <v>課税対象金額(税抜き)</v>
       </c>
       <c r="E163" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="F163" t="s">
         <v>93</v>
       </c>
       <c r="G163" t="s">
-        <v>726</v>
-      </c>
-      <c r="J163" t="s">
-        <v>727</v>
+        <v>725</v>
+      </c>
+      <c r="J163" s="66" t="s">
+        <v>907</v>
       </c>
     </row>
     <row r="164" spans="1:10">
@@ -13108,10 +13109,10 @@
         <v>272</v>
       </c>
       <c r="B164" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="C164" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="D164" t="str">
         <f t="shared" si="2"/>
@@ -13126,23 +13127,23 @@
         <v>275</v>
       </c>
       <c r="B165" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="C165" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="D165" t="str">
         <f t="shared" si="2"/>
         <v>（参照）発注書明細行番号</v>
       </c>
       <c r="E165" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="G165" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="J165" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
     </row>
     <row r="166" spans="1:10">
@@ -13150,23 +13151,23 @@
         <v>278</v>
       </c>
       <c r="B166" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="C166" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="D166" t="str">
         <f t="shared" si="2"/>
         <v>明細行の発注者の会計記帳への参照</v>
       </c>
       <c r="E166" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="G166" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="J166" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
     </row>
     <row r="167" spans="1:10">
@@ -13174,23 +13175,23 @@
         <v>279</v>
       </c>
       <c r="B167" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="C167" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="D167" t="str">
         <f t="shared" si="2"/>
         <v>明細行の期間</v>
       </c>
       <c r="E167" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="G167" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="J167" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
     </row>
     <row r="168" spans="1:10">
@@ -13198,23 +13199,23 @@
         <v>280</v>
       </c>
       <c r="B168" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="C168" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="D168" t="str">
         <f t="shared" si="2"/>
         <v>明細行の期間開始日</v>
       </c>
       <c r="E168" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="H168" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="J168" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
     </row>
     <row r="169" spans="1:10">
@@ -13222,23 +13223,23 @@
         <v>281</v>
       </c>
       <c r="B169" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="C169" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="D169" t="str">
         <f t="shared" si="2"/>
         <v>明細行の期間終了日</v>
       </c>
       <c r="E169" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="H169" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="J169" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
     </row>
     <row r="170" spans="1:10">
@@ -13246,23 +13247,23 @@
         <v>282</v>
       </c>
       <c r="B170" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="C170" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="D170" t="str">
         <f t="shared" si="2"/>
         <v>明細行の控除(返還請求)</v>
       </c>
       <c r="E170" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="G170" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="J170" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
     </row>
     <row r="171" spans="1:10">
@@ -13270,20 +13271,20 @@
         <v>283</v>
       </c>
       <c r="B171" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="C171" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="D171" t="str">
         <f t="shared" si="2"/>
         <v>明細行の控除(返還請求)金額(税抜き)</v>
       </c>
       <c r="E171" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="H171" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="J171" t="s">
         <v>546</v>
@@ -13294,23 +13295,23 @@
         <v>285</v>
       </c>
       <c r="B172" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="C172" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="D172" t="str">
         <f t="shared" si="2"/>
         <v>明細行の控除(返還請求)の基準金額</v>
       </c>
       <c r="E172" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="H172" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="J172" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
     </row>
     <row r="173" spans="1:10">
@@ -13318,23 +13319,23 @@
         <v>286</v>
       </c>
       <c r="B173" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="C173" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="D173" t="str">
         <f t="shared" si="2"/>
         <v>明細行の控除(返還請求)率</v>
       </c>
       <c r="E173" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="H173" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="J173" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
     </row>
     <row r="174" spans="1:10">
@@ -13342,23 +13343,23 @@
         <v>287</v>
       </c>
       <c r="B174" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="C174" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="D174" t="str">
         <f t="shared" si="2"/>
         <v>明細行の控除(返還請求)の事由</v>
       </c>
       <c r="E174" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="H174" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="J174" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
     </row>
     <row r="175" spans="1:10">
@@ -13366,23 +13367,23 @@
         <v>288</v>
       </c>
       <c r="B175" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="C175" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="D175" t="str">
         <f t="shared" si="2"/>
         <v>明細行の控除(返還請求)の事由コード</v>
       </c>
       <c r="E175" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="H175" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="J175" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
     </row>
     <row r="176" spans="1:10">
@@ -13390,23 +13391,23 @@
         <v>289</v>
       </c>
       <c r="B176" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="C176" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="D176" t="str">
         <f t="shared" si="2"/>
         <v>明細行の追加請求</v>
       </c>
       <c r="E176" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="G176" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="J176" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
     </row>
     <row r="177" spans="1:10">
@@ -13414,23 +13415,23 @@
         <v>290</v>
       </c>
       <c r="B177" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="C177" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="D177" t="str">
         <f t="shared" si="2"/>
         <v>明細行の追加請求金額(税抜き)</v>
       </c>
       <c r="E177" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="H177" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="J177" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
     </row>
     <row r="178" spans="1:10">
@@ -13438,23 +13439,23 @@
         <v>292</v>
       </c>
       <c r="B178" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="C178" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="D178" t="str">
         <f t="shared" si="2"/>
         <v>明細行の追加請求の基準金額</v>
       </c>
       <c r="E178" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="H178" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="J178" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
     </row>
     <row r="179" spans="1:10">
@@ -13462,23 +13463,23 @@
         <v>293</v>
       </c>
       <c r="B179" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="C179" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="D179" t="str">
         <f t="shared" si="2"/>
         <v>明細行の追加請求率</v>
       </c>
       <c r="E179" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="H179" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="J179" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
     </row>
     <row r="180" spans="1:10">
@@ -13486,23 +13487,23 @@
         <v>294</v>
       </c>
       <c r="B180" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="C180" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="D180" t="str">
         <f t="shared" si="2"/>
         <v>明細行の追加請求の事由</v>
       </c>
       <c r="E180" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="H180" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="J180" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
     </row>
     <row r="181" spans="1:10">
@@ -13510,23 +13511,23 @@
         <v>295</v>
       </c>
       <c r="B181" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="C181" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="D181" t="str">
         <f t="shared" si="2"/>
         <v>明細行の追加請求の事由コード</v>
       </c>
       <c r="E181" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="H181" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="J181" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
     </row>
     <row r="182" spans="1:10">
@@ -13534,26 +13535,26 @@
         <v>296</v>
       </c>
       <c r="B182" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="C182" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="D182" t="str">
         <f t="shared" si="2"/>
         <v>取引価格</v>
       </c>
       <c r="E182" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="F182" t="s">
         <v>93</v>
       </c>
       <c r="G182" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="J182" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
     </row>
     <row r="183" spans="1:10">
@@ -13561,17 +13562,17 @@
         <v>297</v>
       </c>
       <c r="B183" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="C183" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="D183" t="str">
         <f t="shared" si="2"/>
         <v>品目取引単価(税抜き)</v>
       </c>
       <c r="E183" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="F183" t="s">
         <v>93</v>
@@ -13580,10 +13581,10 @@
         <v>93</v>
       </c>
       <c r="H183" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="J183" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
     </row>
     <row r="184" spans="1:10">
@@ -13591,23 +13592,23 @@
         <v>299</v>
       </c>
       <c r="B184" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="C184" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="D184" t="str">
         <f t="shared" si="2"/>
         <v>品目割引金額</v>
       </c>
       <c r="E184" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="H184" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="J184" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
     </row>
     <row r="185" spans="1:10">
@@ -13615,23 +13616,23 @@
         <v>300</v>
       </c>
       <c r="B185" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="C185" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="D185" t="str">
         <f t="shared" si="2"/>
         <v>品目標準単価</v>
       </c>
       <c r="E185" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="H185" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="J185" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
     </row>
     <row r="186" spans="1:10">
@@ -13639,23 +13640,23 @@
         <v>301</v>
       </c>
       <c r="B186" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="C186" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="D186" t="str">
         <f t="shared" si="2"/>
         <v>品目価格ベース数量</v>
       </c>
       <c r="E186" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="H186" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="J186" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
     </row>
     <row r="187" spans="1:10">
@@ -13663,23 +13664,23 @@
         <v>302</v>
       </c>
       <c r="B187" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="C187" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="D187" t="str">
         <f t="shared" si="2"/>
         <v>品目価格基準数量単位</v>
       </c>
       <c r="E187" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="H187" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="J187" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
     </row>
     <row r="188" spans="1:10">
@@ -13687,26 +13688,26 @@
         <v>303</v>
       </c>
       <c r="B188" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="C188" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="D188" t="str">
         <f t="shared" si="2"/>
         <v>明細行税額情報</v>
       </c>
       <c r="E188" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="F188" t="s">
         <v>93</v>
       </c>
       <c r="G188" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="J188" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
     </row>
     <row r="189" spans="1:10">
@@ -13714,17 +13715,17 @@
         <v>304</v>
       </c>
       <c r="B189" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="C189" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="D189" t="str">
         <f t="shared" si="2"/>
         <v>品目課税分類コード</v>
       </c>
       <c r="E189" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="F189" t="s">
         <v>93</v>
@@ -13733,10 +13734,10 @@
         <v>93</v>
       </c>
       <c r="H189" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="J189" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
     </row>
     <row r="190" spans="1:10">
@@ -13744,17 +13745,17 @@
         <v>305</v>
       </c>
       <c r="B190" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="C190" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="D190" t="str">
         <f t="shared" si="2"/>
         <v>品目税率</v>
       </c>
       <c r="E190" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="F190" t="s">
         <v>93</v>
@@ -13763,10 +13764,10 @@
         <v>93</v>
       </c>
       <c r="H190" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="J190" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
     </row>
     <row r="191" spans="1:10">
@@ -13774,26 +13775,26 @@
         <v>311</v>
       </c>
       <c r="B191" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="C191" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="D191" t="str">
         <f t="shared" si="2"/>
         <v>品目情報</v>
       </c>
       <c r="E191" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="F191" t="s">
         <v>93</v>
       </c>
       <c r="G191" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="J191" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
     </row>
     <row r="192" spans="1:10">
@@ -13801,17 +13802,17 @@
         <v>312</v>
       </c>
       <c r="B192" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="C192" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="D192" t="str">
         <f t="shared" si="2"/>
         <v>品名</v>
       </c>
       <c r="E192" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="F192" t="s">
         <v>93</v>
@@ -13820,10 +13821,10 @@
         <v>93</v>
       </c>
       <c r="H192" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="J192" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
     </row>
     <row r="193" spans="1:10">
@@ -13831,17 +13832,17 @@
         <v>313</v>
       </c>
       <c r="B193" t="s">
+        <v>837</v>
+      </c>
+      <c r="C193" t="s">
+        <v>838</v>
+      </c>
+      <c r="D193" t="str">
+        <f t="shared" ref="D193:D204" si="3">IF(NOT(ISERROR(FIND(CHAR(10), E193) )),MID(E193,1,FIND(CHAR(10), E193) -1),E193)</f>
+        <v>品目摘要</v>
+      </c>
+      <c r="E193" t="s">
         <v>839</v>
-      </c>
-      <c r="C193" t="s">
-        <v>840</v>
-      </c>
-      <c r="D193" t="str">
-        <f t="shared" ref="D193:D238" si="3">IF(NOT(ISERROR(FIND(CHAR(10), E193) )),MID(E193,1,FIND(CHAR(10), E193) -1),E193)</f>
-        <v>品目摘要</v>
-      </c>
-      <c r="E193" t="s">
-        <v>841</v>
       </c>
       <c r="F193" t="s">
         <v>93</v>
@@ -13850,10 +13851,10 @@
         <v>93</v>
       </c>
       <c r="H193" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="J193" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
     </row>
     <row r="194" spans="1:10">
@@ -13861,23 +13862,23 @@
         <v>314</v>
       </c>
       <c r="B194" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="C194" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="D194" t="str">
         <f t="shared" si="3"/>
         <v>受注者による品目識別子</v>
       </c>
       <c r="E194" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="H194" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="J194" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
     </row>
     <row r="195" spans="1:10">
@@ -13885,23 +13886,23 @@
         <v>315</v>
       </c>
       <c r="B195" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="C195" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="D195" t="str">
         <f t="shared" si="3"/>
         <v>発注者による品目識別子</v>
       </c>
       <c r="E195" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="H195" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="J195" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
     </row>
     <row r="196" spans="1:10">
@@ -13909,17 +13910,17 @@
         <v>316</v>
       </c>
       <c r="B196" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="C196" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="D196" t="str">
         <f t="shared" si="3"/>
         <v>品名コード</v>
       </c>
       <c r="E196" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="F196" t="s">
         <v>93</v>
@@ -13928,10 +13929,10 @@
         <v>93</v>
       </c>
       <c r="H196" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="J196" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
     </row>
     <row r="197" spans="1:10">
@@ -13939,7 +13940,7 @@
         <v>317</v>
       </c>
       <c r="B197" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="C197" t="s">
         <v>217</v>
@@ -13963,23 +13964,23 @@
         <v>318</v>
       </c>
       <c r="B198" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="C198" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="D198" t="str">
         <f t="shared" si="3"/>
         <v>品目分類識別子</v>
       </c>
       <c r="E198" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="H198" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="J198" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
     </row>
     <row r="199" spans="1:10">
@@ -13987,7 +13988,7 @@
         <v>319</v>
       </c>
       <c r="B199" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="C199" t="s">
         <v>217</v>
@@ -14003,7 +14004,7 @@
         <v>493</v>
       </c>
       <c r="J199" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
     </row>
     <row r="200" spans="1:10">
@@ -14011,23 +14012,23 @@
         <v>320</v>
       </c>
       <c r="B200" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="C200" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="D200" t="str">
         <f t="shared" si="3"/>
         <v>スキーマのバージョン識別子</v>
       </c>
       <c r="E200" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="I200" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="J200" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
     </row>
     <row r="201" spans="1:10">
@@ -14035,23 +14036,23 @@
         <v>321</v>
       </c>
       <c r="B201" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="C201" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="D201" t="str">
         <f t="shared" si="3"/>
         <v>品目の原産国</v>
       </c>
       <c r="E201" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="H201" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="J201" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
     </row>
     <row r="202" spans="1:10">
@@ -14059,23 +14060,23 @@
         <v>322</v>
       </c>
       <c r="B202" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="C202" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="D202" t="str">
         <f t="shared" si="3"/>
         <v>品目属性</v>
       </c>
       <c r="E202" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="H202" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="J202" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
     </row>
     <row r="203" spans="1:10">
@@ -14083,23 +14084,23 @@
         <v>323</v>
       </c>
       <c r="B203" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="C203" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="D203" t="str">
         <f t="shared" si="3"/>
         <v>品目属性名</v>
       </c>
       <c r="E203" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="I203" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="J203" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
     </row>
     <row r="204" spans="1:10">
@@ -14107,23 +14108,23 @@
         <v>324</v>
       </c>
       <c r="B204" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="C204" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="D204" t="str">
         <f t="shared" si="3"/>
         <v>品目属性値</v>
       </c>
       <c r="E204" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="I204" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="J204" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
     </row>
     <row r="324" spans="1:5">

--- a/日本版コアインボイス/EN16931-1_Annex_A和訳.xlsx
+++ b/日本版コアインボイス/EN16931-1_Annex_A和訳.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pontsoleil/Documents/GitHub/EIPA/日本版コアインボイス/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18C7B469-A060-D14C-94AC-B29BAE1DA7F3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5364AFD7-7ACC-5341-B706-428C929CFF43}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1280" yWindow="580" windowWidth="24080" windowHeight="15360" activeTab="7" xr2:uid="{12D2A6F6-74CB-D142-9378-ACF39F2C2E77}"/>
+    <workbookView xWindow="1280" yWindow="580" windowWidth="24080" windowHeight="15360" activeTab="5" xr2:uid="{12D2A6F6-74CB-D142-9378-ACF39F2C2E77}"/>
   </bookViews>
   <sheets>
     <sheet name="Example 1" sheetId="1" r:id="rId1"/>
@@ -320,10 +320,6 @@
   </si>
   <si>
     <t>Kg</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Example 5 (Negative Invoiced ine)</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -3585,6 +3581,10 @@
       <t>ツイカ</t>
     </rPh>
     <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>Example 5 (Negative Invoice)</t>
+    <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
@@ -4329,7 +4329,7 @@
   <dimension ref="A1:M35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K1" sqref="K1:K1048576"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
@@ -4352,7 +4352,7 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="2"/>
@@ -4361,10 +4361,10 @@
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
+        <v>903</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>904</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>905</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>10</v>
@@ -4585,7 +4585,7 @@
         <v>60</v>
       </c>
       <c r="M9" s="21" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="30">
@@ -4706,7 +4706,7 @@
         <v>90</v>
       </c>
       <c r="M17" s="21" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
     </row>
     <row r="18" spans="10:13" ht="30">
@@ -5014,7 +5014,7 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -5027,10 +5027,10 @@
     </row>
     <row r="2" spans="1:14">
       <c r="A2" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="B2" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="C2" t="s">
         <v>10</v>
@@ -5224,7 +5224,7 @@
         <v>45</v>
       </c>
       <c r="N9" s="21" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="30">
@@ -5441,7 +5441,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2E0B3A6-21B1-A74A-99D6-90D557A8ED1C}">
   <dimension ref="A1:P24"/>
   <sheetViews>
-    <sheetView topLeftCell="H9" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
@@ -5457,7 +5457,7 @@
   <sheetData>
     <row r="1" spans="1:16">
       <c r="A1" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -5472,10 +5472,10 @@
     </row>
     <row r="2" spans="1:16">
       <c r="A2" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="B2" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="C2" t="s">
         <v>10</v>
@@ -5726,7 +5726,7 @@
         <v>12.35</v>
       </c>
       <c r="P11" s="21" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
     </row>
     <row r="12" spans="1:16" ht="30">
@@ -5945,7 +5945,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DE121A5-6181-E44F-A895-F93C94E79411}">
   <dimension ref="A1:R55"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
@@ -5970,7 +5970,7 @@
   <sheetData>
     <row r="1" spans="1:18">
       <c r="A1" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -5987,10 +5987,10 @@
     </row>
     <row r="2" spans="1:18" ht="19">
       <c r="A2" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="B2" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="C2" t="s">
         <v>10</v>
@@ -6310,7 +6310,7 @@
         <v>222.5</v>
       </c>
       <c r="R12" s="21" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
     </row>
     <row r="13" spans="1:18" ht="30">
@@ -6486,7 +6486,7 @@
         <v>64.12</v>
       </c>
       <c r="R23" s="21" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="24" spans="15:18" ht="30">
@@ -6992,8 +6992,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{944BB324-525C-BE4B-BAA2-4121DBD18102}">
   <dimension ref="A1:P34"/>
   <sheetViews>
-    <sheetView topLeftCell="E21" workbookViewId="0">
-      <selection activeCell="N9" sqref="N9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -7011,7 +7011,7 @@
   <sheetData>
     <row r="1" spans="1:16">
       <c r="A1" s="1" t="s">
-        <v>70</v>
+        <v>907</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -7026,10 +7026,10 @@
     </row>
     <row r="2" spans="1:16">
       <c r="A2" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="B2" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="C2" t="s">
         <v>10</v>
@@ -7317,7 +7317,7 @@
         <v>212.5</v>
       </c>
       <c r="P11" s="21" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
     </row>
     <row r="12" spans="1:16" ht="30">
@@ -7480,7 +7480,7 @@
         <v>-85</v>
       </c>
       <c r="P21" s="41" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="22" spans="13:16" ht="30">
@@ -7686,7 +7686,7 @@
         <v>159.375</v>
       </c>
       <c r="P34" s="45" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -7699,7 +7699,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04B0C6C4-7C93-B342-B7F1-F7DCFFD93203}">
   <dimension ref="A1:P23"/>
   <sheetViews>
-    <sheetView topLeftCell="C3" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="N18" sqref="N18"/>
     </sheetView>
   </sheetViews>
@@ -7716,7 +7716,7 @@
   <sheetData>
     <row r="1" spans="1:16">
       <c r="A1" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -7731,10 +7731,10 @@
     </row>
     <row r="2" spans="1:16">
       <c r="A2" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="B2" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="C2" t="s">
         <v>10</v>
@@ -7831,7 +7831,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C4" s="6">
         <v>1</v>
@@ -7845,7 +7845,7 @@
         <v>1</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I4" s="16" t="s">
         <v>4</v>
@@ -7941,7 +7941,7 @@
         <v>110</v>
       </c>
       <c r="P9" s="21" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -8123,7 +8123,7 @@
     </row>
     <row r="22" spans="13:16">
       <c r="M22" s="39" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="N22" s="39" t="str">
         <f>VLOOKUP(M22,翻訳!$B:$D,3,FALSE)</f>
@@ -8149,7 +8149,7 @@
         <v>-112.5</v>
       </c>
       <c r="P23" s="44" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
     </row>
   </sheetData>
@@ -8185,17 +8185,17 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D1" s="2"/>
       <c r="F1" s="5"/>
     </row>
     <row r="2" spans="1:12" customFormat="1" ht="18">
       <c r="A2" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="B2" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="C2" t="s">
         <v>13</v>
@@ -8207,7 +8207,7 @@
         <v>17</v>
       </c>
       <c r="F2" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="L2" s="61"/>
     </row>
@@ -8254,7 +8254,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C4" s="9">
         <v>125</v>
@@ -8281,7 +8281,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C5" s="9">
         <v>24</v>
@@ -8305,7 +8305,7 @@
         <v>125</v>
       </c>
       <c r="K5" s="21" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="15">
@@ -8313,7 +8313,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C6" s="9">
         <v>136</v>
@@ -8343,19 +8343,19 @@
         <v>4</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C7" s="9">
         <v>95</v>
       </c>
       <c r="D7" s="16" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E7" s="52">
         <v>0</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H7" s="24" t="s">
         <v>17</v>
@@ -8377,19 +8377,19 @@
         <v>5</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C8" s="9">
         <v>53</v>
       </c>
       <c r="D8" s="16" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E8" s="52">
         <v>0</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H8" s="14" t="s">
         <v>6</v>
@@ -8416,7 +8416,7 @@
         <v>24</v>
       </c>
       <c r="K9" s="21" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -8479,7 +8479,7 @@
         <v>136</v>
       </c>
       <c r="K13" s="21" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -8536,7 +8536,7 @@
         <v>95</v>
       </c>
       <c r="K17" s="21" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
     </row>
     <row r="18" spans="8:11">
@@ -8593,7 +8593,7 @@
         <v>53</v>
       </c>
       <c r="K21" s="21" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
     </row>
     <row r="22" spans="8:11">
@@ -8689,7 +8689,7 @@
         <v>文書全体の追加請求の理由</v>
       </c>
       <c r="J28" s="33" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K28" s="26"/>
     </row>
@@ -8756,7 +8756,7 @@
         <v>文書全体の控除(返還請求)の理由</v>
       </c>
       <c r="J33" s="37" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K33" s="21"/>
     </row>
@@ -8828,7 +8828,7 @@
         <v>70.25</v>
       </c>
       <c r="K38" s="21" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
     </row>
     <row r="39" spans="8:11">
@@ -9079,7 +9079,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{280470CF-CD39-6C4C-A658-4679FCC34477}">
   <dimension ref="A1:J324"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C158" workbookViewId="0">
+    <sheetView topLeftCell="C158" workbookViewId="0">
       <selection activeCell="J163" sqref="J163"/>
     </sheetView>
   </sheetViews>
@@ -9094,23 +9094,23 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C1" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="D1" t="str">
         <f t="shared" ref="D1:D64" si="0">IF(NOT(ISERROR(FIND(CHAR(10), E1) )),MID(E1,1,FIND(CHAR(10), E1) -1),E1)</f>
         <v>日本版コアインボイス</v>
       </c>
       <c r="E1" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="F1" t="s">
+        <v>90</v>
+      </c>
+      <c r="J1" t="s">
         <v>91</v>
-      </c>
-      <c r="J1" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -9118,23 +9118,23 @@
         <v>13</v>
       </c>
       <c r="B2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C2" t="s">
         <v>94</v>
-      </c>
-      <c r="C2" t="s">
-        <v>95</v>
       </c>
       <c r="D2" t="str">
         <f t="shared" si="0"/>
         <v>請求書番号</v>
       </c>
       <c r="E2" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="F2" t="s">
+        <v>95</v>
+      </c>
+      <c r="J2" t="s">
         <v>96</v>
-      </c>
-      <c r="J2" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -9142,23 +9142,23 @@
         <v>15</v>
       </c>
       <c r="B3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C3" t="s">
         <v>98</v>
-      </c>
-      <c r="C3" t="s">
-        <v>99</v>
       </c>
       <c r="D3" t="str">
         <f t="shared" si="0"/>
         <v>請求書発効日</v>
       </c>
       <c r="E3" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="F3" t="s">
+        <v>99</v>
+      </c>
+      <c r="J3" t="s">
         <v>100</v>
-      </c>
-      <c r="J3" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -9166,23 +9166,23 @@
         <v>17</v>
       </c>
       <c r="B4" t="s">
+        <v>101</v>
+      </c>
+      <c r="C4" t="s">
         <v>102</v>
-      </c>
-      <c r="C4" t="s">
-        <v>103</v>
       </c>
       <c r="D4" t="str">
         <f t="shared" si="0"/>
         <v>請求書タイプコード</v>
       </c>
       <c r="E4" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="F4" t="s">
+        <v>103</v>
+      </c>
+      <c r="J4" t="s">
         <v>104</v>
-      </c>
-      <c r="J4" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -9190,23 +9190,23 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
+        <v>105</v>
+      </c>
+      <c r="C5" t="s">
         <v>106</v>
-      </c>
-      <c r="C5" t="s">
-        <v>107</v>
       </c>
       <c r="D5" t="str">
         <f t="shared" si="0"/>
         <v>為替交換元通貨コード</v>
       </c>
       <c r="E5" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="F5" t="s">
+        <v>107</v>
+      </c>
+      <c r="J5" t="s">
         <v>108</v>
-      </c>
-      <c r="J5" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -9214,23 +9214,23 @@
         <v>22</v>
       </c>
       <c r="B6" t="s">
+        <v>109</v>
+      </c>
+      <c r="C6" t="s">
         <v>110</v>
-      </c>
-      <c r="C6" t="s">
-        <v>111</v>
       </c>
       <c r="D6" t="str">
         <f>IF(NOT(ISERROR(FIND(CHAR(10), E6) )),MID(E6,1,FIND(CHAR(10), E6) -1),E6)</f>
         <v>為替交換先通貨コード</v>
       </c>
       <c r="E6" t="s">
+        <v>111</v>
+      </c>
+      <c r="F6" t="s">
+        <v>111</v>
+      </c>
+      <c r="J6" t="s">
         <v>112</v>
-      </c>
-      <c r="F6" t="s">
-        <v>112</v>
-      </c>
-      <c r="J6" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -9238,17 +9238,17 @@
         <v>25</v>
       </c>
       <c r="B7" t="s">
+        <v>113</v>
+      </c>
+      <c r="C7" t="s">
         <v>114</v>
-      </c>
-      <c r="C7" t="s">
-        <v>115</v>
       </c>
       <c r="D7" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="E7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -9256,17 +9256,17 @@
         <v>26</v>
       </c>
       <c r="B8" t="s">
+        <v>115</v>
+      </c>
+      <c r="C8" t="s">
         <v>116</v>
-      </c>
-      <c r="C8" t="s">
-        <v>117</v>
       </c>
       <c r="D8" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="E8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -9274,23 +9274,23 @@
         <v>27</v>
       </c>
       <c r="B9" t="s">
+        <v>117</v>
+      </c>
+      <c r="C9" t="s">
         <v>118</v>
-      </c>
-      <c r="C9" t="s">
-        <v>119</v>
       </c>
       <c r="D9" t="str">
         <f t="shared" si="0"/>
         <v>支払期日</v>
       </c>
       <c r="E9" t="s">
+        <v>119</v>
+      </c>
+      <c r="F9" t="s">
+        <v>119</v>
+      </c>
+      <c r="J9" t="s">
         <v>120</v>
-      </c>
-      <c r="F9" t="s">
-        <v>120</v>
-      </c>
-      <c r="J9" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -9298,23 +9298,23 @@
         <v>28</v>
       </c>
       <c r="B10" t="s">
+        <v>121</v>
+      </c>
+      <c r="C10" t="s">
         <v>122</v>
-      </c>
-      <c r="C10" t="s">
-        <v>123</v>
       </c>
       <c r="D10" t="str">
         <f t="shared" si="0"/>
         <v>発注担当者コード</v>
       </c>
       <c r="E10" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="F10" t="s">
+        <v>123</v>
+      </c>
+      <c r="J10" t="s">
         <v>124</v>
-      </c>
-      <c r="J10" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -9322,23 +9322,23 @@
         <v>30</v>
       </c>
       <c r="B11" t="s">
+        <v>125</v>
+      </c>
+      <c r="C11" t="s">
         <v>126</v>
-      </c>
-      <c r="C11" t="s">
-        <v>127</v>
       </c>
       <c r="D11" t="str">
         <f t="shared" si="0"/>
         <v>プロジェクト番号</v>
       </c>
       <c r="E11" t="s">
+        <v>127</v>
+      </c>
+      <c r="F11" t="s">
+        <v>127</v>
+      </c>
+      <c r="J11" t="s">
         <v>128</v>
-      </c>
-      <c r="F11" t="s">
-        <v>128</v>
-      </c>
-      <c r="J11" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -9346,23 +9346,23 @@
         <v>33</v>
       </c>
       <c r="B12" t="s">
+        <v>129</v>
+      </c>
+      <c r="C12" t="s">
         <v>130</v>
-      </c>
-      <c r="C12" t="s">
-        <v>131</v>
       </c>
       <c r="D12" t="str">
         <f t="shared" si="0"/>
         <v>（参照）契約書番号</v>
       </c>
       <c r="E12" t="s">
+        <v>131</v>
+      </c>
+      <c r="F12" t="s">
+        <v>131</v>
+      </c>
+      <c r="J12" t="s">
         <v>132</v>
-      </c>
-      <c r="F12" t="s">
-        <v>132</v>
-      </c>
-      <c r="J12" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -9370,23 +9370,23 @@
         <v>34</v>
       </c>
       <c r="B13" t="s">
+        <v>133</v>
+      </c>
+      <c r="C13" t="s">
         <v>134</v>
-      </c>
-      <c r="C13" t="s">
-        <v>135</v>
       </c>
       <c r="D13" t="str">
         <f t="shared" si="0"/>
         <v>（参照）注文書番号</v>
       </c>
       <c r="E13" t="s">
+        <v>135</v>
+      </c>
+      <c r="F13" t="s">
+        <v>135</v>
+      </c>
+      <c r="J13" t="s">
         <v>136</v>
-      </c>
-      <c r="F13" t="s">
-        <v>136</v>
-      </c>
-      <c r="J13" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -9394,23 +9394,23 @@
         <v>35</v>
       </c>
       <c r="B14" t="s">
+        <v>137</v>
+      </c>
+      <c r="C14" t="s">
         <v>138</v>
-      </c>
-      <c r="C14" t="s">
-        <v>139</v>
       </c>
       <c r="D14" t="str">
         <f t="shared" si="0"/>
         <v>（参照）受注書番号</v>
       </c>
       <c r="E14" t="s">
+        <v>139</v>
+      </c>
+      <c r="F14" t="s">
+        <v>139</v>
+      </c>
+      <c r="J14" t="s">
         <v>140</v>
-      </c>
-      <c r="F14" t="s">
-        <v>140</v>
-      </c>
-      <c r="J14" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -9418,23 +9418,23 @@
         <v>36</v>
       </c>
       <c r="B15" t="s">
+        <v>141</v>
+      </c>
+      <c r="C15" t="s">
         <v>142</v>
-      </c>
-      <c r="C15" t="s">
-        <v>143</v>
       </c>
       <c r="D15" t="str">
         <f t="shared" si="0"/>
         <v>（参照）受取通知書（検収書）番号</v>
       </c>
       <c r="E15" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="F15" t="s">
+        <v>143</v>
+      </c>
+      <c r="J15" t="s">
         <v>144</v>
-      </c>
-      <c r="J15" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -9442,23 +9442,23 @@
         <v>37</v>
       </c>
       <c r="B16" t="s">
+        <v>145</v>
+      </c>
+      <c r="C16" t="s">
         <v>146</v>
-      </c>
-      <c r="C16" t="s">
-        <v>147</v>
       </c>
       <c r="D16" t="str">
         <f t="shared" si="0"/>
         <v>（参照）出荷案内書（納品書）番号</v>
       </c>
       <c r="E16" t="s">
+        <v>147</v>
+      </c>
+      <c r="F16" t="s">
+        <v>147</v>
+      </c>
+      <c r="J16" t="s">
         <v>148</v>
-      </c>
-      <c r="F16" t="s">
-        <v>148</v>
-      </c>
-      <c r="J16" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -9466,23 +9466,23 @@
         <v>38</v>
       </c>
       <c r="B17" t="s">
+        <v>149</v>
+      </c>
+      <c r="C17" t="s">
         <v>150</v>
-      </c>
-      <c r="C17" t="s">
-        <v>151</v>
       </c>
       <c r="D17" t="str">
         <f t="shared" si="0"/>
         <v>（参照）入札またはロット</v>
       </c>
       <c r="E17" t="s">
+        <v>151</v>
+      </c>
+      <c r="F17" t="s">
+        <v>151</v>
+      </c>
+      <c r="J17" t="s">
         <v>152</v>
-      </c>
-      <c r="F17" t="s">
-        <v>152</v>
-      </c>
-      <c r="J17" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -9490,23 +9490,23 @@
         <v>39</v>
       </c>
       <c r="B18" t="s">
+        <v>153</v>
+      </c>
+      <c r="C18" t="s">
         <v>154</v>
-      </c>
-      <c r="C18" t="s">
-        <v>155</v>
       </c>
       <c r="D18" t="str">
         <f t="shared" si="0"/>
         <v>請求済みオブジェクトのスキーマ識別子</v>
       </c>
       <c r="E18" t="s">
+        <v>155</v>
+      </c>
+      <c r="F18" t="s">
+        <v>155</v>
+      </c>
+      <c r="J18" t="s">
         <v>156</v>
-      </c>
-      <c r="F18" t="s">
-        <v>156</v>
-      </c>
-      <c r="J18" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -9514,23 +9514,23 @@
         <v>41</v>
       </c>
       <c r="B19" t="s">
+        <v>157</v>
+      </c>
+      <c r="C19" t="s">
         <v>158</v>
-      </c>
-      <c r="C19" t="s">
-        <v>159</v>
       </c>
       <c r="D19" t="str">
         <f t="shared" si="0"/>
         <v>購買担当会計参照</v>
       </c>
       <c r="E19" t="s">
+        <v>159</v>
+      </c>
+      <c r="F19" t="s">
+        <v>159</v>
+      </c>
+      <c r="J19" t="s">
         <v>160</v>
-      </c>
-      <c r="F19" t="s">
-        <v>160</v>
-      </c>
-      <c r="J19" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -9538,23 +9538,23 @@
         <v>43</v>
       </c>
       <c r="B20" t="s">
+        <v>161</v>
+      </c>
+      <c r="C20" t="s">
         <v>162</v>
-      </c>
-      <c r="C20" t="s">
-        <v>163</v>
       </c>
       <c r="D20" t="str">
         <f t="shared" si="0"/>
         <v>支払条件説明</v>
       </c>
       <c r="E20" t="s">
+        <v>163</v>
+      </c>
+      <c r="F20" t="s">
+        <v>163</v>
+      </c>
+      <c r="J20" t="s">
         <v>164</v>
-      </c>
-      <c r="F20" t="s">
-        <v>164</v>
-      </c>
-      <c r="J20" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -9562,23 +9562,23 @@
         <v>50</v>
       </c>
       <c r="B21" t="s">
+        <v>165</v>
+      </c>
+      <c r="C21" t="s">
         <v>166</v>
-      </c>
-      <c r="C21" t="s">
-        <v>167</v>
       </c>
       <c r="D21" t="str">
         <f t="shared" si="0"/>
         <v>請求書注釈</v>
       </c>
       <c r="E21" t="s">
+        <v>167</v>
+      </c>
+      <c r="F21" t="s">
+        <v>167</v>
+      </c>
+      <c r="J21" t="s">
         <v>168</v>
-      </c>
-      <c r="F21" t="s">
-        <v>168</v>
-      </c>
-      <c r="J21" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -9586,26 +9586,26 @@
         <v>51</v>
       </c>
       <c r="B22" t="s">
+        <v>169</v>
+      </c>
+      <c r="C22" t="s">
         <v>170</v>
-      </c>
-      <c r="C22" t="s">
-        <v>171</v>
       </c>
       <c r="D22" t="str">
         <f t="shared" si="0"/>
         <v>請求書注釈表題</v>
       </c>
       <c r="E22" t="s">
+        <v>171</v>
+      </c>
+      <c r="F22" t="s">
+        <v>92</v>
+      </c>
+      <c r="G22" t="s">
+        <v>171</v>
+      </c>
+      <c r="J22" t="s">
         <v>172</v>
-      </c>
-      <c r="F22" t="s">
-        <v>93</v>
-      </c>
-      <c r="G22" t="s">
-        <v>172</v>
-      </c>
-      <c r="J22" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -9613,26 +9613,26 @@
         <v>52</v>
       </c>
       <c r="B23" t="s">
+        <v>173</v>
+      </c>
+      <c r="C23" t="s">
         <v>174</v>
-      </c>
-      <c r="C23" t="s">
-        <v>175</v>
       </c>
       <c r="D23" t="str">
         <f t="shared" si="0"/>
         <v>請求書注釈内容</v>
       </c>
       <c r="E23" t="s">
+        <v>175</v>
+      </c>
+      <c r="F23" t="s">
+        <v>92</v>
+      </c>
+      <c r="G23" t="s">
+        <v>175</v>
+      </c>
+      <c r="J23" t="s">
         <v>176</v>
-      </c>
-      <c r="F23" t="s">
-        <v>93</v>
-      </c>
-      <c r="G23" t="s">
-        <v>176</v>
-      </c>
-      <c r="J23" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -9640,23 +9640,23 @@
         <v>54</v>
       </c>
       <c r="B24" t="s">
+        <v>177</v>
+      </c>
+      <c r="C24" t="s">
         <v>178</v>
-      </c>
-      <c r="C24" t="s">
-        <v>179</v>
       </c>
       <c r="D24" t="str">
         <f t="shared" si="0"/>
         <v>取引プロセス設定</v>
       </c>
       <c r="E24" t="s">
+        <v>179</v>
+      </c>
+      <c r="F24" t="s">
+        <v>179</v>
+      </c>
+      <c r="J24" t="s">
         <v>180</v>
-      </c>
-      <c r="F24" t="s">
-        <v>180</v>
-      </c>
-      <c r="J24" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -9664,23 +9664,23 @@
         <v>55</v>
       </c>
       <c r="B25" t="s">
+        <v>181</v>
+      </c>
+      <c r="C25" t="s">
         <v>182</v>
-      </c>
-      <c r="C25" t="s">
-        <v>183</v>
       </c>
       <c r="D25" t="str">
         <f t="shared" si="0"/>
         <v>取引プロセスタイプ</v>
       </c>
       <c r="E25" t="s">
+        <v>183</v>
+      </c>
+      <c r="G25" t="s">
+        <v>183</v>
+      </c>
+      <c r="J25" t="s">
         <v>184</v>
-      </c>
-      <c r="G25" t="s">
-        <v>184</v>
-      </c>
-      <c r="J25" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -9688,23 +9688,23 @@
         <v>56</v>
       </c>
       <c r="B26" t="s">
+        <v>185</v>
+      </c>
+      <c r="C26" t="s">
         <v>186</v>
-      </c>
-      <c r="C26" t="s">
-        <v>187</v>
       </c>
       <c r="D26" t="str">
         <f t="shared" si="0"/>
         <v>取引プロセス識別子</v>
       </c>
       <c r="E26" t="s">
+        <v>187</v>
+      </c>
+      <c r="G26" t="s">
+        <v>187</v>
+      </c>
+      <c r="J26" t="s">
         <v>188</v>
-      </c>
-      <c r="G26" t="s">
-        <v>188</v>
-      </c>
-      <c r="J26" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -9712,23 +9712,23 @@
         <v>57</v>
       </c>
       <c r="B27" t="s">
+        <v>189</v>
+      </c>
+      <c r="C27" t="s">
         <v>190</v>
-      </c>
-      <c r="C27" t="s">
-        <v>191</v>
       </c>
       <c r="D27" t="str">
         <f t="shared" si="0"/>
         <v>先行請求書への参照</v>
       </c>
       <c r="E27" t="s">
+        <v>191</v>
+      </c>
+      <c r="F27" t="s">
+        <v>191</v>
+      </c>
+      <c r="J27" t="s">
         <v>192</v>
-      </c>
-      <c r="F27" t="s">
-        <v>192</v>
-      </c>
-      <c r="J27" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="28" spans="1:10">
@@ -9736,23 +9736,23 @@
         <v>58</v>
       </c>
       <c r="B28" t="s">
+        <v>193</v>
+      </c>
+      <c r="C28" t="s">
         <v>194</v>
-      </c>
-      <c r="C28" t="s">
-        <v>195</v>
       </c>
       <c r="D28" t="str">
         <f t="shared" si="0"/>
         <v>先行請求書への参照</v>
       </c>
       <c r="E28" t="s">
+        <v>195</v>
+      </c>
+      <c r="G28" t="s">
+        <v>195</v>
+      </c>
+      <c r="J28" t="s">
         <v>196</v>
-      </c>
-      <c r="G28" t="s">
-        <v>196</v>
-      </c>
-      <c r="J28" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="29" spans="1:10">
@@ -9760,23 +9760,23 @@
         <v>59</v>
       </c>
       <c r="B29" t="s">
+        <v>197</v>
+      </c>
+      <c r="C29" t="s">
         <v>198</v>
-      </c>
-      <c r="C29" t="s">
-        <v>199</v>
       </c>
       <c r="D29" t="str">
         <f t="shared" si="0"/>
         <v>先行請求書発行日</v>
       </c>
       <c r="E29" t="s">
+        <v>199</v>
+      </c>
+      <c r="G29" t="s">
+        <v>199</v>
+      </c>
+      <c r="J29" t="s">
         <v>200</v>
-      </c>
-      <c r="G29" t="s">
-        <v>200</v>
-      </c>
-      <c r="J29" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="30" spans="1:10">
@@ -9784,23 +9784,23 @@
         <v>60</v>
       </c>
       <c r="B30" t="s">
+        <v>201</v>
+      </c>
+      <c r="C30" t="s">
         <v>202</v>
-      </c>
-      <c r="C30" t="s">
-        <v>203</v>
       </c>
       <c r="D30" t="str">
         <f t="shared" si="0"/>
         <v>受注者</v>
       </c>
       <c r="E30" t="s">
+        <v>203</v>
+      </c>
+      <c r="F30" t="s">
+        <v>203</v>
+      </c>
+      <c r="J30" t="s">
         <v>204</v>
-      </c>
-      <c r="F30" t="s">
-        <v>204</v>
-      </c>
-      <c r="J30" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="31" spans="1:10">
@@ -9808,26 +9808,26 @@
         <v>61</v>
       </c>
       <c r="B31" t="s">
+        <v>205</v>
+      </c>
+      <c r="C31" t="s">
         <v>206</v>
-      </c>
-      <c r="C31" t="s">
-        <v>207</v>
       </c>
       <c r="D31" t="str">
         <f t="shared" si="0"/>
         <v>受注者名称</v>
       </c>
       <c r="E31" t="s">
+        <v>207</v>
+      </c>
+      <c r="F31" t="s">
+        <v>92</v>
+      </c>
+      <c r="G31" t="s">
+        <v>207</v>
+      </c>
+      <c r="J31" t="s">
         <v>208</v>
-      </c>
-      <c r="F31" t="s">
-        <v>93</v>
-      </c>
-      <c r="G31" t="s">
-        <v>208</v>
-      </c>
-      <c r="J31" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="32" spans="1:10">
@@ -9835,23 +9835,23 @@
         <v>62</v>
       </c>
       <c r="B32" t="s">
+        <v>209</v>
+      </c>
+      <c r="C32" t="s">
         <v>210</v>
-      </c>
-      <c r="C32" t="s">
-        <v>211</v>
       </c>
       <c r="D32" t="str">
         <f t="shared" si="0"/>
         <v>受注者の商号</v>
       </c>
       <c r="E32" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G32" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="J32" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="33" spans="1:10">
@@ -9859,26 +9859,26 @@
         <v>63</v>
       </c>
       <c r="B33" t="s">
+        <v>212</v>
+      </c>
+      <c r="C33" t="s">
         <v>213</v>
-      </c>
-      <c r="C33" t="s">
-        <v>214</v>
       </c>
       <c r="D33" t="str">
         <f t="shared" si="0"/>
         <v>受注者名称</v>
       </c>
       <c r="E33" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F33" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G33" t="s">
+        <v>214</v>
+      </c>
+      <c r="J33" t="s">
         <v>215</v>
-      </c>
-      <c r="J33" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="34" spans="1:10">
@@ -9886,26 +9886,26 @@
         <v>65</v>
       </c>
       <c r="B34" t="s">
+        <v>218</v>
+      </c>
+      <c r="C34" t="s">
         <v>219</v>
-      </c>
-      <c r="C34" t="s">
-        <v>220</v>
       </c>
       <c r="D34" t="str">
         <f t="shared" si="0"/>
         <v>受注者国際企業コード</v>
       </c>
       <c r="E34" t="s">
+        <v>220</v>
+      </c>
+      <c r="F34" t="s">
+        <v>92</v>
+      </c>
+      <c r="G34" t="s">
+        <v>220</v>
+      </c>
+      <c r="J34" t="s">
         <v>221</v>
-      </c>
-      <c r="F34" t="s">
-        <v>93</v>
-      </c>
-      <c r="G34" t="s">
-        <v>221</v>
-      </c>
-      <c r="J34" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="35" spans="1:10">
@@ -9913,23 +9913,23 @@
         <v>67</v>
       </c>
       <c r="B35" t="s">
+        <v>222</v>
+      </c>
+      <c r="C35" t="s">
         <v>223</v>
-      </c>
-      <c r="C35" t="s">
-        <v>224</v>
       </c>
       <c r="D35" t="str">
         <f t="shared" si="0"/>
         <v>受注者VAT識別子</v>
       </c>
       <c r="E35" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="G35" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="J35" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="36" spans="1:10">
@@ -9937,26 +9937,26 @@
         <v>68</v>
       </c>
       <c r="B36" t="s">
+        <v>225</v>
+      </c>
+      <c r="C36" t="s">
         <v>226</v>
-      </c>
-      <c r="C36" t="s">
-        <v>227</v>
       </c>
       <c r="D36" t="str">
         <f t="shared" si="0"/>
         <v>受注者の適格請求書発行事業者登録番号</v>
       </c>
       <c r="E36" t="s">
+        <v>227</v>
+      </c>
+      <c r="F36" t="s">
+        <v>92</v>
+      </c>
+      <c r="G36" t="s">
+        <v>227</v>
+      </c>
+      <c r="J36" t="s">
         <v>228</v>
-      </c>
-      <c r="F36" t="s">
-        <v>93</v>
-      </c>
-      <c r="G36" t="s">
-        <v>228</v>
-      </c>
-      <c r="J36" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="37" spans="1:10">
@@ -9964,23 +9964,23 @@
         <v>69</v>
       </c>
       <c r="B37" t="s">
+        <v>229</v>
+      </c>
+      <c r="C37" t="s">
         <v>230</v>
-      </c>
-      <c r="C37" t="s">
-        <v>231</v>
       </c>
       <c r="D37" t="str">
         <f t="shared" si="0"/>
         <v>受注者追加法的情報</v>
       </c>
       <c r="E37" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="G37" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="J37" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="38" spans="1:10">
@@ -9988,23 +9988,23 @@
         <v>70</v>
       </c>
       <c r="B38" t="s">
+        <v>232</v>
+      </c>
+      <c r="C38" t="s">
         <v>233</v>
-      </c>
-      <c r="C38" t="s">
-        <v>234</v>
       </c>
       <c r="D38" t="str">
         <f t="shared" si="0"/>
         <v>受注者電子機器アドレス</v>
       </c>
       <c r="E38" t="s">
+        <v>234</v>
+      </c>
+      <c r="G38" t="s">
+        <v>234</v>
+      </c>
+      <c r="J38" t="s">
         <v>235</v>
-      </c>
-      <c r="G38" t="s">
-        <v>235</v>
-      </c>
-      <c r="J38" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="39" spans="1:10">
@@ -10012,23 +10012,23 @@
         <v>72</v>
       </c>
       <c r="B39" t="s">
+        <v>236</v>
+      </c>
+      <c r="C39" t="s">
         <v>237</v>
-      </c>
-      <c r="C39" t="s">
-        <v>238</v>
       </c>
       <c r="D39" t="str">
         <f t="shared" si="0"/>
         <v>受注者の住所</v>
       </c>
       <c r="E39" t="s">
+        <v>238</v>
+      </c>
+      <c r="G39" t="s">
+        <v>238</v>
+      </c>
+      <c r="J39" t="s">
         <v>239</v>
-      </c>
-      <c r="G39" t="s">
-        <v>239</v>
-      </c>
-      <c r="J39" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="40" spans="1:10">
@@ -10036,23 +10036,23 @@
         <v>73</v>
       </c>
       <c r="B40" t="s">
+        <v>240</v>
+      </c>
+      <c r="C40" t="s">
         <v>241</v>
-      </c>
-      <c r="C40" t="s">
-        <v>242</v>
       </c>
       <c r="D40" t="str">
         <f t="shared" si="0"/>
         <v>受注者住所欄1</v>
       </c>
       <c r="E40" t="s">
+        <v>242</v>
+      </c>
+      <c r="H40" t="s">
+        <v>242</v>
+      </c>
+      <c r="J40" t="s">
         <v>243</v>
-      </c>
-      <c r="H40" t="s">
-        <v>243</v>
-      </c>
-      <c r="J40" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="41" spans="1:10">
@@ -10060,23 +10060,23 @@
         <v>74</v>
       </c>
       <c r="B41" t="s">
+        <v>244</v>
+      </c>
+      <c r="C41" t="s">
         <v>245</v>
-      </c>
-      <c r="C41" t="s">
-        <v>246</v>
       </c>
       <c r="D41" t="str">
         <f t="shared" si="0"/>
         <v>受注者住所欄2</v>
       </c>
       <c r="E41" t="s">
+        <v>246</v>
+      </c>
+      <c r="H41" t="s">
+        <v>246</v>
+      </c>
+      <c r="J41" t="s">
         <v>247</v>
-      </c>
-      <c r="H41" t="s">
-        <v>247</v>
-      </c>
-      <c r="J41" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="42" spans="1:10">
@@ -10084,23 +10084,23 @@
         <v>75</v>
       </c>
       <c r="B42" t="s">
+        <v>248</v>
+      </c>
+      <c r="C42" t="s">
         <v>249</v>
-      </c>
-      <c r="C42" t="s">
-        <v>250</v>
       </c>
       <c r="D42" t="str">
         <f t="shared" si="0"/>
         <v>受注者住所欄3</v>
       </c>
       <c r="E42" t="s">
+        <v>250</v>
+      </c>
+      <c r="H42" t="s">
+        <v>250</v>
+      </c>
+      <c r="J42" t="s">
         <v>251</v>
-      </c>
-      <c r="H42" t="s">
-        <v>251</v>
-      </c>
-      <c r="J42" t="s">
-        <v>252</v>
       </c>
     </row>
     <row r="43" spans="1:10">
@@ -10108,23 +10108,23 @@
         <v>76</v>
       </c>
       <c r="B43" t="s">
+        <v>252</v>
+      </c>
+      <c r="C43" t="s">
         <v>253</v>
-      </c>
-      <c r="C43" t="s">
-        <v>254</v>
       </c>
       <c r="D43" t="str">
         <f t="shared" si="0"/>
         <v>受注者市</v>
       </c>
       <c r="E43" t="s">
+        <v>254</v>
+      </c>
+      <c r="H43" t="s">
+        <v>254</v>
+      </c>
+      <c r="J43" t="s">
         <v>255</v>
-      </c>
-      <c r="H43" t="s">
-        <v>255</v>
-      </c>
-      <c r="J43" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="44" spans="1:10">
@@ -10132,23 +10132,23 @@
         <v>77</v>
       </c>
       <c r="B44" t="s">
+        <v>256</v>
+      </c>
+      <c r="C44" t="s">
         <v>257</v>
-      </c>
-      <c r="C44" t="s">
-        <v>258</v>
       </c>
       <c r="D44" t="str">
         <f t="shared" si="0"/>
         <v>受注者郵便番号</v>
       </c>
       <c r="E44" t="s">
+        <v>258</v>
+      </c>
+      <c r="H44" t="s">
+        <v>258</v>
+      </c>
+      <c r="J44" t="s">
         <v>259</v>
-      </c>
-      <c r="H44" t="s">
-        <v>259</v>
-      </c>
-      <c r="J44" t="s">
-        <v>260</v>
       </c>
     </row>
     <row r="45" spans="1:10">
@@ -10156,23 +10156,23 @@
         <v>78</v>
       </c>
       <c r="B45" t="s">
+        <v>260</v>
+      </c>
+      <c r="C45" t="s">
         <v>261</v>
-      </c>
-      <c r="C45" t="s">
-        <v>262</v>
       </c>
       <c r="D45" t="str">
         <f t="shared" si="0"/>
         <v>受注者の地方区分</v>
       </c>
       <c r="E45" t="s">
+        <v>262</v>
+      </c>
+      <c r="H45" t="s">
+        <v>262</v>
+      </c>
+      <c r="J45" t="s">
         <v>263</v>
-      </c>
-      <c r="H45" t="s">
-        <v>263</v>
-      </c>
-      <c r="J45" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="46" spans="1:10">
@@ -10180,23 +10180,23 @@
         <v>79</v>
       </c>
       <c r="B46" t="s">
+        <v>264</v>
+      </c>
+      <c r="C46" t="s">
         <v>265</v>
-      </c>
-      <c r="C46" t="s">
-        <v>266</v>
       </c>
       <c r="D46" t="str">
         <f t="shared" si="0"/>
         <v>受注者国コード</v>
       </c>
       <c r="E46" t="s">
+        <v>266</v>
+      </c>
+      <c r="H46" t="s">
+        <v>266</v>
+      </c>
+      <c r="J46" t="s">
         <v>267</v>
-      </c>
-      <c r="H46" t="s">
-        <v>267</v>
-      </c>
-      <c r="J46" t="s">
-        <v>268</v>
       </c>
     </row>
     <row r="47" spans="1:10">
@@ -10204,26 +10204,26 @@
         <v>80</v>
       </c>
       <c r="B47" t="s">
+        <v>268</v>
+      </c>
+      <c r="C47" t="s">
         <v>269</v>
-      </c>
-      <c r="C47" t="s">
-        <v>270</v>
       </c>
       <c r="D47" t="str">
         <f t="shared" si="0"/>
         <v>受注者の連絡先</v>
       </c>
       <c r="E47" t="s">
+        <v>270</v>
+      </c>
+      <c r="F47" t="s">
+        <v>92</v>
+      </c>
+      <c r="G47" t="s">
+        <v>270</v>
+      </c>
+      <c r="J47" t="s">
         <v>271</v>
-      </c>
-      <c r="F47" t="s">
-        <v>93</v>
-      </c>
-      <c r="G47" t="s">
-        <v>271</v>
-      </c>
-      <c r="J47" t="s">
-        <v>272</v>
       </c>
     </row>
     <row r="48" spans="1:10">
@@ -10231,29 +10231,29 @@
         <v>83</v>
       </c>
       <c r="B48" t="s">
+        <v>272</v>
+      </c>
+      <c r="C48" t="s">
         <v>273</v>
-      </c>
-      <c r="C48" t="s">
-        <v>274</v>
       </c>
       <c r="D48" t="str">
         <f t="shared" si="0"/>
         <v>受注者担当名</v>
       </c>
       <c r="E48" t="s">
+        <v>274</v>
+      </c>
+      <c r="F48" t="s">
+        <v>92</v>
+      </c>
+      <c r="G48" t="s">
+        <v>92</v>
+      </c>
+      <c r="H48" t="s">
+        <v>274</v>
+      </c>
+      <c r="J48" t="s">
         <v>275</v>
-      </c>
-      <c r="F48" t="s">
-        <v>93</v>
-      </c>
-      <c r="G48" t="s">
-        <v>93</v>
-      </c>
-      <c r="H48" t="s">
-        <v>275</v>
-      </c>
-      <c r="J48" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="49" spans="1:10">
@@ -10261,29 +10261,29 @@
         <v>84</v>
       </c>
       <c r="B49" t="s">
+        <v>276</v>
+      </c>
+      <c r="C49" t="s">
         <v>277</v>
-      </c>
-      <c r="C49" t="s">
-        <v>278</v>
       </c>
       <c r="D49" t="str">
         <f t="shared" si="0"/>
         <v>受注者電話番号</v>
       </c>
       <c r="E49" t="s">
+        <v>278</v>
+      </c>
+      <c r="F49" t="s">
+        <v>92</v>
+      </c>
+      <c r="G49" t="s">
+        <v>92</v>
+      </c>
+      <c r="H49" t="s">
+        <v>278</v>
+      </c>
+      <c r="J49" t="s">
         <v>279</v>
-      </c>
-      <c r="F49" t="s">
-        <v>93</v>
-      </c>
-      <c r="G49" t="s">
-        <v>93</v>
-      </c>
-      <c r="H49" t="s">
-        <v>279</v>
-      </c>
-      <c r="J49" t="s">
-        <v>280</v>
       </c>
     </row>
     <row r="50" spans="1:10">
@@ -10291,23 +10291,23 @@
         <v>85</v>
       </c>
       <c r="B50" t="s">
+        <v>280</v>
+      </c>
+      <c r="C50" t="s">
         <v>281</v>
-      </c>
-      <c r="C50" t="s">
-        <v>282</v>
       </c>
       <c r="D50" t="str">
         <f t="shared" si="0"/>
         <v>受注者の電子メールアドレス</v>
       </c>
       <c r="E50" t="s">
+        <v>282</v>
+      </c>
+      <c r="H50" t="s">
+        <v>282</v>
+      </c>
+      <c r="J50" t="s">
         <v>283</v>
-      </c>
-      <c r="H50" t="s">
-        <v>283</v>
-      </c>
-      <c r="J50" t="s">
-        <v>284</v>
       </c>
     </row>
     <row r="51" spans="1:10">
@@ -10315,23 +10315,23 @@
         <v>86</v>
       </c>
       <c r="B51" t="s">
+        <v>284</v>
+      </c>
+      <c r="C51" t="s">
         <v>285</v>
-      </c>
-      <c r="C51" t="s">
-        <v>286</v>
       </c>
       <c r="D51" t="str">
         <f t="shared" si="0"/>
         <v>発注者</v>
       </c>
       <c r="E51" t="s">
+        <v>286</v>
+      </c>
+      <c r="F51" t="s">
+        <v>286</v>
+      </c>
+      <c r="J51" t="s">
         <v>287</v>
-      </c>
-      <c r="F51" t="s">
-        <v>287</v>
-      </c>
-      <c r="J51" t="s">
-        <v>288</v>
       </c>
     </row>
     <row r="52" spans="1:10">
@@ -10339,26 +10339,26 @@
         <v>87</v>
       </c>
       <c r="B52" t="s">
+        <v>288</v>
+      </c>
+      <c r="C52" t="s">
         <v>289</v>
-      </c>
-      <c r="C52" t="s">
-        <v>290</v>
       </c>
       <c r="D52" t="str">
         <f t="shared" si="0"/>
         <v>発注者名称</v>
       </c>
       <c r="E52" t="s">
+        <v>290</v>
+      </c>
+      <c r="F52" t="s">
+        <v>92</v>
+      </c>
+      <c r="G52" t="s">
+        <v>290</v>
+      </c>
+      <c r="J52" t="s">
         <v>291</v>
-      </c>
-      <c r="F52" t="s">
-        <v>93</v>
-      </c>
-      <c r="G52" t="s">
-        <v>291</v>
-      </c>
-      <c r="J52" t="s">
-        <v>292</v>
       </c>
     </row>
     <row r="53" spans="1:10">
@@ -10366,23 +10366,23 @@
         <v>88</v>
       </c>
       <c r="B53" t="s">
+        <v>292</v>
+      </c>
+      <c r="C53" t="s">
         <v>293</v>
-      </c>
-      <c r="C53" t="s">
-        <v>294</v>
       </c>
       <c r="D53" t="str">
         <f t="shared" si="0"/>
         <v>発注者の商号</v>
       </c>
       <c r="E53" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="G53" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="J53" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="54" spans="1:10">
@@ -10390,26 +10390,26 @@
         <v>89</v>
       </c>
       <c r="B54" t="s">
+        <v>295</v>
+      </c>
+      <c r="C54" t="s">
         <v>296</v>
-      </c>
-      <c r="C54" t="s">
-        <v>297</v>
       </c>
       <c r="D54" t="str">
         <f t="shared" si="0"/>
         <v>発注者コード</v>
       </c>
       <c r="E54" t="s">
+        <v>297</v>
+      </c>
+      <c r="F54" t="s">
+        <v>92</v>
+      </c>
+      <c r="G54" t="s">
+        <v>297</v>
+      </c>
+      <c r="J54" t="s">
         <v>298</v>
-      </c>
-      <c r="F54" t="s">
-        <v>93</v>
-      </c>
-      <c r="G54" t="s">
-        <v>298</v>
-      </c>
-      <c r="J54" t="s">
-        <v>299</v>
       </c>
     </row>
     <row r="55" spans="1:10">
@@ -10417,26 +10417,26 @@
         <v>91</v>
       </c>
       <c r="B55" t="s">
+        <v>299</v>
+      </c>
+      <c r="C55" t="s">
         <v>300</v>
-      </c>
-      <c r="C55" t="s">
-        <v>301</v>
       </c>
       <c r="D55" t="str">
         <f t="shared" si="0"/>
         <v>発注者国際企業コード</v>
       </c>
       <c r="E55" t="s">
+        <v>301</v>
+      </c>
+      <c r="F55" t="s">
+        <v>92</v>
+      </c>
+      <c r="G55" t="s">
+        <v>301</v>
+      </c>
+      <c r="J55" t="s">
         <v>302</v>
-      </c>
-      <c r="F55" t="s">
-        <v>93</v>
-      </c>
-      <c r="G55" t="s">
-        <v>302</v>
-      </c>
-      <c r="J55" t="s">
-        <v>303</v>
       </c>
     </row>
     <row r="56" spans="1:10">
@@ -10444,26 +10444,26 @@
         <v>93</v>
       </c>
       <c r="B56" t="s">
+        <v>303</v>
+      </c>
+      <c r="C56" t="s">
         <v>304</v>
-      </c>
-      <c r="C56" t="s">
-        <v>305</v>
       </c>
       <c r="D56" t="str">
         <f t="shared" si="0"/>
         <v>発注者の適格請求書発行事業者登録番号</v>
       </c>
       <c r="E56" t="s">
+        <v>305</v>
+      </c>
+      <c r="F56" t="s">
+        <v>92</v>
+      </c>
+      <c r="G56" t="s">
+        <v>305</v>
+      </c>
+      <c r="J56" t="s">
         <v>306</v>
-      </c>
-      <c r="F56" t="s">
-        <v>93</v>
-      </c>
-      <c r="G56" t="s">
-        <v>306</v>
-      </c>
-      <c r="J56" t="s">
-        <v>307</v>
       </c>
     </row>
     <row r="57" spans="1:10">
@@ -10471,23 +10471,23 @@
         <v>94</v>
       </c>
       <c r="B57" t="s">
+        <v>307</v>
+      </c>
+      <c r="C57" t="s">
         <v>308</v>
-      </c>
-      <c r="C57" t="s">
-        <v>309</v>
       </c>
       <c r="D57" t="str">
         <f t="shared" si="0"/>
         <v>発注者の電子アドレス</v>
       </c>
       <c r="E57" t="s">
+        <v>309</v>
+      </c>
+      <c r="G57" t="s">
+        <v>309</v>
+      </c>
+      <c r="J57" t="s">
         <v>310</v>
-      </c>
-      <c r="G57" t="s">
-        <v>310</v>
-      </c>
-      <c r="J57" t="s">
-        <v>311</v>
       </c>
     </row>
     <row r="58" spans="1:10">
@@ -10495,23 +10495,23 @@
         <v>96</v>
       </c>
       <c r="B58" t="s">
+        <v>311</v>
+      </c>
+      <c r="C58" t="s">
         <v>312</v>
-      </c>
-      <c r="C58" t="s">
-        <v>313</v>
       </c>
       <c r="D58" t="str">
         <f t="shared" si="0"/>
         <v>発注者の住所</v>
       </c>
       <c r="E58" t="s">
+        <v>313</v>
+      </c>
+      <c r="G58" t="s">
+        <v>313</v>
+      </c>
+      <c r="J58" t="s">
         <v>314</v>
-      </c>
-      <c r="G58" t="s">
-        <v>314</v>
-      </c>
-      <c r="J58" t="s">
-        <v>315</v>
       </c>
     </row>
     <row r="59" spans="1:10">
@@ -10519,23 +10519,23 @@
         <v>97</v>
       </c>
       <c r="B59" t="s">
+        <v>315</v>
+      </c>
+      <c r="C59" t="s">
         <v>316</v>
-      </c>
-      <c r="C59" t="s">
-        <v>317</v>
       </c>
       <c r="D59" t="str">
         <f t="shared" si="0"/>
         <v>発注者住所欄1</v>
       </c>
       <c r="E59" t="s">
+        <v>317</v>
+      </c>
+      <c r="H59" t="s">
+        <v>317</v>
+      </c>
+      <c r="J59" t="s">
         <v>318</v>
-      </c>
-      <c r="H59" t="s">
-        <v>318</v>
-      </c>
-      <c r="J59" t="s">
-        <v>319</v>
       </c>
     </row>
     <row r="60" spans="1:10">
@@ -10543,23 +10543,23 @@
         <v>98</v>
       </c>
       <c r="B60" t="s">
+        <v>319</v>
+      </c>
+      <c r="C60" t="s">
         <v>320</v>
-      </c>
-      <c r="C60" t="s">
-        <v>321</v>
       </c>
       <c r="D60" t="str">
         <f t="shared" si="0"/>
         <v>発注者住所欄2</v>
       </c>
       <c r="E60" t="s">
+        <v>321</v>
+      </c>
+      <c r="H60" t="s">
+        <v>321</v>
+      </c>
+      <c r="J60" t="s">
         <v>322</v>
-      </c>
-      <c r="H60" t="s">
-        <v>322</v>
-      </c>
-      <c r="J60" t="s">
-        <v>323</v>
       </c>
     </row>
     <row r="61" spans="1:10">
@@ -10567,23 +10567,23 @@
         <v>99</v>
       </c>
       <c r="B61" t="s">
+        <v>323</v>
+      </c>
+      <c r="C61" t="s">
         <v>324</v>
-      </c>
-      <c r="C61" t="s">
-        <v>325</v>
       </c>
       <c r="D61" t="str">
         <f t="shared" si="0"/>
         <v>発注者住所欄3</v>
       </c>
       <c r="E61" t="s">
+        <v>325</v>
+      </c>
+      <c r="H61" t="s">
+        <v>325</v>
+      </c>
+      <c r="J61" t="s">
         <v>326</v>
-      </c>
-      <c r="H61" t="s">
-        <v>326</v>
-      </c>
-      <c r="J61" t="s">
-        <v>327</v>
       </c>
     </row>
     <row r="62" spans="1:10">
@@ -10591,23 +10591,23 @@
         <v>100</v>
       </c>
       <c r="B62" t="s">
+        <v>327</v>
+      </c>
+      <c r="C62" t="s">
         <v>328</v>
-      </c>
-      <c r="C62" t="s">
-        <v>329</v>
       </c>
       <c r="D62" t="str">
         <f t="shared" si="0"/>
         <v>発注者市</v>
       </c>
       <c r="E62" t="s">
+        <v>329</v>
+      </c>
+      <c r="H62" t="s">
+        <v>329</v>
+      </c>
+      <c r="J62" t="s">
         <v>330</v>
-      </c>
-      <c r="H62" t="s">
-        <v>330</v>
-      </c>
-      <c r="J62" t="s">
-        <v>331</v>
       </c>
     </row>
     <row r="63" spans="1:10">
@@ -10615,23 +10615,23 @@
         <v>101</v>
       </c>
       <c r="B63" t="s">
+        <v>331</v>
+      </c>
+      <c r="C63" t="s">
         <v>332</v>
-      </c>
-      <c r="C63" t="s">
-        <v>333</v>
       </c>
       <c r="D63" t="str">
         <f t="shared" si="0"/>
         <v>発注者郵便番号</v>
       </c>
       <c r="E63" t="s">
+        <v>333</v>
+      </c>
+      <c r="H63" t="s">
+        <v>333</v>
+      </c>
+      <c r="J63" t="s">
         <v>334</v>
-      </c>
-      <c r="H63" t="s">
-        <v>334</v>
-      </c>
-      <c r="J63" t="s">
-        <v>335</v>
       </c>
     </row>
     <row r="64" spans="1:10">
@@ -10639,23 +10639,23 @@
         <v>102</v>
       </c>
       <c r="B64" t="s">
+        <v>335</v>
+      </c>
+      <c r="C64" t="s">
         <v>336</v>
-      </c>
-      <c r="C64" t="s">
-        <v>337</v>
       </c>
       <c r="D64" t="str">
         <f t="shared" si="0"/>
         <v>発注者の地方区分</v>
       </c>
       <c r="E64" t="s">
+        <v>337</v>
+      </c>
+      <c r="H64" t="s">
+        <v>337</v>
+      </c>
+      <c r="J64" t="s">
         <v>338</v>
-      </c>
-      <c r="H64" t="s">
-        <v>338</v>
-      </c>
-      <c r="J64" t="s">
-        <v>339</v>
       </c>
     </row>
     <row r="65" spans="1:10">
@@ -10663,23 +10663,23 @@
         <v>103</v>
       </c>
       <c r="B65" t="s">
+        <v>339</v>
+      </c>
+      <c r="C65" t="s">
         <v>340</v>
-      </c>
-      <c r="C65" t="s">
-        <v>341</v>
       </c>
       <c r="D65" t="str">
         <f t="shared" ref="D65:D128" si="1">IF(NOT(ISERROR(FIND(CHAR(10), E65) )),MID(E65,1,FIND(CHAR(10), E65) -1),E65)</f>
         <v>発注者国コード</v>
       </c>
       <c r="E65" t="s">
+        <v>341</v>
+      </c>
+      <c r="H65" t="s">
+        <v>341</v>
+      </c>
+      <c r="J65" t="s">
         <v>342</v>
-      </c>
-      <c r="H65" t="s">
-        <v>342</v>
-      </c>
-      <c r="J65" t="s">
-        <v>343</v>
       </c>
     </row>
     <row r="66" spans="1:10">
@@ -10687,26 +10687,26 @@
         <v>104</v>
       </c>
       <c r="B66" t="s">
+        <v>343</v>
+      </c>
+      <c r="C66" t="s">
         <v>344</v>
-      </c>
-      <c r="C66" t="s">
-        <v>345</v>
       </c>
       <c r="D66" t="str">
         <f t="shared" si="1"/>
         <v>発注者の連絡先</v>
       </c>
       <c r="E66" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="F66" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G66" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="J66" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="67" spans="1:10">
@@ -10714,29 +10714,29 @@
         <v>107</v>
       </c>
       <c r="B67" t="s">
+        <v>346</v>
+      </c>
+      <c r="C67" t="s">
         <v>347</v>
-      </c>
-      <c r="C67" t="s">
-        <v>348</v>
       </c>
       <c r="D67" t="str">
         <f t="shared" si="1"/>
         <v>発注者担当名</v>
       </c>
       <c r="E67" t="s">
+        <v>348</v>
+      </c>
+      <c r="F67" t="s">
+        <v>92</v>
+      </c>
+      <c r="G67" t="s">
+        <v>92</v>
+      </c>
+      <c r="H67" t="s">
+        <v>348</v>
+      </c>
+      <c r="J67" t="s">
         <v>349</v>
-      </c>
-      <c r="F67" t="s">
-        <v>93</v>
-      </c>
-      <c r="G67" t="s">
-        <v>93</v>
-      </c>
-      <c r="H67" t="s">
-        <v>349</v>
-      </c>
-      <c r="J67" t="s">
-        <v>350</v>
       </c>
     </row>
     <row r="68" spans="1:10">
@@ -10744,29 +10744,29 @@
         <v>108</v>
       </c>
       <c r="B68" t="s">
+        <v>350</v>
+      </c>
+      <c r="C68" t="s">
         <v>351</v>
-      </c>
-      <c r="C68" t="s">
-        <v>352</v>
       </c>
       <c r="D68" t="str">
         <f t="shared" si="1"/>
         <v>発注者電話番号</v>
       </c>
       <c r="E68" t="s">
+        <v>352</v>
+      </c>
+      <c r="F68" t="s">
+        <v>92</v>
+      </c>
+      <c r="G68" t="s">
+        <v>92</v>
+      </c>
+      <c r="H68" t="s">
+        <v>352</v>
+      </c>
+      <c r="J68" t="s">
         <v>353</v>
-      </c>
-      <c r="F68" t="s">
-        <v>93</v>
-      </c>
-      <c r="G68" t="s">
-        <v>93</v>
-      </c>
-      <c r="H68" t="s">
-        <v>353</v>
-      </c>
-      <c r="J68" t="s">
-        <v>354</v>
       </c>
     </row>
     <row r="69" spans="1:10">
@@ -10774,23 +10774,23 @@
         <v>109</v>
       </c>
       <c r="B69" t="s">
+        <v>354</v>
+      </c>
+      <c r="C69" t="s">
         <v>355</v>
-      </c>
-      <c r="C69" t="s">
-        <v>356</v>
       </c>
       <c r="D69" t="str">
         <f t="shared" si="1"/>
         <v>発注者の電子メールアドレス</v>
       </c>
       <c r="E69" t="s">
+        <v>356</v>
+      </c>
+      <c r="H69" t="s">
+        <v>356</v>
+      </c>
+      <c r="J69" t="s">
         <v>357</v>
-      </c>
-      <c r="H69" t="s">
-        <v>357</v>
-      </c>
-      <c r="J69" t="s">
-        <v>358</v>
       </c>
     </row>
     <row r="70" spans="1:10">
@@ -10798,23 +10798,23 @@
         <v>110</v>
       </c>
       <c r="B70" t="s">
+        <v>358</v>
+      </c>
+      <c r="C70" t="s">
         <v>359</v>
-      </c>
-      <c r="C70" t="s">
-        <v>360</v>
       </c>
       <c r="D70" t="str">
         <f t="shared" si="1"/>
         <v>支払先</v>
       </c>
       <c r="E70" t="s">
+        <v>360</v>
+      </c>
+      <c r="F70" t="s">
+        <v>360</v>
+      </c>
+      <c r="J70" t="s">
         <v>361</v>
-      </c>
-      <c r="F70" t="s">
-        <v>361</v>
-      </c>
-      <c r="J70" t="s">
-        <v>362</v>
       </c>
     </row>
     <row r="71" spans="1:10">
@@ -10822,26 +10822,26 @@
         <v>111</v>
       </c>
       <c r="B71" t="s">
+        <v>362</v>
+      </c>
+      <c r="C71" t="s">
         <v>363</v>
-      </c>
-      <c r="C71" t="s">
-        <v>364</v>
       </c>
       <c r="D71" t="str">
         <f t="shared" si="1"/>
         <v>支払先名称</v>
       </c>
       <c r="E71" t="s">
+        <v>364</v>
+      </c>
+      <c r="F71" t="s">
+        <v>92</v>
+      </c>
+      <c r="G71" t="s">
+        <v>364</v>
+      </c>
+      <c r="J71" t="s">
         <v>365</v>
-      </c>
-      <c r="F71" t="s">
-        <v>93</v>
-      </c>
-      <c r="G71" t="s">
-        <v>365</v>
-      </c>
-      <c r="J71" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="72" spans="1:10">
@@ -10849,26 +10849,26 @@
         <v>112</v>
       </c>
       <c r="B72" t="s">
+        <v>366</v>
+      </c>
+      <c r="C72" t="s">
         <v>367</v>
-      </c>
-      <c r="C72" t="s">
-        <v>368</v>
       </c>
       <c r="D72" t="str">
         <f t="shared" si="1"/>
         <v>支払先コード</v>
       </c>
       <c r="E72" t="s">
+        <v>368</v>
+      </c>
+      <c r="F72" t="s">
+        <v>92</v>
+      </c>
+      <c r="G72" t="s">
+        <v>368</v>
+      </c>
+      <c r="J72" t="s">
         <v>369</v>
-      </c>
-      <c r="F72" t="s">
-        <v>93</v>
-      </c>
-      <c r="G72" t="s">
-        <v>369</v>
-      </c>
-      <c r="J72" t="s">
-        <v>370</v>
       </c>
     </row>
     <row r="73" spans="1:10">
@@ -10876,26 +10876,26 @@
         <v>114</v>
       </c>
       <c r="B73" t="s">
+        <v>370</v>
+      </c>
+      <c r="C73" t="s">
         <v>371</v>
-      </c>
-      <c r="C73" t="s">
-        <v>372</v>
       </c>
       <c r="D73" t="str">
         <f t="shared" si="1"/>
         <v>支払先国際企業コード</v>
       </c>
       <c r="E73" t="s">
+        <v>372</v>
+      </c>
+      <c r="F73" t="s">
+        <v>92</v>
+      </c>
+      <c r="G73" t="s">
+        <v>372</v>
+      </c>
+      <c r="J73" t="s">
         <v>373</v>
-      </c>
-      <c r="F73" t="s">
-        <v>93</v>
-      </c>
-      <c r="G73" t="s">
-        <v>373</v>
-      </c>
-      <c r="J73" t="s">
-        <v>374</v>
       </c>
     </row>
     <row r="74" spans="1:10">
@@ -10903,23 +10903,23 @@
         <v>130</v>
       </c>
       <c r="B74" t="s">
+        <v>374</v>
+      </c>
+      <c r="C74" t="s">
         <v>375</v>
-      </c>
-      <c r="C74" t="s">
-        <v>376</v>
       </c>
       <c r="D74" t="str">
         <f t="shared" si="1"/>
         <v>請求者</v>
       </c>
       <c r="E74" t="s">
+        <v>376</v>
+      </c>
+      <c r="F74" t="s">
+        <v>376</v>
+      </c>
+      <c r="J74" t="s">
         <v>377</v>
-      </c>
-      <c r="F74" t="s">
-        <v>377</v>
-      </c>
-      <c r="J74" t="s">
-        <v>378</v>
       </c>
     </row>
     <row r="75" spans="1:10">
@@ -10927,26 +10927,26 @@
         <v>133</v>
       </c>
       <c r="B75" t="s">
+        <v>378</v>
+      </c>
+      <c r="C75" t="s">
         <v>379</v>
-      </c>
-      <c r="C75" t="s">
-        <v>380</v>
       </c>
       <c r="D75" t="str">
         <f t="shared" si="1"/>
         <v>請求者名称</v>
       </c>
       <c r="E75" t="s">
+        <v>380</v>
+      </c>
+      <c r="F75" t="s">
+        <v>92</v>
+      </c>
+      <c r="G75" t="s">
+        <v>380</v>
+      </c>
+      <c r="J75" t="s">
         <v>381</v>
-      </c>
-      <c r="F75" t="s">
-        <v>93</v>
-      </c>
-      <c r="G75" t="s">
-        <v>381</v>
-      </c>
-      <c r="J75" t="s">
-        <v>382</v>
       </c>
     </row>
     <row r="76" spans="1:10">
@@ -10954,26 +10954,26 @@
         <v>134</v>
       </c>
       <c r="B76" t="s">
+        <v>382</v>
+      </c>
+      <c r="C76" t="s">
         <v>383</v>
-      </c>
-      <c r="C76" t="s">
-        <v>384</v>
       </c>
       <c r="D76" t="str">
         <f t="shared" si="1"/>
         <v>請求者の適格請求書発行事業者登録番号</v>
       </c>
       <c r="E76" t="s">
+        <v>384</v>
+      </c>
+      <c r="F76" t="s">
+        <v>92</v>
+      </c>
+      <c r="G76" t="s">
+        <v>384</v>
+      </c>
+      <c r="J76" t="s">
         <v>385</v>
-      </c>
-      <c r="F76" t="s">
-        <v>93</v>
-      </c>
-      <c r="G76" t="s">
-        <v>385</v>
-      </c>
-      <c r="J76" t="s">
-        <v>386</v>
       </c>
     </row>
     <row r="77" spans="1:10">
@@ -10981,23 +10981,23 @@
         <v>140</v>
       </c>
       <c r="B77" t="s">
+        <v>386</v>
+      </c>
+      <c r="C77" t="s">
         <v>387</v>
-      </c>
-      <c r="C77" t="s">
-        <v>388</v>
       </c>
       <c r="D77" t="str">
         <f t="shared" si="1"/>
         <v>請求者の住所</v>
       </c>
       <c r="E77" t="s">
+        <v>388</v>
+      </c>
+      <c r="G77" t="s">
+        <v>388</v>
+      </c>
+      <c r="J77" t="s">
         <v>389</v>
-      </c>
-      <c r="G77" t="s">
-        <v>389</v>
-      </c>
-      <c r="J77" t="s">
-        <v>390</v>
       </c>
     </row>
     <row r="78" spans="1:10">
@@ -11005,23 +11005,23 @@
         <v>141</v>
       </c>
       <c r="B78" t="s">
+        <v>390</v>
+      </c>
+      <c r="C78" t="s">
         <v>391</v>
-      </c>
-      <c r="C78" t="s">
-        <v>392</v>
       </c>
       <c r="D78" t="str">
         <f t="shared" si="1"/>
         <v>請求者住所欄1</v>
       </c>
       <c r="E78" t="s">
+        <v>392</v>
+      </c>
+      <c r="H78" t="s">
+        <v>392</v>
+      </c>
+      <c r="J78" t="s">
         <v>393</v>
-      </c>
-      <c r="H78" t="s">
-        <v>393</v>
-      </c>
-      <c r="J78" t="s">
-        <v>394</v>
       </c>
     </row>
     <row r="79" spans="1:10">
@@ -11029,23 +11029,23 @@
         <v>142</v>
       </c>
       <c r="B79" t="s">
+        <v>394</v>
+      </c>
+      <c r="C79" t="s">
         <v>395</v>
-      </c>
-      <c r="C79" t="s">
-        <v>396</v>
       </c>
       <c r="D79" t="str">
         <f t="shared" si="1"/>
         <v>請求者住所欄2</v>
       </c>
       <c r="E79" t="s">
+        <v>396</v>
+      </c>
+      <c r="H79" t="s">
+        <v>396</v>
+      </c>
+      <c r="J79" t="s">
         <v>397</v>
-      </c>
-      <c r="H79" t="s">
-        <v>397</v>
-      </c>
-      <c r="J79" t="s">
-        <v>398</v>
       </c>
     </row>
     <row r="80" spans="1:10">
@@ -11053,23 +11053,23 @@
         <v>143</v>
       </c>
       <c r="B80" t="s">
+        <v>398</v>
+      </c>
+      <c r="C80" t="s">
         <v>399</v>
-      </c>
-      <c r="C80" t="s">
-        <v>400</v>
       </c>
       <c r="D80" t="str">
         <f t="shared" si="1"/>
         <v>請求者住所欄3</v>
       </c>
       <c r="E80" t="s">
+        <v>400</v>
+      </c>
+      <c r="H80" t="s">
+        <v>400</v>
+      </c>
+      <c r="J80" t="s">
         <v>401</v>
-      </c>
-      <c r="H80" t="s">
-        <v>401</v>
-      </c>
-      <c r="J80" t="s">
-        <v>402</v>
       </c>
     </row>
     <row r="81" spans="1:10">
@@ -11077,23 +11077,23 @@
         <v>144</v>
       </c>
       <c r="B81" t="s">
+        <v>402</v>
+      </c>
+      <c r="C81" t="s">
         <v>403</v>
-      </c>
-      <c r="C81" t="s">
-        <v>404</v>
       </c>
       <c r="D81" t="str">
         <f t="shared" si="1"/>
         <v>請求者市</v>
       </c>
       <c r="E81" t="s">
+        <v>404</v>
+      </c>
+      <c r="H81" t="s">
+        <v>404</v>
+      </c>
+      <c r="J81" t="s">
         <v>405</v>
-      </c>
-      <c r="H81" t="s">
-        <v>405</v>
-      </c>
-      <c r="J81" t="s">
-        <v>406</v>
       </c>
     </row>
     <row r="82" spans="1:10">
@@ -11101,23 +11101,23 @@
         <v>145</v>
       </c>
       <c r="B82" t="s">
+        <v>406</v>
+      </c>
+      <c r="C82" t="s">
         <v>407</v>
-      </c>
-      <c r="C82" t="s">
-        <v>408</v>
       </c>
       <c r="D82" t="str">
         <f t="shared" si="1"/>
         <v>請求者郵便番号</v>
       </c>
       <c r="E82" t="s">
+        <v>408</v>
+      </c>
+      <c r="H82" t="s">
+        <v>408</v>
+      </c>
+      <c r="J82" t="s">
         <v>409</v>
-      </c>
-      <c r="H82" t="s">
-        <v>409</v>
-      </c>
-      <c r="J82" t="s">
-        <v>410</v>
       </c>
     </row>
     <row r="83" spans="1:10">
@@ -11125,23 +11125,23 @@
         <v>146</v>
       </c>
       <c r="B83" t="s">
+        <v>410</v>
+      </c>
+      <c r="C83" t="s">
         <v>411</v>
-      </c>
-      <c r="C83" t="s">
-        <v>412</v>
       </c>
       <c r="D83" t="str">
         <f t="shared" si="1"/>
         <v>請求者の地方区分</v>
       </c>
       <c r="E83" t="s">
+        <v>412</v>
+      </c>
+      <c r="H83" t="s">
+        <v>412</v>
+      </c>
+      <c r="J83" t="s">
         <v>413</v>
-      </c>
-      <c r="H83" t="s">
-        <v>413</v>
-      </c>
-      <c r="J83" t="s">
-        <v>414</v>
       </c>
     </row>
     <row r="84" spans="1:10">
@@ -11149,23 +11149,23 @@
         <v>147</v>
       </c>
       <c r="B84" t="s">
+        <v>414</v>
+      </c>
+      <c r="C84" t="s">
         <v>415</v>
-      </c>
-      <c r="C84" t="s">
-        <v>416</v>
       </c>
       <c r="D84" t="str">
         <f t="shared" si="1"/>
         <v>請求者国コード</v>
       </c>
       <c r="E84" t="s">
+        <v>416</v>
+      </c>
+      <c r="H84" t="s">
+        <v>416</v>
+      </c>
+      <c r="J84" t="s">
         <v>417</v>
-      </c>
-      <c r="H84" t="s">
-        <v>417</v>
-      </c>
-      <c r="J84" t="s">
-        <v>418</v>
       </c>
     </row>
     <row r="85" spans="1:10">
@@ -11173,23 +11173,23 @@
         <v>148</v>
       </c>
       <c r="B85" t="s">
+        <v>418</v>
+      </c>
+      <c r="C85" t="s">
         <v>419</v>
-      </c>
-      <c r="C85" t="s">
-        <v>420</v>
       </c>
       <c r="D85" t="str">
         <f t="shared" si="1"/>
         <v>納入先</v>
       </c>
       <c r="E85" t="s">
+        <v>420</v>
+      </c>
+      <c r="F85" t="s">
+        <v>420</v>
+      </c>
+      <c r="J85" t="s">
         <v>421</v>
-      </c>
-      <c r="F85" t="s">
-        <v>421</v>
-      </c>
-      <c r="J85" t="s">
-        <v>422</v>
       </c>
     </row>
     <row r="86" spans="1:10">
@@ -11197,26 +11197,26 @@
         <v>149</v>
       </c>
       <c r="B86" t="s">
+        <v>422</v>
+      </c>
+      <c r="C86" t="s">
         <v>423</v>
-      </c>
-      <c r="C86" t="s">
-        <v>424</v>
       </c>
       <c r="D86" t="str">
         <f t="shared" si="1"/>
         <v>納入先名称</v>
       </c>
       <c r="E86" t="s">
+        <v>424</v>
+      </c>
+      <c r="F86" t="s">
+        <v>92</v>
+      </c>
+      <c r="G86" t="s">
+        <v>424</v>
+      </c>
+      <c r="J86" t="s">
         <v>425</v>
-      </c>
-      <c r="F86" t="s">
-        <v>93</v>
-      </c>
-      <c r="G86" t="s">
-        <v>425</v>
-      </c>
-      <c r="J86" t="s">
-        <v>426</v>
       </c>
     </row>
     <row r="87" spans="1:10">
@@ -11224,26 +11224,26 @@
         <v>150</v>
       </c>
       <c r="B87" t="s">
+        <v>426</v>
+      </c>
+      <c r="C87" t="s">
         <v>427</v>
-      </c>
-      <c r="C87" t="s">
-        <v>428</v>
       </c>
       <c r="D87" t="str">
         <f t="shared" si="1"/>
         <v>納入先コード</v>
       </c>
       <c r="E87" t="s">
+        <v>428</v>
+      </c>
+      <c r="F87" t="s">
+        <v>92</v>
+      </c>
+      <c r="G87" t="s">
+        <v>428</v>
+      </c>
+      <c r="J87" t="s">
         <v>429</v>
-      </c>
-      <c r="F87" t="s">
-        <v>93</v>
-      </c>
-      <c r="G87" t="s">
-        <v>429</v>
-      </c>
-      <c r="J87" t="s">
-        <v>430</v>
       </c>
     </row>
     <row r="88" spans="1:10">
@@ -11251,23 +11251,23 @@
         <v>153</v>
       </c>
       <c r="B88" t="s">
+        <v>430</v>
+      </c>
+      <c r="C88" t="s">
         <v>431</v>
-      </c>
-      <c r="C88" t="s">
-        <v>432</v>
       </c>
       <c r="D88" t="str">
         <f t="shared" si="1"/>
         <v>実際の納入日</v>
       </c>
       <c r="E88" t="s">
+        <v>432</v>
+      </c>
+      <c r="G88" t="s">
+        <v>432</v>
+      </c>
+      <c r="J88" t="s">
         <v>433</v>
-      </c>
-      <c r="G88" t="s">
-        <v>433</v>
-      </c>
-      <c r="J88" t="s">
-        <v>434</v>
       </c>
     </row>
     <row r="89" spans="1:10">
@@ -11275,26 +11275,26 @@
         <v>154</v>
       </c>
       <c r="B89" t="s">
+        <v>434</v>
+      </c>
+      <c r="C89" t="s">
         <v>435</v>
-      </c>
-      <c r="C89" t="s">
-        <v>436</v>
       </c>
       <c r="D89" t="str">
         <f t="shared" si="1"/>
         <v>請求期間</v>
       </c>
       <c r="E89" t="s">
+        <v>436</v>
+      </c>
+      <c r="F89" t="s">
+        <v>92</v>
+      </c>
+      <c r="G89" t="s">
+        <v>436</v>
+      </c>
+      <c r="J89" t="s">
         <v>437</v>
-      </c>
-      <c r="F89" t="s">
-        <v>93</v>
-      </c>
-      <c r="G89" t="s">
-        <v>437</v>
-      </c>
-      <c r="J89" t="s">
-        <v>438</v>
       </c>
     </row>
     <row r="90" spans="1:10">
@@ -11302,29 +11302,29 @@
         <v>155</v>
       </c>
       <c r="B90" t="s">
+        <v>438</v>
+      </c>
+      <c r="C90" t="s">
         <v>439</v>
-      </c>
-      <c r="C90" t="s">
-        <v>440</v>
       </c>
       <c r="D90" t="str">
         <f t="shared" si="1"/>
         <v>請求開始日</v>
       </c>
       <c r="E90" t="s">
+        <v>440</v>
+      </c>
+      <c r="F90" t="s">
+        <v>92</v>
+      </c>
+      <c r="G90" t="s">
+        <v>92</v>
+      </c>
+      <c r="H90" t="s">
+        <v>440</v>
+      </c>
+      <c r="J90" t="s">
         <v>441</v>
-      </c>
-      <c r="F90" t="s">
-        <v>93</v>
-      </c>
-      <c r="G90" t="s">
-        <v>93</v>
-      </c>
-      <c r="H90" t="s">
-        <v>441</v>
-      </c>
-      <c r="J90" t="s">
-        <v>442</v>
       </c>
     </row>
     <row r="91" spans="1:10">
@@ -11332,29 +11332,29 @@
         <v>156</v>
       </c>
       <c r="B91" t="s">
+        <v>442</v>
+      </c>
+      <c r="C91" t="s">
         <v>443</v>
-      </c>
-      <c r="C91" t="s">
-        <v>444</v>
       </c>
       <c r="D91" t="str">
         <f t="shared" si="1"/>
         <v>請求終了日</v>
       </c>
       <c r="E91" t="s">
+        <v>444</v>
+      </c>
+      <c r="F91" t="s">
+        <v>92</v>
+      </c>
+      <c r="G91" t="s">
+        <v>92</v>
+      </c>
+      <c r="H91" t="s">
+        <v>444</v>
+      </c>
+      <c r="J91" t="s">
         <v>445</v>
-      </c>
-      <c r="F91" t="s">
-        <v>93</v>
-      </c>
-      <c r="G91" t="s">
-        <v>93</v>
-      </c>
-      <c r="H91" t="s">
-        <v>445</v>
-      </c>
-      <c r="J91" t="s">
-        <v>446</v>
       </c>
     </row>
     <row r="92" spans="1:10">
@@ -11362,23 +11362,23 @@
         <v>157</v>
       </c>
       <c r="B92" t="s">
+        <v>446</v>
+      </c>
+      <c r="C92" t="s">
         <v>447</v>
-      </c>
-      <c r="C92" t="s">
-        <v>448</v>
       </c>
       <c r="D92" t="str">
         <f t="shared" si="1"/>
         <v>納入先の住所</v>
       </c>
       <c r="E92" t="s">
+        <v>448</v>
+      </c>
+      <c r="G92" t="s">
+        <v>448</v>
+      </c>
+      <c r="J92" t="s">
         <v>449</v>
-      </c>
-      <c r="G92" t="s">
-        <v>449</v>
-      </c>
-      <c r="J92" t="s">
-        <v>450</v>
       </c>
     </row>
     <row r="93" spans="1:10">
@@ -11386,23 +11386,23 @@
         <v>158</v>
       </c>
       <c r="B93" t="s">
+        <v>450</v>
+      </c>
+      <c r="C93" t="s">
         <v>451</v>
-      </c>
-      <c r="C93" t="s">
-        <v>452</v>
       </c>
       <c r="D93" t="str">
         <f t="shared" si="1"/>
         <v>納入先住所欄1</v>
       </c>
       <c r="E93" t="s">
+        <v>452</v>
+      </c>
+      <c r="H93" t="s">
+        <v>452</v>
+      </c>
+      <c r="J93" t="s">
         <v>453</v>
-      </c>
-      <c r="H93" t="s">
-        <v>453</v>
-      </c>
-      <c r="J93" t="s">
-        <v>454</v>
       </c>
     </row>
     <row r="94" spans="1:10">
@@ -11410,23 +11410,23 @@
         <v>159</v>
       </c>
       <c r="B94" t="s">
+        <v>454</v>
+      </c>
+      <c r="C94" t="s">
         <v>455</v>
-      </c>
-      <c r="C94" t="s">
-        <v>456</v>
       </c>
       <c r="D94" t="str">
         <f t="shared" si="1"/>
         <v>納入先住所欄2</v>
       </c>
       <c r="E94" t="s">
+        <v>456</v>
+      </c>
+      <c r="H94" t="s">
+        <v>456</v>
+      </c>
+      <c r="J94" t="s">
         <v>457</v>
-      </c>
-      <c r="H94" t="s">
-        <v>457</v>
-      </c>
-      <c r="J94" t="s">
-        <v>458</v>
       </c>
     </row>
     <row r="95" spans="1:10">
@@ -11434,23 +11434,23 @@
         <v>160</v>
       </c>
       <c r="B95" t="s">
+        <v>458</v>
+      </c>
+      <c r="C95" t="s">
         <v>459</v>
-      </c>
-      <c r="C95" t="s">
-        <v>460</v>
       </c>
       <c r="D95" t="str">
         <f t="shared" si="1"/>
         <v>納入先住所欄3</v>
       </c>
       <c r="E95" t="s">
+        <v>460</v>
+      </c>
+      <c r="H95" t="s">
+        <v>460</v>
+      </c>
+      <c r="J95" t="s">
         <v>461</v>
-      </c>
-      <c r="H95" t="s">
-        <v>461</v>
-      </c>
-      <c r="J95" t="s">
-        <v>462</v>
       </c>
     </row>
     <row r="96" spans="1:10">
@@ -11458,23 +11458,23 @@
         <v>161</v>
       </c>
       <c r="B96" t="s">
+        <v>462</v>
+      </c>
+      <c r="C96" t="s">
         <v>463</v>
-      </c>
-      <c r="C96" t="s">
-        <v>464</v>
       </c>
       <c r="D96" t="str">
         <f t="shared" si="1"/>
         <v>納入先市</v>
       </c>
       <c r="E96" t="s">
+        <v>464</v>
+      </c>
+      <c r="H96" t="s">
+        <v>464</v>
+      </c>
+      <c r="J96" t="s">
         <v>465</v>
-      </c>
-      <c r="H96" t="s">
-        <v>465</v>
-      </c>
-      <c r="J96" t="s">
-        <v>466</v>
       </c>
     </row>
     <row r="97" spans="1:10">
@@ -11482,23 +11482,23 @@
         <v>162</v>
       </c>
       <c r="B97" t="s">
+        <v>466</v>
+      </c>
+      <c r="C97" t="s">
         <v>467</v>
-      </c>
-      <c r="C97" t="s">
-        <v>468</v>
       </c>
       <c r="D97" t="str">
         <f t="shared" si="1"/>
         <v>納入先郵便番号</v>
       </c>
       <c r="E97" t="s">
+        <v>468</v>
+      </c>
+      <c r="H97" t="s">
+        <v>468</v>
+      </c>
+      <c r="J97" t="s">
         <v>469</v>
-      </c>
-      <c r="H97" t="s">
-        <v>469</v>
-      </c>
-      <c r="J97" t="s">
-        <v>470</v>
       </c>
     </row>
     <row r="98" spans="1:10">
@@ -11506,23 +11506,23 @@
         <v>163</v>
       </c>
       <c r="B98" t="s">
+        <v>470</v>
+      </c>
+      <c r="C98" t="s">
         <v>471</v>
-      </c>
-      <c r="C98" t="s">
-        <v>472</v>
       </c>
       <c r="D98" t="str">
         <f t="shared" si="1"/>
         <v>納入先の地方区分</v>
       </c>
       <c r="E98" t="s">
+        <v>472</v>
+      </c>
+      <c r="H98" t="s">
+        <v>472</v>
+      </c>
+      <c r="J98" t="s">
         <v>473</v>
-      </c>
-      <c r="H98" t="s">
-        <v>473</v>
-      </c>
-      <c r="J98" t="s">
-        <v>474</v>
       </c>
     </row>
     <row r="99" spans="1:10">
@@ -11530,23 +11530,23 @@
         <v>164</v>
       </c>
       <c r="B99" t="s">
+        <v>474</v>
+      </c>
+      <c r="C99" t="s">
         <v>475</v>
-      </c>
-      <c r="C99" t="s">
-        <v>476</v>
       </c>
       <c r="D99" t="str">
         <f t="shared" si="1"/>
         <v>納入先国コード</v>
       </c>
       <c r="E99" t="s">
+        <v>476</v>
+      </c>
+      <c r="H99" t="s">
+        <v>476</v>
+      </c>
+      <c r="J99" t="s">
         <v>477</v>
-      </c>
-      <c r="H99" t="s">
-        <v>477</v>
-      </c>
-      <c r="J99" t="s">
-        <v>478</v>
       </c>
     </row>
     <row r="100" spans="1:10">
@@ -11554,23 +11554,23 @@
         <v>165</v>
       </c>
       <c r="B100" t="s">
+        <v>478</v>
+      </c>
+      <c r="C100" t="s">
         <v>479</v>
-      </c>
-      <c r="C100" t="s">
-        <v>480</v>
       </c>
       <c r="D100" t="str">
         <f t="shared" si="1"/>
         <v>支払手段</v>
       </c>
       <c r="E100" t="s">
+        <v>480</v>
+      </c>
+      <c r="F100" t="s">
+        <v>480</v>
+      </c>
+      <c r="J100" t="s">
         <v>481</v>
-      </c>
-      <c r="F100" t="s">
-        <v>481</v>
-      </c>
-      <c r="J100" t="s">
-        <v>482</v>
       </c>
     </row>
     <row r="101" spans="1:10">
@@ -11578,26 +11578,26 @@
         <v>166</v>
       </c>
       <c r="B101" t="s">
+        <v>482</v>
+      </c>
+      <c r="C101" t="s">
         <v>483</v>
-      </c>
-      <c r="C101" t="s">
-        <v>484</v>
       </c>
       <c r="D101" t="str">
         <f t="shared" si="1"/>
         <v>支払手段タイプコード</v>
       </c>
       <c r="E101" t="s">
+        <v>484</v>
+      </c>
+      <c r="F101" t="s">
+        <v>92</v>
+      </c>
+      <c r="G101" t="s">
+        <v>484</v>
+      </c>
+      <c r="J101" t="s">
         <v>485</v>
-      </c>
-      <c r="F101" t="s">
-        <v>93</v>
-      </c>
-      <c r="G101" t="s">
-        <v>485</v>
-      </c>
-      <c r="J101" t="s">
-        <v>486</v>
       </c>
     </row>
     <row r="102" spans="1:10">
@@ -11605,17 +11605,17 @@
         <v>167</v>
       </c>
       <c r="B102" t="s">
+        <v>486</v>
+      </c>
+      <c r="C102" t="s">
         <v>487</v>
-      </c>
-      <c r="C102" t="s">
-        <v>488</v>
       </c>
       <c r="D102" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="E102" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="103" spans="1:10">
@@ -11623,23 +11623,23 @@
         <v>168</v>
       </c>
       <c r="B103" t="s">
+        <v>488</v>
+      </c>
+      <c r="C103" t="s">
         <v>489</v>
-      </c>
-      <c r="C103" t="s">
-        <v>490</v>
       </c>
       <c r="D103" t="str">
         <f t="shared" si="1"/>
         <v>送金情報</v>
       </c>
       <c r="E103" t="s">
+        <v>490</v>
+      </c>
+      <c r="G103" t="s">
+        <v>490</v>
+      </c>
+      <c r="J103" t="s">
         <v>491</v>
-      </c>
-      <c r="G103" t="s">
-        <v>491</v>
-      </c>
-      <c r="J103" t="s">
-        <v>492</v>
       </c>
     </row>
     <row r="104" spans="1:10">
@@ -11647,23 +11647,23 @@
         <v>178</v>
       </c>
       <c r="B104" t="s">
+        <v>493</v>
+      </c>
+      <c r="C104" t="s">
         <v>494</v>
-      </c>
-      <c r="C104" t="s">
-        <v>495</v>
       </c>
       <c r="D104" t="str">
         <f t="shared" si="1"/>
         <v>銀行口座振替</v>
       </c>
       <c r="E104" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="G104" t="s">
+        <v>495</v>
+      </c>
+      <c r="J104" t="s">
         <v>496</v>
-      </c>
-      <c r="J104" t="s">
-        <v>497</v>
       </c>
     </row>
     <row r="105" spans="1:10">
@@ -11671,23 +11671,23 @@
         <v>179</v>
       </c>
       <c r="B105" t="s">
+        <v>497</v>
+      </c>
+      <c r="C105" t="s">
         <v>498</v>
-      </c>
-      <c r="C105" t="s">
-        <v>499</v>
       </c>
       <c r="D105" t="str">
         <f t="shared" si="1"/>
         <v>支払口座番号</v>
       </c>
       <c r="E105" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="H105" t="s">
+        <v>499</v>
+      </c>
+      <c r="J105" t="s">
         <v>500</v>
-      </c>
-      <c r="J105" t="s">
-        <v>501</v>
       </c>
     </row>
     <row r="106" spans="1:10">
@@ -11695,23 +11695,23 @@
         <v>181</v>
       </c>
       <c r="B106" t="s">
+        <v>501</v>
+      </c>
+      <c r="C106" t="s">
         <v>502</v>
-      </c>
-      <c r="C106" t="s">
-        <v>503</v>
       </c>
       <c r="D106" t="str">
         <f t="shared" si="1"/>
         <v>支払口座名義</v>
       </c>
       <c r="E106" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="H106" t="s">
+        <v>503</v>
+      </c>
+      <c r="J106" t="s">
         <v>504</v>
-      </c>
-      <c r="J106" t="s">
-        <v>505</v>
       </c>
     </row>
     <row r="107" spans="1:10">
@@ -11719,23 +11719,23 @@
         <v>182</v>
       </c>
       <c r="B107" t="s">
+        <v>505</v>
+      </c>
+      <c r="C107" t="s">
         <v>506</v>
-      </c>
-      <c r="C107" t="s">
-        <v>507</v>
       </c>
       <c r="D107" t="str">
         <f t="shared" si="1"/>
         <v>支払金融機関番号</v>
       </c>
       <c r="E107" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="H107" t="s">
+        <v>507</v>
+      </c>
+      <c r="J107" t="s">
         <v>508</v>
-      </c>
-      <c r="J107" t="s">
-        <v>509</v>
       </c>
     </row>
     <row r="108" spans="1:10">
@@ -11743,23 +11743,23 @@
         <v>191</v>
       </c>
       <c r="B108" t="s">
+        <v>509</v>
+      </c>
+      <c r="C108" t="s">
         <v>510</v>
-      </c>
-      <c r="C108" t="s">
-        <v>511</v>
       </c>
       <c r="D108" t="str">
         <f t="shared" si="1"/>
         <v>支払カード情報</v>
       </c>
       <c r="E108" t="s">
+        <v>511</v>
+      </c>
+      <c r="G108" t="s">
+        <v>511</v>
+      </c>
+      <c r="J108" t="s">
         <v>512</v>
-      </c>
-      <c r="G108" t="s">
-        <v>512</v>
-      </c>
-      <c r="J108" t="s">
-        <v>513</v>
       </c>
     </row>
     <row r="109" spans="1:10">
@@ -11767,23 +11767,23 @@
         <v>192</v>
       </c>
       <c r="B109" t="s">
+        <v>513</v>
+      </c>
+      <c r="C109" t="s">
         <v>514</v>
-      </c>
-      <c r="C109" t="s">
-        <v>515</v>
       </c>
       <c r="D109" t="str">
         <f t="shared" si="1"/>
         <v>支払カード主要口座番号</v>
       </c>
       <c r="E109" t="s">
+        <v>515</v>
+      </c>
+      <c r="H109" t="s">
+        <v>515</v>
+      </c>
+      <c r="J109" t="s">
         <v>516</v>
-      </c>
-      <c r="H109" t="s">
-        <v>516</v>
-      </c>
-      <c r="J109" t="s">
-        <v>517</v>
       </c>
     </row>
     <row r="110" spans="1:10">
@@ -11791,23 +11791,23 @@
         <v>193</v>
       </c>
       <c r="B110" t="s">
+        <v>517</v>
+      </c>
+      <c r="C110" t="s">
         <v>518</v>
-      </c>
-      <c r="C110" t="s">
-        <v>519</v>
       </c>
       <c r="D110" t="str">
         <f t="shared" si="1"/>
         <v>カード名義人氏名</v>
       </c>
       <c r="E110" t="s">
+        <v>519</v>
+      </c>
+      <c r="H110" t="s">
+        <v>519</v>
+      </c>
+      <c r="J110" t="s">
         <v>520</v>
-      </c>
-      <c r="H110" t="s">
-        <v>520</v>
-      </c>
-      <c r="J110" t="s">
-        <v>521</v>
       </c>
     </row>
     <row r="111" spans="1:10">
@@ -11815,23 +11815,23 @@
         <v>194</v>
       </c>
       <c r="B111" t="s">
+        <v>521</v>
+      </c>
+      <c r="C111" t="s">
         <v>522</v>
-      </c>
-      <c r="C111" t="s">
-        <v>523</v>
       </c>
       <c r="D111" t="str">
         <f t="shared" si="1"/>
         <v>直接デビット</v>
       </c>
       <c r="E111" t="s">
+        <v>523</v>
+      </c>
+      <c r="G111" t="s">
+        <v>523</v>
+      </c>
+      <c r="J111" t="s">
         <v>524</v>
-      </c>
-      <c r="G111" t="s">
-        <v>524</v>
-      </c>
-      <c r="J111" t="s">
-        <v>525</v>
       </c>
     </row>
     <row r="112" spans="1:10">
@@ -11839,23 +11839,23 @@
         <v>195</v>
       </c>
       <c r="B112" t="s">
+        <v>525</v>
+      </c>
+      <c r="C112" t="s">
         <v>526</v>
-      </c>
-      <c r="C112" t="s">
-        <v>527</v>
       </c>
       <c r="D112" t="str">
         <f t="shared" si="1"/>
         <v>マンデーションリファレンス識別子</v>
       </c>
       <c r="E112" t="s">
+        <v>527</v>
+      </c>
+      <c r="H112" t="s">
+        <v>527</v>
+      </c>
+      <c r="J112" t="s">
         <v>528</v>
-      </c>
-      <c r="H112" t="s">
-        <v>528</v>
-      </c>
-      <c r="J112" t="s">
-        <v>529</v>
       </c>
     </row>
     <row r="113" spans="1:10">
@@ -11863,23 +11863,23 @@
         <v>196</v>
       </c>
       <c r="B113" t="s">
+        <v>529</v>
+      </c>
+      <c r="C113" t="s">
         <v>530</v>
-      </c>
-      <c r="C113" t="s">
-        <v>531</v>
       </c>
       <c r="D113" t="str">
         <f t="shared" si="1"/>
         <v>銀行が割り当てた債権者識別子</v>
       </c>
       <c r="E113" t="s">
+        <v>531</v>
+      </c>
+      <c r="H113" t="s">
+        <v>531</v>
+      </c>
+      <c r="J113" t="s">
         <v>532</v>
-      </c>
-      <c r="H113" t="s">
-        <v>532</v>
-      </c>
-      <c r="J113" t="s">
-        <v>533</v>
       </c>
     </row>
     <row r="114" spans="1:10">
@@ -11887,23 +11887,23 @@
         <v>197</v>
       </c>
       <c r="B114" t="s">
+        <v>533</v>
+      </c>
+      <c r="C114" t="s">
         <v>534</v>
-      </c>
-      <c r="C114" t="s">
-        <v>535</v>
       </c>
       <c r="D114" t="str">
         <f t="shared" si="1"/>
         <v>借方勘定識別子</v>
       </c>
       <c r="E114" t="s">
+        <v>535</v>
+      </c>
+      <c r="H114" t="s">
+        <v>535</v>
+      </c>
+      <c r="J114" t="s">
         <v>536</v>
-      </c>
-      <c r="H114" t="s">
-        <v>536</v>
-      </c>
-      <c r="J114" t="s">
-        <v>537</v>
       </c>
     </row>
     <row r="115" spans="1:10">
@@ -11911,23 +11911,23 @@
         <v>203</v>
       </c>
       <c r="B115" t="s">
+        <v>538</v>
+      </c>
+      <c r="C115" t="s">
         <v>539</v>
-      </c>
-      <c r="C115" t="s">
-        <v>540</v>
       </c>
       <c r="D115" t="str">
         <f t="shared" si="1"/>
         <v>文書全体の控除(返還請求)</v>
       </c>
       <c r="E115" t="s">
+        <v>540</v>
+      </c>
+      <c r="F115" t="s">
+        <v>540</v>
+      </c>
+      <c r="J115" t="s">
         <v>541</v>
-      </c>
-      <c r="F115" t="s">
-        <v>541</v>
-      </c>
-      <c r="J115" t="s">
-        <v>542</v>
       </c>
     </row>
     <row r="116" spans="1:10">
@@ -11935,23 +11935,23 @@
         <v>204</v>
       </c>
       <c r="B116" t="s">
+        <v>542</v>
+      </c>
+      <c r="C116" t="s">
         <v>543</v>
-      </c>
-      <c r="C116" t="s">
-        <v>544</v>
       </c>
       <c r="D116" t="str">
         <f t="shared" si="1"/>
         <v>文書全体の控除(返還請求)金額(税抜き)</v>
       </c>
       <c r="E116" t="s">
+        <v>544</v>
+      </c>
+      <c r="G116" t="s">
+        <v>544</v>
+      </c>
+      <c r="J116" t="s">
         <v>545</v>
-      </c>
-      <c r="G116" t="s">
-        <v>545</v>
-      </c>
-      <c r="J116" t="s">
-        <v>546</v>
       </c>
     </row>
     <row r="117" spans="1:10">
@@ -11959,23 +11959,23 @@
         <v>207</v>
       </c>
       <c r="B117" t="s">
+        <v>546</v>
+      </c>
+      <c r="C117" t="s">
         <v>547</v>
-      </c>
-      <c r="C117" t="s">
-        <v>548</v>
       </c>
       <c r="D117" t="str">
         <f t="shared" si="1"/>
         <v>文書全体の控除(返還請求)の基準となる金額</v>
       </c>
       <c r="E117" t="s">
+        <v>548</v>
+      </c>
+      <c r="G117" t="s">
+        <v>548</v>
+      </c>
+      <c r="J117" t="s">
         <v>549</v>
-      </c>
-      <c r="G117" t="s">
-        <v>549</v>
-      </c>
-      <c r="J117" t="s">
-        <v>550</v>
       </c>
     </row>
     <row r="118" spans="1:10">
@@ -11983,23 +11983,23 @@
         <v>208</v>
       </c>
       <c r="B118" t="s">
+        <v>550</v>
+      </c>
+      <c r="C118" t="s">
         <v>551</v>
-      </c>
-      <c r="C118" t="s">
-        <v>552</v>
       </c>
       <c r="D118" t="str">
         <f t="shared" si="1"/>
         <v>文書全体の控除(返還請求)率</v>
       </c>
       <c r="E118" t="s">
+        <v>552</v>
+      </c>
+      <c r="G118" t="s">
+        <v>552</v>
+      </c>
+      <c r="J118" t="s">
         <v>553</v>
-      </c>
-      <c r="G118" t="s">
-        <v>553</v>
-      </c>
-      <c r="J118" t="s">
-        <v>554</v>
       </c>
     </row>
     <row r="119" spans="1:10">
@@ -12007,23 +12007,23 @@
         <v>209</v>
       </c>
       <c r="B119" t="s">
+        <v>554</v>
+      </c>
+      <c r="C119" t="s">
         <v>555</v>
-      </c>
-      <c r="C119" t="s">
-        <v>556</v>
       </c>
       <c r="D119" t="str">
         <f t="shared" si="1"/>
         <v>文書全体の控除(返還請求)の課税分類コード</v>
       </c>
       <c r="E119" t="s">
+        <v>556</v>
+      </c>
+      <c r="G119" t="s">
+        <v>556</v>
+      </c>
+      <c r="J119" t="s">
         <v>557</v>
-      </c>
-      <c r="G119" t="s">
-        <v>557</v>
-      </c>
-      <c r="J119" t="s">
-        <v>558</v>
       </c>
     </row>
     <row r="120" spans="1:10">
@@ -12031,23 +12031,23 @@
         <v>210</v>
       </c>
       <c r="B120" t="s">
+        <v>558</v>
+      </c>
+      <c r="C120" t="s">
         <v>559</v>
-      </c>
-      <c r="C120" t="s">
-        <v>560</v>
       </c>
       <c r="D120" t="str">
         <f t="shared" si="1"/>
         <v>文書全体の控除(返還請求)の税率</v>
       </c>
       <c r="E120" t="s">
+        <v>560</v>
+      </c>
+      <c r="G120" t="s">
+        <v>560</v>
+      </c>
+      <c r="J120" t="s">
         <v>561</v>
-      </c>
-      <c r="G120" t="s">
-        <v>561</v>
-      </c>
-      <c r="J120" t="s">
-        <v>562</v>
       </c>
     </row>
     <row r="121" spans="1:10">
@@ -12055,23 +12055,23 @@
         <v>211</v>
       </c>
       <c r="B121" t="s">
+        <v>562</v>
+      </c>
+      <c r="C121" t="s">
         <v>563</v>
-      </c>
-      <c r="C121" t="s">
-        <v>564</v>
       </c>
       <c r="D121" t="str">
         <f t="shared" si="1"/>
         <v>文書全体の控除(返還請求)の理由</v>
       </c>
       <c r="E121" t="s">
+        <v>564</v>
+      </c>
+      <c r="G121" t="s">
+        <v>564</v>
+      </c>
+      <c r="J121" t="s">
         <v>565</v>
-      </c>
-      <c r="G121" t="s">
-        <v>565</v>
-      </c>
-      <c r="J121" t="s">
-        <v>566</v>
       </c>
     </row>
     <row r="122" spans="1:10">
@@ -12079,23 +12079,23 @@
         <v>212</v>
       </c>
       <c r="B122" t="s">
+        <v>566</v>
+      </c>
+      <c r="C122" t="s">
         <v>567</v>
-      </c>
-      <c r="C122" t="s">
-        <v>568</v>
       </c>
       <c r="D122" t="str">
         <f t="shared" si="1"/>
         <v>文書全体の控除(返還請求)の事由コード</v>
       </c>
       <c r="E122" t="s">
+        <v>568</v>
+      </c>
+      <c r="G122" t="s">
+        <v>568</v>
+      </c>
+      <c r="J122" t="s">
         <v>569</v>
-      </c>
-      <c r="G122" t="s">
-        <v>569</v>
-      </c>
-      <c r="J122" t="s">
-        <v>570</v>
       </c>
     </row>
     <row r="123" spans="1:10">
@@ -12103,23 +12103,23 @@
         <v>213</v>
       </c>
       <c r="B123" t="s">
+        <v>570</v>
+      </c>
+      <c r="C123" t="s">
         <v>571</v>
-      </c>
-      <c r="C123" t="s">
-        <v>572</v>
       </c>
       <c r="D123" t="str">
         <f t="shared" si="1"/>
         <v>文書全体の追加請求</v>
       </c>
       <c r="E123" t="s">
+        <v>572</v>
+      </c>
+      <c r="F123" t="s">
+        <v>572</v>
+      </c>
+      <c r="J123" t="s">
         <v>573</v>
-      </c>
-      <c r="F123" t="s">
-        <v>573</v>
-      </c>
-      <c r="J123" t="s">
-        <v>574</v>
       </c>
     </row>
     <row r="124" spans="1:10">
@@ -12127,23 +12127,23 @@
         <v>214</v>
       </c>
       <c r="B124" t="s">
+        <v>574</v>
+      </c>
+      <c r="C124" t="s">
         <v>575</v>
-      </c>
-      <c r="C124" t="s">
-        <v>576</v>
       </c>
       <c r="D124" t="str">
         <f t="shared" si="1"/>
         <v>文書全体の追加請求金額</v>
       </c>
       <c r="E124" t="s">
+        <v>576</v>
+      </c>
+      <c r="G124" t="s">
+        <v>576</v>
+      </c>
+      <c r="J124" t="s">
         <v>577</v>
-      </c>
-      <c r="G124" t="s">
-        <v>577</v>
-      </c>
-      <c r="J124" t="s">
-        <v>578</v>
       </c>
     </row>
     <row r="125" spans="1:10">
@@ -12151,23 +12151,23 @@
         <v>215</v>
       </c>
       <c r="B125" t="s">
+        <v>578</v>
+      </c>
+      <c r="C125" t="s">
         <v>579</v>
-      </c>
-      <c r="C125" t="s">
-        <v>580</v>
       </c>
       <c r="D125" t="str">
         <f t="shared" si="1"/>
         <v>文書全体の追加請求の基準となる金額</v>
       </c>
       <c r="E125" t="s">
+        <v>580</v>
+      </c>
+      <c r="G125" t="s">
+        <v>580</v>
+      </c>
+      <c r="J125" t="s">
         <v>581</v>
-      </c>
-      <c r="G125" t="s">
-        <v>581</v>
-      </c>
-      <c r="J125" t="s">
-        <v>582</v>
       </c>
     </row>
     <row r="126" spans="1:10">
@@ -12175,23 +12175,23 @@
         <v>216</v>
       </c>
       <c r="B126" t="s">
+        <v>582</v>
+      </c>
+      <c r="C126" t="s">
         <v>583</v>
-      </c>
-      <c r="C126" t="s">
-        <v>584</v>
       </c>
       <c r="D126" t="str">
         <f t="shared" si="1"/>
         <v>文書全体の追加請求率</v>
       </c>
       <c r="E126" t="s">
+        <v>584</v>
+      </c>
+      <c r="G126" t="s">
+        <v>584</v>
+      </c>
+      <c r="J126" t="s">
         <v>585</v>
-      </c>
-      <c r="G126" t="s">
-        <v>585</v>
-      </c>
-      <c r="J126" t="s">
-        <v>586</v>
       </c>
     </row>
     <row r="127" spans="1:10">
@@ -12199,23 +12199,23 @@
         <v>217</v>
       </c>
       <c r="B127" t="s">
+        <v>586</v>
+      </c>
+      <c r="C127" t="s">
         <v>587</v>
-      </c>
-      <c r="C127" t="s">
-        <v>588</v>
       </c>
       <c r="D127" t="str">
         <f t="shared" si="1"/>
         <v>文書全体の追加請求の課税分類コード</v>
       </c>
       <c r="E127" t="s">
+        <v>588</v>
+      </c>
+      <c r="G127" t="s">
+        <v>588</v>
+      </c>
+      <c r="J127" t="s">
         <v>589</v>
-      </c>
-      <c r="G127" t="s">
-        <v>589</v>
-      </c>
-      <c r="J127" t="s">
-        <v>590</v>
       </c>
     </row>
     <row r="128" spans="1:10">
@@ -12223,23 +12223,23 @@
         <v>218</v>
       </c>
       <c r="B128" t="s">
+        <v>590</v>
+      </c>
+      <c r="C128" t="s">
         <v>591</v>
-      </c>
-      <c r="C128" t="s">
-        <v>592</v>
       </c>
       <c r="D128" t="str">
         <f t="shared" si="1"/>
         <v>文書全体の追加請求の税率</v>
       </c>
       <c r="E128" t="s">
+        <v>592</v>
+      </c>
+      <c r="G128" t="s">
+        <v>592</v>
+      </c>
+      <c r="J128" t="s">
         <v>593</v>
-      </c>
-      <c r="G128" t="s">
-        <v>593</v>
-      </c>
-      <c r="J128" t="s">
-        <v>594</v>
       </c>
     </row>
     <row r="129" spans="1:10">
@@ -12247,23 +12247,23 @@
         <v>219</v>
       </c>
       <c r="B129" t="s">
+        <v>594</v>
+      </c>
+      <c r="C129" t="s">
         <v>595</v>
-      </c>
-      <c r="C129" t="s">
-        <v>596</v>
       </c>
       <c r="D129" t="str">
         <f t="shared" ref="D129:D192" si="2">IF(NOT(ISERROR(FIND(CHAR(10), E129) )),MID(E129,1,FIND(CHAR(10), E129) -1),E129)</f>
         <v>文書全体の追加請求の理由</v>
       </c>
       <c r="E129" t="s">
+        <v>596</v>
+      </c>
+      <c r="G129" t="s">
+        <v>596</v>
+      </c>
+      <c r="J129" t="s">
         <v>597</v>
-      </c>
-      <c r="G129" t="s">
-        <v>597</v>
-      </c>
-      <c r="J129" t="s">
-        <v>598</v>
       </c>
     </row>
     <row r="130" spans="1:10">
@@ -12271,23 +12271,23 @@
         <v>220</v>
       </c>
       <c r="B130" t="s">
+        <v>598</v>
+      </c>
+      <c r="C130" t="s">
         <v>599</v>
-      </c>
-      <c r="C130" t="s">
-        <v>600</v>
       </c>
       <c r="D130" t="str">
         <f t="shared" si="2"/>
         <v>文書全体の追加請求の理由コード</v>
       </c>
       <c r="E130" t="s">
+        <v>600</v>
+      </c>
+      <c r="G130" t="s">
+        <v>600</v>
+      </c>
+      <c r="J130" t="s">
         <v>601</v>
-      </c>
-      <c r="G130" t="s">
-        <v>601</v>
-      </c>
-      <c r="J130" t="s">
-        <v>602</v>
       </c>
     </row>
     <row r="131" spans="1:10">
@@ -12295,23 +12295,23 @@
         <v>221</v>
       </c>
       <c r="B131" t="s">
+        <v>602</v>
+      </c>
+      <c r="C131" t="s">
         <v>603</v>
-      </c>
-      <c r="C131" t="s">
-        <v>604</v>
       </c>
       <c r="D131" t="str">
         <f t="shared" si="2"/>
         <v>請求書総合計金額</v>
       </c>
       <c r="E131" t="s">
+        <v>604</v>
+      </c>
+      <c r="F131" t="s">
+        <v>604</v>
+      </c>
+      <c r="J131" t="s">
         <v>605</v>
-      </c>
-      <c r="F131" t="s">
-        <v>605</v>
-      </c>
-      <c r="J131" t="s">
-        <v>606</v>
       </c>
     </row>
     <row r="132" spans="1:10">
@@ -12319,26 +12319,26 @@
         <v>222</v>
       </c>
       <c r="B132" t="s">
+        <v>606</v>
+      </c>
+      <c r="C132" t="s">
         <v>607</v>
-      </c>
-      <c r="C132" t="s">
-        <v>608</v>
       </c>
       <c r="D132" t="str">
         <f t="shared" si="2"/>
         <v>請求書総合計金額(税込み)</v>
       </c>
       <c r="E132" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="F132" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G132" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="J132" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
     </row>
     <row r="133" spans="1:10">
@@ -12346,23 +12346,23 @@
         <v>223</v>
       </c>
       <c r="B133" t="s">
+        <v>609</v>
+      </c>
+      <c r="C133" t="s">
         <v>610</v>
-      </c>
-      <c r="C133" t="s">
-        <v>611</v>
       </c>
       <c r="D133" t="str">
         <f t="shared" si="2"/>
         <v>文書全体の控除(返還請求)の総合計金額(税抜き)</v>
       </c>
       <c r="E133" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="G133" t="s">
+        <v>611</v>
+      </c>
+      <c r="J133" t="s">
         <v>612</v>
-      </c>
-      <c r="J133" t="s">
-        <v>613</v>
       </c>
     </row>
     <row r="134" spans="1:10">
@@ -12370,23 +12370,23 @@
         <v>225</v>
       </c>
       <c r="B134" t="s">
+        <v>613</v>
+      </c>
+      <c r="C134" t="s">
         <v>614</v>
-      </c>
-      <c r="C134" t="s">
-        <v>615</v>
       </c>
       <c r="D134" t="str">
         <f t="shared" si="2"/>
         <v>文書全体の追加請求の総合計金額(税抜き)</v>
       </c>
       <c r="E134" t="s">
+        <v>615</v>
+      </c>
+      <c r="G134" t="s">
+        <v>615</v>
+      </c>
+      <c r="J134" t="s">
         <v>616</v>
-      </c>
-      <c r="G134" t="s">
-        <v>616</v>
-      </c>
-      <c r="J134" t="s">
-        <v>617</v>
       </c>
     </row>
     <row r="135" spans="1:10">
@@ -12394,26 +12394,26 @@
         <v>227</v>
       </c>
       <c r="B135" t="s">
+        <v>617</v>
+      </c>
+      <c r="C135" t="s">
         <v>618</v>
-      </c>
-      <c r="C135" t="s">
-        <v>619</v>
       </c>
       <c r="D135" t="str">
         <f t="shared" si="2"/>
         <v>税抜き合計金額</v>
       </c>
       <c r="E135" t="s">
+        <v>619</v>
+      </c>
+      <c r="F135" t="s">
+        <v>92</v>
+      </c>
+      <c r="G135" t="s">
+        <v>619</v>
+      </c>
+      <c r="J135" t="s">
         <v>620</v>
-      </c>
-      <c r="F135" t="s">
-        <v>93</v>
-      </c>
-      <c r="G135" t="s">
-        <v>620</v>
-      </c>
-      <c r="J135" t="s">
-        <v>621</v>
       </c>
     </row>
     <row r="136" spans="1:10">
@@ -12421,26 +12421,26 @@
         <v>228</v>
       </c>
       <c r="B136" t="s">
+        <v>621</v>
+      </c>
+      <c r="C136" t="s">
         <v>622</v>
-      </c>
-      <c r="C136" t="s">
-        <v>623</v>
       </c>
       <c r="D136" t="str">
         <f t="shared" si="2"/>
         <v>消費税合計金額</v>
       </c>
       <c r="E136" t="s">
+        <v>623</v>
+      </c>
+      <c r="F136" t="s">
+        <v>92</v>
+      </c>
+      <c r="G136" t="s">
+        <v>623</v>
+      </c>
+      <c r="J136" t="s">
         <v>624</v>
-      </c>
-      <c r="F136" t="s">
-        <v>93</v>
-      </c>
-      <c r="G136" t="s">
-        <v>624</v>
-      </c>
-      <c r="J136" t="s">
-        <v>625</v>
       </c>
     </row>
     <row r="137" spans="1:10">
@@ -12448,23 +12448,23 @@
         <v>229</v>
       </c>
       <c r="B137" t="s">
+        <v>625</v>
+      </c>
+      <c r="C137" t="s">
         <v>626</v>
-      </c>
-      <c r="C137" t="s">
-        <v>627</v>
       </c>
       <c r="D137" t="str">
         <f t="shared" si="2"/>
         <v>会計通貨での税込み合計金額</v>
       </c>
       <c r="E137" t="s">
+        <v>627</v>
+      </c>
+      <c r="G137" t="s">
+        <v>627</v>
+      </c>
+      <c r="J137" t="s">
         <v>628</v>
-      </c>
-      <c r="G137" t="s">
-        <v>628</v>
-      </c>
-      <c r="J137" t="s">
-        <v>629</v>
       </c>
     </row>
     <row r="138" spans="1:10">
@@ -12472,26 +12472,26 @@
         <v>230</v>
       </c>
       <c r="B138" t="s">
+        <v>629</v>
+      </c>
+      <c r="C138" t="s">
         <v>630</v>
-      </c>
-      <c r="C138" t="s">
-        <v>631</v>
       </c>
       <c r="D138" t="str">
         <f t="shared" si="2"/>
         <v>税込み合計金額</v>
       </c>
       <c r="E138" t="s">
+        <v>631</v>
+      </c>
+      <c r="F138" t="s">
+        <v>92</v>
+      </c>
+      <c r="G138" t="s">
+        <v>631</v>
+      </c>
+      <c r="J138" t="s">
         <v>632</v>
-      </c>
-      <c r="F138" t="s">
-        <v>93</v>
-      </c>
-      <c r="G138" t="s">
-        <v>632</v>
-      </c>
-      <c r="J138" t="s">
-        <v>633</v>
       </c>
     </row>
     <row r="139" spans="1:10">
@@ -12499,23 +12499,23 @@
         <v>231</v>
       </c>
       <c r="B139" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="C139" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="D139" t="str">
         <f t="shared" si="2"/>
         <v>支払済金額</v>
       </c>
       <c r="E139" t="s">
+        <v>634</v>
+      </c>
+      <c r="G139" t="s">
+        <v>634</v>
+      </c>
+      <c r="J139" t="s">
         <v>635</v>
-      </c>
-      <c r="G139" t="s">
-        <v>635</v>
-      </c>
-      <c r="J139" t="s">
-        <v>636</v>
       </c>
     </row>
     <row r="140" spans="1:10">
@@ -12523,23 +12523,23 @@
         <v>232</v>
       </c>
       <c r="B140" t="s">
+        <v>636</v>
+      </c>
+      <c r="C140" t="s">
         <v>637</v>
-      </c>
-      <c r="C140" t="s">
-        <v>638</v>
       </c>
       <c r="D140" t="str">
         <f t="shared" si="2"/>
         <v>端数処理金額</v>
       </c>
       <c r="E140" t="s">
+        <v>638</v>
+      </c>
+      <c r="G140" t="s">
+        <v>638</v>
+      </c>
+      <c r="J140" t="s">
         <v>639</v>
-      </c>
-      <c r="G140" t="s">
-        <v>639</v>
-      </c>
-      <c r="J140" t="s">
-        <v>640</v>
       </c>
     </row>
     <row r="141" spans="1:10">
@@ -12547,23 +12547,23 @@
         <v>233</v>
       </c>
       <c r="B141" t="s">
+        <v>640</v>
+      </c>
+      <c r="C141" t="s">
         <v>641</v>
-      </c>
-      <c r="C141" t="s">
-        <v>642</v>
       </c>
       <c r="D141" t="str">
         <f t="shared" si="2"/>
         <v>未払い金額</v>
       </c>
       <c r="E141" t="s">
+        <v>642</v>
+      </c>
+      <c r="G141" t="s">
+        <v>642</v>
+      </c>
+      <c r="J141" t="s">
         <v>643</v>
-      </c>
-      <c r="G141" t="s">
-        <v>643</v>
-      </c>
-      <c r="J141" t="s">
-        <v>644</v>
       </c>
     </row>
     <row r="142" spans="1:10">
@@ -12571,23 +12571,23 @@
         <v>235</v>
       </c>
       <c r="B142" t="s">
+        <v>644</v>
+      </c>
+      <c r="C142" t="s">
         <v>645</v>
-      </c>
-      <c r="C142" t="s">
-        <v>646</v>
       </c>
       <c r="D142" t="str">
         <f t="shared" si="2"/>
         <v>税の内訳</v>
       </c>
       <c r="E142" t="s">
+        <v>646</v>
+      </c>
+      <c r="F142" t="s">
+        <v>646</v>
+      </c>
+      <c r="J142" t="s">
         <v>647</v>
-      </c>
-      <c r="F142" t="s">
-        <v>647</v>
-      </c>
-      <c r="J142" t="s">
-        <v>648</v>
       </c>
     </row>
     <row r="143" spans="1:10">
@@ -12595,26 +12595,26 @@
         <v>236</v>
       </c>
       <c r="B143" t="s">
+        <v>648</v>
+      </c>
+      <c r="C143" t="s">
         <v>649</v>
-      </c>
-      <c r="C143" t="s">
-        <v>650</v>
       </c>
       <c r="D143" t="str">
         <f t="shared" si="2"/>
         <v>課税対象の合計金額(税抜き)</v>
       </c>
       <c r="E143" t="s">
+        <v>650</v>
+      </c>
+      <c r="F143" t="s">
+        <v>92</v>
+      </c>
+      <c r="G143" t="s">
+        <v>650</v>
+      </c>
+      <c r="J143" t="s">
         <v>651</v>
-      </c>
-      <c r="F143" t="s">
-        <v>93</v>
-      </c>
-      <c r="G143" t="s">
-        <v>651</v>
-      </c>
-      <c r="J143" t="s">
-        <v>652</v>
       </c>
     </row>
     <row r="144" spans="1:10">
@@ -12622,26 +12622,26 @@
         <v>238</v>
       </c>
       <c r="B144" t="s">
+        <v>652</v>
+      </c>
+      <c r="C144" t="s">
         <v>653</v>
-      </c>
-      <c r="C144" t="s">
-        <v>654</v>
       </c>
       <c r="D144" t="str">
         <f t="shared" si="2"/>
         <v>税額</v>
       </c>
       <c r="E144" t="s">
+        <v>654</v>
+      </c>
+      <c r="F144" t="s">
+        <v>92</v>
+      </c>
+      <c r="G144" t="s">
+        <v>654</v>
+      </c>
+      <c r="J144" t="s">
         <v>655</v>
-      </c>
-      <c r="F144" t="s">
-        <v>93</v>
-      </c>
-      <c r="G144" t="s">
-        <v>655</v>
-      </c>
-      <c r="J144" t="s">
-        <v>656</v>
       </c>
     </row>
     <row r="145" spans="1:10">
@@ -12649,26 +12649,26 @@
         <v>240</v>
       </c>
       <c r="B145" t="s">
+        <v>656</v>
+      </c>
+      <c r="C145" t="s">
         <v>657</v>
-      </c>
-      <c r="C145" t="s">
-        <v>658</v>
       </c>
       <c r="D145" t="str">
         <f t="shared" si="2"/>
         <v>課税分類コード</v>
       </c>
       <c r="E145" t="s">
+        <v>658</v>
+      </c>
+      <c r="F145" t="s">
+        <v>92</v>
+      </c>
+      <c r="G145" t="s">
+        <v>658</v>
+      </c>
+      <c r="J145" t="s">
         <v>659</v>
-      </c>
-      <c r="F145" t="s">
-        <v>93</v>
-      </c>
-      <c r="G145" t="s">
-        <v>659</v>
-      </c>
-      <c r="J145" t="s">
-        <v>660</v>
       </c>
     </row>
     <row r="146" spans="1:10">
@@ -12676,26 +12676,26 @@
         <v>242</v>
       </c>
       <c r="B146" t="s">
+        <v>660</v>
+      </c>
+      <c r="C146" t="s">
         <v>661</v>
-      </c>
-      <c r="C146" t="s">
-        <v>662</v>
       </c>
       <c r="D146" t="str">
         <f t="shared" si="2"/>
         <v>税率</v>
       </c>
       <c r="E146" t="s">
+        <v>662</v>
+      </c>
+      <c r="F146" t="s">
+        <v>92</v>
+      </c>
+      <c r="G146" t="s">
+        <v>662</v>
+      </c>
+      <c r="J146" t="s">
         <v>663</v>
-      </c>
-      <c r="F146" t="s">
-        <v>93</v>
-      </c>
-      <c r="G146" t="s">
-        <v>663</v>
-      </c>
-      <c r="J146" t="s">
-        <v>664</v>
       </c>
     </row>
     <row r="147" spans="1:10">
@@ -12703,16 +12703,16 @@
         <v>243</v>
       </c>
       <c r="B147" t="s">
+        <v>664</v>
+      </c>
+      <c r="C147" t="s">
         <v>665</v>
       </c>
-      <c r="C147" t="s">
-        <v>666</v>
-      </c>
       <c r="D147" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="E147" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="148" spans="1:10">
@@ -12720,16 +12720,16 @@
         <v>244</v>
       </c>
       <c r="B148" t="s">
+        <v>666</v>
+      </c>
+      <c r="C148" t="s">
         <v>667</v>
       </c>
-      <c r="C148" t="s">
-        <v>668</v>
-      </c>
       <c r="D148" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="E148" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="149" spans="1:10">
@@ -12737,23 +12737,23 @@
         <v>246</v>
       </c>
       <c r="B149" t="s">
+        <v>668</v>
+      </c>
+      <c r="C149" t="s">
         <v>669</v>
-      </c>
-      <c r="C149" t="s">
-        <v>670</v>
       </c>
       <c r="D149" t="str">
         <f t="shared" si="2"/>
         <v>添付書類</v>
       </c>
       <c r="E149" t="s">
+        <v>670</v>
+      </c>
+      <c r="F149" t="s">
+        <v>670</v>
+      </c>
+      <c r="J149" t="s">
         <v>671</v>
-      </c>
-      <c r="F149" t="s">
-        <v>671</v>
-      </c>
-      <c r="J149" t="s">
-        <v>672</v>
       </c>
     </row>
     <row r="150" spans="1:10">
@@ -12761,23 +12761,23 @@
         <v>247</v>
       </c>
       <c r="B150" t="s">
+        <v>672</v>
+      </c>
+      <c r="C150" t="s">
         <v>673</v>
-      </c>
-      <c r="C150" t="s">
-        <v>674</v>
       </c>
       <c r="D150" t="str">
         <f t="shared" si="2"/>
         <v>添付書類への参照</v>
       </c>
       <c r="E150" t="s">
+        <v>674</v>
+      </c>
+      <c r="G150" t="s">
+        <v>674</v>
+      </c>
+      <c r="J150" t="s">
         <v>675</v>
-      </c>
-      <c r="G150" t="s">
-        <v>675</v>
-      </c>
-      <c r="J150" t="s">
-        <v>676</v>
       </c>
     </row>
     <row r="151" spans="1:10">
@@ -12785,23 +12785,23 @@
         <v>248</v>
       </c>
       <c r="B151" t="s">
+        <v>676</v>
+      </c>
+      <c r="C151" t="s">
         <v>677</v>
-      </c>
-      <c r="C151" t="s">
-        <v>678</v>
       </c>
       <c r="D151" t="str">
         <f t="shared" si="2"/>
         <v>添付書類の説明</v>
       </c>
       <c r="E151" t="s">
+        <v>678</v>
+      </c>
+      <c r="G151" t="s">
+        <v>678</v>
+      </c>
+      <c r="J151" t="s">
         <v>679</v>
-      </c>
-      <c r="G151" t="s">
-        <v>679</v>
-      </c>
-      <c r="J151" t="s">
-        <v>680</v>
       </c>
     </row>
     <row r="152" spans="1:10">
@@ -12809,23 +12809,23 @@
         <v>249</v>
       </c>
       <c r="B152" t="s">
+        <v>680</v>
+      </c>
+      <c r="C152" t="s">
         <v>681</v>
-      </c>
-      <c r="C152" t="s">
-        <v>682</v>
       </c>
       <c r="D152" t="str">
         <f t="shared" si="2"/>
         <v>外部の添付書類の場所</v>
       </c>
       <c r="E152" t="s">
+        <v>682</v>
+      </c>
+      <c r="G152" t="s">
+        <v>682</v>
+      </c>
+      <c r="J152" t="s">
         <v>683</v>
-      </c>
-      <c r="G152" t="s">
-        <v>683</v>
-      </c>
-      <c r="J152" t="s">
-        <v>684</v>
       </c>
     </row>
     <row r="153" spans="1:10">
@@ -12833,23 +12833,23 @@
         <v>250</v>
       </c>
       <c r="B153" t="s">
+        <v>684</v>
+      </c>
+      <c r="C153" t="s">
         <v>685</v>
-      </c>
-      <c r="C153" t="s">
-        <v>686</v>
       </c>
       <c r="D153" t="str">
         <f t="shared" si="2"/>
         <v>添付書類</v>
       </c>
       <c r="E153" t="s">
+        <v>686</v>
+      </c>
+      <c r="G153" t="s">
+        <v>686</v>
+      </c>
+      <c r="J153" t="s">
         <v>687</v>
-      </c>
-      <c r="G153" t="s">
-        <v>687</v>
-      </c>
-      <c r="J153" t="s">
-        <v>688</v>
       </c>
     </row>
     <row r="154" spans="1:10">
@@ -12857,23 +12857,23 @@
         <v>251</v>
       </c>
       <c r="B154" t="s">
+        <v>688</v>
+      </c>
+      <c r="C154" t="s">
         <v>689</v>
-      </c>
-      <c r="C154" t="s">
-        <v>690</v>
       </c>
       <c r="D154" t="str">
         <f t="shared" si="2"/>
         <v>添付書類MIMEコード</v>
       </c>
       <c r="E154" t="s">
+        <v>690</v>
+      </c>
+      <c r="H154" t="s">
+        <v>690</v>
+      </c>
+      <c r="J154" t="s">
         <v>691</v>
-      </c>
-      <c r="H154" t="s">
-        <v>691</v>
-      </c>
-      <c r="J154" t="s">
-        <v>692</v>
       </c>
     </row>
     <row r="155" spans="1:10">
@@ -12881,23 +12881,23 @@
         <v>252</v>
       </c>
       <c r="B155" t="s">
+        <v>692</v>
+      </c>
+      <c r="C155" t="s">
         <v>693</v>
-      </c>
-      <c r="C155" t="s">
-        <v>694</v>
       </c>
       <c r="D155" t="str">
         <f t="shared" si="2"/>
         <v>添付書類ファイル名</v>
       </c>
       <c r="E155" t="s">
+        <v>694</v>
+      </c>
+      <c r="H155" t="s">
+        <v>694</v>
+      </c>
+      <c r="J155" t="s">
         <v>695</v>
-      </c>
-      <c r="H155" t="s">
-        <v>695</v>
-      </c>
-      <c r="J155" t="s">
-        <v>696</v>
       </c>
     </row>
     <row r="156" spans="1:10">
@@ -12905,23 +12905,23 @@
         <v>253</v>
       </c>
       <c r="B156" t="s">
+        <v>696</v>
+      </c>
+      <c r="C156" t="s">
         <v>697</v>
-      </c>
-      <c r="C156" t="s">
-        <v>698</v>
       </c>
       <c r="D156" t="str">
         <f t="shared" si="2"/>
         <v>明細行</v>
       </c>
       <c r="E156" t="s">
+        <v>698</v>
+      </c>
+      <c r="F156" t="s">
+        <v>698</v>
+      </c>
+      <c r="J156" t="s">
         <v>699</v>
-      </c>
-      <c r="F156" t="s">
-        <v>699</v>
-      </c>
-      <c r="J156" t="s">
-        <v>700</v>
       </c>
     </row>
     <row r="157" spans="1:10">
@@ -12929,26 +12929,26 @@
         <v>254</v>
       </c>
       <c r="B157" t="s">
+        <v>700</v>
+      </c>
+      <c r="C157" t="s">
         <v>701</v>
-      </c>
-      <c r="C157" t="s">
-        <v>702</v>
       </c>
       <c r="D157" t="str">
         <f t="shared" si="2"/>
         <v>明細行番号</v>
       </c>
       <c r="E157" t="s">
+        <v>702</v>
+      </c>
+      <c r="F157" t="s">
+        <v>92</v>
+      </c>
+      <c r="G157" t="s">
+        <v>702</v>
+      </c>
+      <c r="J157" t="s">
         <v>703</v>
-      </c>
-      <c r="F157" t="s">
-        <v>93</v>
-      </c>
-      <c r="G157" t="s">
-        <v>703</v>
-      </c>
-      <c r="J157" t="s">
-        <v>704</v>
       </c>
     </row>
     <row r="158" spans="1:10">
@@ -12956,26 +12956,26 @@
         <v>258</v>
       </c>
       <c r="B158" t="s">
+        <v>704</v>
+      </c>
+      <c r="C158" t="s">
         <v>705</v>
-      </c>
-      <c r="C158" t="s">
-        <v>706</v>
       </c>
       <c r="D158" t="str">
         <f t="shared" si="2"/>
         <v>明細行注釈</v>
       </c>
       <c r="E158" t="s">
+        <v>706</v>
+      </c>
+      <c r="F158" t="s">
+        <v>92</v>
+      </c>
+      <c r="G158" t="s">
+        <v>706</v>
+      </c>
+      <c r="J158" t="s">
         <v>707</v>
-      </c>
-      <c r="F158" t="s">
-        <v>93</v>
-      </c>
-      <c r="G158" t="s">
-        <v>707</v>
-      </c>
-      <c r="J158" t="s">
-        <v>708</v>
       </c>
     </row>
     <row r="159" spans="1:10">
@@ -12983,23 +12983,23 @@
         <v>259</v>
       </c>
       <c r="B159" t="s">
+        <v>708</v>
+      </c>
+      <c r="C159" t="s">
         <v>709</v>
-      </c>
-      <c r="C159" t="s">
-        <v>710</v>
       </c>
       <c r="D159" t="str">
         <f t="shared" si="2"/>
         <v>請求書明細オブジェクト識別子</v>
       </c>
       <c r="E159" t="s">
+        <v>710</v>
+      </c>
+      <c r="G159" t="s">
+        <v>710</v>
+      </c>
+      <c r="J159" t="s">
         <v>711</v>
-      </c>
-      <c r="G159" t="s">
-        <v>711</v>
-      </c>
-      <c r="J159" t="s">
-        <v>712</v>
       </c>
     </row>
     <row r="160" spans="1:10">
@@ -13007,23 +13007,23 @@
         <v>260</v>
       </c>
       <c r="B160" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="C160" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D160" t="str">
         <f t="shared" si="2"/>
         <v>スキーマ識別子</v>
       </c>
       <c r="E160" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="H160" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="J160" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
     </row>
     <row r="161" spans="1:10">
@@ -13031,26 +13031,26 @@
         <v>262</v>
       </c>
       <c r="B161" t="s">
+        <v>714</v>
+      </c>
+      <c r="C161" t="s">
         <v>715</v>
-      </c>
-      <c r="C161" t="s">
-        <v>716</v>
       </c>
       <c r="D161" t="str">
         <f t="shared" si="2"/>
         <v>数量</v>
       </c>
       <c r="E161" t="s">
+        <v>716</v>
+      </c>
+      <c r="F161" t="s">
+        <v>92</v>
+      </c>
+      <c r="G161" t="s">
+        <v>716</v>
+      </c>
+      <c r="J161" t="s">
         <v>717</v>
-      </c>
-      <c r="F161" t="s">
-        <v>93</v>
-      </c>
-      <c r="G161" t="s">
-        <v>717</v>
-      </c>
-      <c r="J161" t="s">
-        <v>718</v>
       </c>
     </row>
     <row r="162" spans="1:10">
@@ -13058,23 +13058,23 @@
         <v>263</v>
       </c>
       <c r="B162" t="s">
+        <v>718</v>
+      </c>
+      <c r="C162" t="s">
         <v>719</v>
-      </c>
-      <c r="C162" t="s">
-        <v>720</v>
       </c>
       <c r="D162" t="str">
         <f t="shared" si="2"/>
         <v>数量単位コード</v>
       </c>
       <c r="E162" t="s">
+        <v>720</v>
+      </c>
+      <c r="G162" t="s">
+        <v>720</v>
+      </c>
+      <c r="J162" t="s">
         <v>721</v>
-      </c>
-      <c r="G162" t="s">
-        <v>721</v>
-      </c>
-      <c r="J162" t="s">
-        <v>722</v>
       </c>
     </row>
     <row r="163" spans="1:10">
@@ -13082,26 +13082,26 @@
         <v>267</v>
       </c>
       <c r="B163" t="s">
+        <v>722</v>
+      </c>
+      <c r="C163" t="s">
         <v>723</v>
-      </c>
-      <c r="C163" t="s">
-        <v>724</v>
       </c>
       <c r="D163" t="str">
         <f t="shared" si="2"/>
         <v>課税対象金額(税抜き)</v>
       </c>
       <c r="E163" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="F163" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G163" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="J163" s="66" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
     </row>
     <row r="164" spans="1:10">
@@ -13109,17 +13109,17 @@
         <v>272</v>
       </c>
       <c r="B164" t="s">
+        <v>725</v>
+      </c>
+      <c r="C164" t="s">
         <v>726</v>
-      </c>
-      <c r="C164" t="s">
-        <v>727</v>
       </c>
       <c r="D164" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="E164" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="165" spans="1:10">
@@ -13127,23 +13127,23 @@
         <v>275</v>
       </c>
       <c r="B165" t="s">
+        <v>725</v>
+      </c>
+      <c r="C165" t="s">
         <v>726</v>
-      </c>
-      <c r="C165" t="s">
-        <v>727</v>
       </c>
       <c r="D165" t="str">
         <f t="shared" si="2"/>
         <v>（参照）発注書明細行番号</v>
       </c>
       <c r="E165" t="s">
+        <v>727</v>
+      </c>
+      <c r="G165" t="s">
+        <v>727</v>
+      </c>
+      <c r="J165" t="s">
         <v>728</v>
-      </c>
-      <c r="G165" t="s">
-        <v>728</v>
-      </c>
-      <c r="J165" t="s">
-        <v>729</v>
       </c>
     </row>
     <row r="166" spans="1:10">
@@ -13151,23 +13151,23 @@
         <v>278</v>
       </c>
       <c r="B166" t="s">
+        <v>729</v>
+      </c>
+      <c r="C166" t="s">
         <v>730</v>
-      </c>
-      <c r="C166" t="s">
-        <v>731</v>
       </c>
       <c r="D166" t="str">
         <f t="shared" si="2"/>
         <v>明細行の発注者の会計記帳への参照</v>
       </c>
       <c r="E166" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="G166" t="s">
+        <v>731</v>
+      </c>
+      <c r="J166" t="s">
         <v>732</v>
-      </c>
-      <c r="J166" t="s">
-        <v>733</v>
       </c>
     </row>
     <row r="167" spans="1:10">
@@ -13175,23 +13175,23 @@
         <v>279</v>
       </c>
       <c r="B167" t="s">
+        <v>733</v>
+      </c>
+      <c r="C167" t="s">
         <v>734</v>
-      </c>
-      <c r="C167" t="s">
-        <v>735</v>
       </c>
       <c r="D167" t="str">
         <f t="shared" si="2"/>
         <v>明細行の期間</v>
       </c>
       <c r="E167" t="s">
+        <v>735</v>
+      </c>
+      <c r="G167" t="s">
+        <v>735</v>
+      </c>
+      <c r="J167" t="s">
         <v>736</v>
-      </c>
-      <c r="G167" t="s">
-        <v>736</v>
-      </c>
-      <c r="J167" t="s">
-        <v>737</v>
       </c>
     </row>
     <row r="168" spans="1:10">
@@ -13199,23 +13199,23 @@
         <v>280</v>
       </c>
       <c r="B168" t="s">
+        <v>737</v>
+      </c>
+      <c r="C168" t="s">
         <v>738</v>
-      </c>
-      <c r="C168" t="s">
-        <v>739</v>
       </c>
       <c r="D168" t="str">
         <f t="shared" si="2"/>
         <v>明細行の期間開始日</v>
       </c>
       <c r="E168" t="s">
+        <v>739</v>
+      </c>
+      <c r="H168" t="s">
+        <v>739</v>
+      </c>
+      <c r="J168" t="s">
         <v>740</v>
-      </c>
-      <c r="H168" t="s">
-        <v>740</v>
-      </c>
-      <c r="J168" t="s">
-        <v>741</v>
       </c>
     </row>
     <row r="169" spans="1:10">
@@ -13223,23 +13223,23 @@
         <v>281</v>
       </c>
       <c r="B169" t="s">
+        <v>741</v>
+      </c>
+      <c r="C169" t="s">
         <v>742</v>
-      </c>
-      <c r="C169" t="s">
-        <v>743</v>
       </c>
       <c r="D169" t="str">
         <f t="shared" si="2"/>
         <v>明細行の期間終了日</v>
       </c>
       <c r="E169" t="s">
+        <v>743</v>
+      </c>
+      <c r="H169" t="s">
+        <v>743</v>
+      </c>
+      <c r="J169" t="s">
         <v>744</v>
-      </c>
-      <c r="H169" t="s">
-        <v>744</v>
-      </c>
-      <c r="J169" t="s">
-        <v>745</v>
       </c>
     </row>
     <row r="170" spans="1:10">
@@ -13247,23 +13247,23 @@
         <v>282</v>
       </c>
       <c r="B170" t="s">
+        <v>745</v>
+      </c>
+      <c r="C170" t="s">
         <v>746</v>
-      </c>
-      <c r="C170" t="s">
-        <v>747</v>
       </c>
       <c r="D170" t="str">
         <f t="shared" si="2"/>
         <v>明細行の控除(返還請求)</v>
       </c>
       <c r="E170" t="s">
+        <v>747</v>
+      </c>
+      <c r="G170" t="s">
+        <v>747</v>
+      </c>
+      <c r="J170" t="s">
         <v>748</v>
-      </c>
-      <c r="G170" t="s">
-        <v>748</v>
-      </c>
-      <c r="J170" t="s">
-        <v>749</v>
       </c>
     </row>
     <row r="171" spans="1:10">
@@ -13271,23 +13271,23 @@
         <v>283</v>
       </c>
       <c r="B171" t="s">
+        <v>749</v>
+      </c>
+      <c r="C171" t="s">
         <v>750</v>
-      </c>
-      <c r="C171" t="s">
-        <v>751</v>
       </c>
       <c r="D171" t="str">
         <f t="shared" si="2"/>
         <v>明細行の控除(返還請求)金額(税抜き)</v>
       </c>
       <c r="E171" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="H171" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="J171" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="172" spans="1:10">
@@ -13295,23 +13295,23 @@
         <v>285</v>
       </c>
       <c r="B172" t="s">
+        <v>752</v>
+      </c>
+      <c r="C172" t="s">
         <v>753</v>
-      </c>
-      <c r="C172" t="s">
-        <v>754</v>
       </c>
       <c r="D172" t="str">
         <f t="shared" si="2"/>
         <v>明細行の控除(返還請求)の基準金額</v>
       </c>
       <c r="E172" t="s">
+        <v>754</v>
+      </c>
+      <c r="H172" t="s">
+        <v>754</v>
+      </c>
+      <c r="J172" t="s">
         <v>755</v>
-      </c>
-      <c r="H172" t="s">
-        <v>755</v>
-      </c>
-      <c r="J172" t="s">
-        <v>756</v>
       </c>
     </row>
     <row r="173" spans="1:10">
@@ -13319,23 +13319,23 @@
         <v>286</v>
       </c>
       <c r="B173" t="s">
+        <v>756</v>
+      </c>
+      <c r="C173" t="s">
         <v>757</v>
-      </c>
-      <c r="C173" t="s">
-        <v>758</v>
       </c>
       <c r="D173" t="str">
         <f t="shared" si="2"/>
         <v>明細行の控除(返還請求)率</v>
       </c>
       <c r="E173" t="s">
+        <v>758</v>
+      </c>
+      <c r="H173" t="s">
+        <v>758</v>
+      </c>
+      <c r="J173" t="s">
         <v>759</v>
-      </c>
-      <c r="H173" t="s">
-        <v>759</v>
-      </c>
-      <c r="J173" t="s">
-        <v>760</v>
       </c>
     </row>
     <row r="174" spans="1:10">
@@ -13343,23 +13343,23 @@
         <v>287</v>
       </c>
       <c r="B174" t="s">
+        <v>760</v>
+      </c>
+      <c r="C174" t="s">
         <v>761</v>
-      </c>
-      <c r="C174" t="s">
-        <v>762</v>
       </c>
       <c r="D174" t="str">
         <f t="shared" si="2"/>
         <v>明細行の控除(返還請求)の事由</v>
       </c>
       <c r="E174" t="s">
+        <v>762</v>
+      </c>
+      <c r="H174" t="s">
+        <v>762</v>
+      </c>
+      <c r="J174" t="s">
         <v>763</v>
-      </c>
-      <c r="H174" t="s">
-        <v>763</v>
-      </c>
-      <c r="J174" t="s">
-        <v>764</v>
       </c>
     </row>
     <row r="175" spans="1:10">
@@ -13367,23 +13367,23 @@
         <v>288</v>
       </c>
       <c r="B175" t="s">
+        <v>764</v>
+      </c>
+      <c r="C175" t="s">
         <v>765</v>
-      </c>
-      <c r="C175" t="s">
-        <v>766</v>
       </c>
       <c r="D175" t="str">
         <f t="shared" si="2"/>
         <v>明細行の控除(返還請求)の事由コード</v>
       </c>
       <c r="E175" t="s">
+        <v>766</v>
+      </c>
+      <c r="H175" t="s">
+        <v>766</v>
+      </c>
+      <c r="J175" t="s">
         <v>767</v>
-      </c>
-      <c r="H175" t="s">
-        <v>767</v>
-      </c>
-      <c r="J175" t="s">
-        <v>768</v>
       </c>
     </row>
     <row r="176" spans="1:10">
@@ -13391,23 +13391,23 @@
         <v>289</v>
       </c>
       <c r="B176" t="s">
+        <v>768</v>
+      </c>
+      <c r="C176" t="s">
         <v>769</v>
-      </c>
-      <c r="C176" t="s">
-        <v>770</v>
       </c>
       <c r="D176" t="str">
         <f t="shared" si="2"/>
         <v>明細行の追加請求</v>
       </c>
       <c r="E176" t="s">
+        <v>770</v>
+      </c>
+      <c r="G176" t="s">
+        <v>770</v>
+      </c>
+      <c r="J176" t="s">
         <v>771</v>
-      </c>
-      <c r="G176" t="s">
-        <v>771</v>
-      </c>
-      <c r="J176" t="s">
-        <v>772</v>
       </c>
     </row>
     <row r="177" spans="1:10">
@@ -13415,23 +13415,23 @@
         <v>290</v>
       </c>
       <c r="B177" t="s">
+        <v>772</v>
+      </c>
+      <c r="C177" t="s">
         <v>773</v>
-      </c>
-      <c r="C177" t="s">
-        <v>774</v>
       </c>
       <c r="D177" t="str">
         <f t="shared" si="2"/>
         <v>明細行の追加請求金額(税抜き)</v>
       </c>
       <c r="E177" t="s">
+        <v>774</v>
+      </c>
+      <c r="H177" t="s">
+        <v>774</v>
+      </c>
+      <c r="J177" t="s">
         <v>775</v>
-      </c>
-      <c r="H177" t="s">
-        <v>775</v>
-      </c>
-      <c r="J177" t="s">
-        <v>776</v>
       </c>
     </row>
     <row r="178" spans="1:10">
@@ -13439,23 +13439,23 @@
         <v>292</v>
       </c>
       <c r="B178" t="s">
+        <v>776</v>
+      </c>
+      <c r="C178" t="s">
         <v>777</v>
-      </c>
-      <c r="C178" t="s">
-        <v>778</v>
       </c>
       <c r="D178" t="str">
         <f t="shared" si="2"/>
         <v>明細行の追加請求の基準金額</v>
       </c>
       <c r="E178" t="s">
+        <v>778</v>
+      </c>
+      <c r="H178" t="s">
+        <v>778</v>
+      </c>
+      <c r="J178" t="s">
         <v>779</v>
-      </c>
-      <c r="H178" t="s">
-        <v>779</v>
-      </c>
-      <c r="J178" t="s">
-        <v>780</v>
       </c>
     </row>
     <row r="179" spans="1:10">
@@ -13463,23 +13463,23 @@
         <v>293</v>
       </c>
       <c r="B179" t="s">
+        <v>780</v>
+      </c>
+      <c r="C179" t="s">
         <v>781</v>
-      </c>
-      <c r="C179" t="s">
-        <v>782</v>
       </c>
       <c r="D179" t="str">
         <f t="shared" si="2"/>
         <v>明細行の追加請求率</v>
       </c>
       <c r="E179" t="s">
+        <v>782</v>
+      </c>
+      <c r="H179" t="s">
+        <v>782</v>
+      </c>
+      <c r="J179" t="s">
         <v>783</v>
-      </c>
-      <c r="H179" t="s">
-        <v>783</v>
-      </c>
-      <c r="J179" t="s">
-        <v>784</v>
       </c>
     </row>
     <row r="180" spans="1:10">
@@ -13487,23 +13487,23 @@
         <v>294</v>
       </c>
       <c r="B180" t="s">
+        <v>784</v>
+      </c>
+      <c r="C180" t="s">
         <v>785</v>
-      </c>
-      <c r="C180" t="s">
-        <v>786</v>
       </c>
       <c r="D180" t="str">
         <f t="shared" si="2"/>
         <v>明細行の追加請求の事由</v>
       </c>
       <c r="E180" t="s">
+        <v>786</v>
+      </c>
+      <c r="H180" t="s">
+        <v>786</v>
+      </c>
+      <c r="J180" t="s">
         <v>787</v>
-      </c>
-      <c r="H180" t="s">
-        <v>787</v>
-      </c>
-      <c r="J180" t="s">
-        <v>788</v>
       </c>
     </row>
     <row r="181" spans="1:10">
@@ -13511,23 +13511,23 @@
         <v>295</v>
       </c>
       <c r="B181" t="s">
+        <v>788</v>
+      </c>
+      <c r="C181" t="s">
         <v>789</v>
-      </c>
-      <c r="C181" t="s">
-        <v>790</v>
       </c>
       <c r="D181" t="str">
         <f t="shared" si="2"/>
         <v>明細行の追加請求の事由コード</v>
       </c>
       <c r="E181" t="s">
+        <v>790</v>
+      </c>
+      <c r="H181" t="s">
+        <v>790</v>
+      </c>
+      <c r="J181" t="s">
         <v>791</v>
-      </c>
-      <c r="H181" t="s">
-        <v>791</v>
-      </c>
-      <c r="J181" t="s">
-        <v>792</v>
       </c>
     </row>
     <row r="182" spans="1:10">
@@ -13535,26 +13535,26 @@
         <v>296</v>
       </c>
       <c r="B182" t="s">
+        <v>792</v>
+      </c>
+      <c r="C182" t="s">
         <v>793</v>
-      </c>
-      <c r="C182" t="s">
-        <v>794</v>
       </c>
       <c r="D182" t="str">
         <f t="shared" si="2"/>
         <v>取引価格</v>
       </c>
       <c r="E182" t="s">
+        <v>794</v>
+      </c>
+      <c r="F182" t="s">
+        <v>92</v>
+      </c>
+      <c r="G182" t="s">
+        <v>794</v>
+      </c>
+      <c r="J182" t="s">
         <v>795</v>
-      </c>
-      <c r="F182" t="s">
-        <v>93</v>
-      </c>
-      <c r="G182" t="s">
-        <v>795</v>
-      </c>
-      <c r="J182" t="s">
-        <v>796</v>
       </c>
     </row>
     <row r="183" spans="1:10">
@@ -13562,29 +13562,29 @@
         <v>297</v>
       </c>
       <c r="B183" t="s">
+        <v>796</v>
+      </c>
+      <c r="C183" t="s">
         <v>797</v>
-      </c>
-      <c r="C183" t="s">
-        <v>798</v>
       </c>
       <c r="D183" t="str">
         <f t="shared" si="2"/>
         <v>品目取引単価(税抜き)</v>
       </c>
       <c r="E183" t="s">
+        <v>798</v>
+      </c>
+      <c r="F183" t="s">
+        <v>92</v>
+      </c>
+      <c r="G183" t="s">
+        <v>92</v>
+      </c>
+      <c r="H183" t="s">
+        <v>798</v>
+      </c>
+      <c r="J183" t="s">
         <v>799</v>
-      </c>
-      <c r="F183" t="s">
-        <v>93</v>
-      </c>
-      <c r="G183" t="s">
-        <v>93</v>
-      </c>
-      <c r="H183" t="s">
-        <v>799</v>
-      </c>
-      <c r="J183" t="s">
-        <v>800</v>
       </c>
     </row>
     <row r="184" spans="1:10">
@@ -13592,23 +13592,23 @@
         <v>299</v>
       </c>
       <c r="B184" t="s">
+        <v>800</v>
+      </c>
+      <c r="C184" t="s">
         <v>801</v>
-      </c>
-      <c r="C184" t="s">
-        <v>802</v>
       </c>
       <c r="D184" t="str">
         <f t="shared" si="2"/>
         <v>品目割引金額</v>
       </c>
       <c r="E184" t="s">
+        <v>802</v>
+      </c>
+      <c r="H184" t="s">
+        <v>802</v>
+      </c>
+      <c r="J184" t="s">
         <v>803</v>
-      </c>
-      <c r="H184" t="s">
-        <v>803</v>
-      </c>
-      <c r="J184" t="s">
-        <v>804</v>
       </c>
     </row>
     <row r="185" spans="1:10">
@@ -13616,23 +13616,23 @@
         <v>300</v>
       </c>
       <c r="B185" t="s">
+        <v>804</v>
+      </c>
+      <c r="C185" t="s">
         <v>805</v>
-      </c>
-      <c r="C185" t="s">
-        <v>806</v>
       </c>
       <c r="D185" t="str">
         <f t="shared" si="2"/>
         <v>品目標準単価</v>
       </c>
       <c r="E185" t="s">
+        <v>806</v>
+      </c>
+      <c r="H185" t="s">
+        <v>806</v>
+      </c>
+      <c r="J185" t="s">
         <v>807</v>
-      </c>
-      <c r="H185" t="s">
-        <v>807</v>
-      </c>
-      <c r="J185" t="s">
-        <v>808</v>
       </c>
     </row>
     <row r="186" spans="1:10">
@@ -13640,23 +13640,23 @@
         <v>301</v>
       </c>
       <c r="B186" t="s">
+        <v>808</v>
+      </c>
+      <c r="C186" t="s">
         <v>809</v>
-      </c>
-      <c r="C186" t="s">
-        <v>810</v>
       </c>
       <c r="D186" t="str">
         <f t="shared" si="2"/>
         <v>品目価格ベース数量</v>
       </c>
       <c r="E186" t="s">
+        <v>810</v>
+      </c>
+      <c r="H186" t="s">
+        <v>810</v>
+      </c>
+      <c r="J186" t="s">
         <v>811</v>
-      </c>
-      <c r="H186" t="s">
-        <v>811</v>
-      </c>
-      <c r="J186" t="s">
-        <v>812</v>
       </c>
     </row>
     <row r="187" spans="1:10">
@@ -13664,23 +13664,23 @@
         <v>302</v>
       </c>
       <c r="B187" t="s">
+        <v>812</v>
+      </c>
+      <c r="C187" t="s">
         <v>813</v>
-      </c>
-      <c r="C187" t="s">
-        <v>814</v>
       </c>
       <c r="D187" t="str">
         <f t="shared" si="2"/>
         <v>品目価格基準数量単位</v>
       </c>
       <c r="E187" t="s">
+        <v>814</v>
+      </c>
+      <c r="H187" t="s">
+        <v>814</v>
+      </c>
+      <c r="J187" t="s">
         <v>815</v>
-      </c>
-      <c r="H187" t="s">
-        <v>815</v>
-      </c>
-      <c r="J187" t="s">
-        <v>816</v>
       </c>
     </row>
     <row r="188" spans="1:10">
@@ -13688,26 +13688,26 @@
         <v>303</v>
       </c>
       <c r="B188" t="s">
+        <v>816</v>
+      </c>
+      <c r="C188" t="s">
         <v>817</v>
-      </c>
-      <c r="C188" t="s">
-        <v>818</v>
       </c>
       <c r="D188" t="str">
         <f t="shared" si="2"/>
         <v>明細行税額情報</v>
       </c>
       <c r="E188" t="s">
+        <v>818</v>
+      </c>
+      <c r="F188" t="s">
+        <v>92</v>
+      </c>
+      <c r="G188" t="s">
+        <v>818</v>
+      </c>
+      <c r="J188" t="s">
         <v>819</v>
-      </c>
-      <c r="F188" t="s">
-        <v>93</v>
-      </c>
-      <c r="G188" t="s">
-        <v>819</v>
-      </c>
-      <c r="J188" t="s">
-        <v>820</v>
       </c>
     </row>
     <row r="189" spans="1:10">
@@ -13715,29 +13715,29 @@
         <v>304</v>
       </c>
       <c r="B189" t="s">
+        <v>820</v>
+      </c>
+      <c r="C189" t="s">
         <v>821</v>
-      </c>
-      <c r="C189" t="s">
-        <v>822</v>
       </c>
       <c r="D189" t="str">
         <f t="shared" si="2"/>
         <v>品目課税分類コード</v>
       </c>
       <c r="E189" t="s">
+        <v>822</v>
+      </c>
+      <c r="F189" t="s">
+        <v>92</v>
+      </c>
+      <c r="G189" t="s">
+        <v>92</v>
+      </c>
+      <c r="H189" t="s">
+        <v>822</v>
+      </c>
+      <c r="J189" t="s">
         <v>823</v>
-      </c>
-      <c r="F189" t="s">
-        <v>93</v>
-      </c>
-      <c r="G189" t="s">
-        <v>93</v>
-      </c>
-      <c r="H189" t="s">
-        <v>823</v>
-      </c>
-      <c r="J189" t="s">
-        <v>824</v>
       </c>
     </row>
     <row r="190" spans="1:10">
@@ -13745,29 +13745,29 @@
         <v>305</v>
       </c>
       <c r="B190" t="s">
+        <v>824</v>
+      </c>
+      <c r="C190" t="s">
         <v>825</v>
-      </c>
-      <c r="C190" t="s">
-        <v>826</v>
       </c>
       <c r="D190" t="str">
         <f t="shared" si="2"/>
         <v>品目税率</v>
       </c>
       <c r="E190" t="s">
+        <v>826</v>
+      </c>
+      <c r="F190" t="s">
+        <v>92</v>
+      </c>
+      <c r="G190" t="s">
+        <v>92</v>
+      </c>
+      <c r="H190" t="s">
+        <v>826</v>
+      </c>
+      <c r="J190" t="s">
         <v>827</v>
-      </c>
-      <c r="F190" t="s">
-        <v>93</v>
-      </c>
-      <c r="G190" t="s">
-        <v>93</v>
-      </c>
-      <c r="H190" t="s">
-        <v>827</v>
-      </c>
-      <c r="J190" t="s">
-        <v>828</v>
       </c>
     </row>
     <row r="191" spans="1:10">
@@ -13775,26 +13775,26 @@
         <v>311</v>
       </c>
       <c r="B191" t="s">
+        <v>828</v>
+      </c>
+      <c r="C191" t="s">
         <v>829</v>
-      </c>
-      <c r="C191" t="s">
-        <v>830</v>
       </c>
       <c r="D191" t="str">
         <f t="shared" si="2"/>
         <v>品目情報</v>
       </c>
       <c r="E191" t="s">
+        <v>830</v>
+      </c>
+      <c r="F191" t="s">
+        <v>92</v>
+      </c>
+      <c r="G191" t="s">
+        <v>830</v>
+      </c>
+      <c r="J191" t="s">
         <v>831</v>
-      </c>
-      <c r="F191" t="s">
-        <v>93</v>
-      </c>
-      <c r="G191" t="s">
-        <v>831</v>
-      </c>
-      <c r="J191" t="s">
-        <v>832</v>
       </c>
     </row>
     <row r="192" spans="1:10">
@@ -13802,29 +13802,29 @@
         <v>312</v>
       </c>
       <c r="B192" t="s">
+        <v>832</v>
+      </c>
+      <c r="C192" t="s">
         <v>833</v>
-      </c>
-      <c r="C192" t="s">
-        <v>834</v>
       </c>
       <c r="D192" t="str">
         <f t="shared" si="2"/>
         <v>品名</v>
       </c>
       <c r="E192" t="s">
+        <v>834</v>
+      </c>
+      <c r="F192" t="s">
+        <v>92</v>
+      </c>
+      <c r="G192" t="s">
+        <v>92</v>
+      </c>
+      <c r="H192" t="s">
+        <v>834</v>
+      </c>
+      <c r="J192" t="s">
         <v>835</v>
-      </c>
-      <c r="F192" t="s">
-        <v>93</v>
-      </c>
-      <c r="G192" t="s">
-        <v>93</v>
-      </c>
-      <c r="H192" t="s">
-        <v>835</v>
-      </c>
-      <c r="J192" t="s">
-        <v>836</v>
       </c>
     </row>
     <row r="193" spans="1:10">
@@ -13832,29 +13832,29 @@
         <v>313</v>
       </c>
       <c r="B193" t="s">
+        <v>836</v>
+      </c>
+      <c r="C193" t="s">
         <v>837</v>
-      </c>
-      <c r="C193" t="s">
-        <v>838</v>
       </c>
       <c r="D193" t="str">
         <f t="shared" ref="D193:D204" si="3">IF(NOT(ISERROR(FIND(CHAR(10), E193) )),MID(E193,1,FIND(CHAR(10), E193) -1),E193)</f>
         <v>品目摘要</v>
       </c>
       <c r="E193" t="s">
+        <v>838</v>
+      </c>
+      <c r="F193" t="s">
+        <v>92</v>
+      </c>
+      <c r="G193" t="s">
+        <v>92</v>
+      </c>
+      <c r="H193" t="s">
+        <v>838</v>
+      </c>
+      <c r="J193" t="s">
         <v>839</v>
-      </c>
-      <c r="F193" t="s">
-        <v>93</v>
-      </c>
-      <c r="G193" t="s">
-        <v>93</v>
-      </c>
-      <c r="H193" t="s">
-        <v>839</v>
-      </c>
-      <c r="J193" t="s">
-        <v>840</v>
       </c>
     </row>
     <row r="194" spans="1:10">
@@ -13862,23 +13862,23 @@
         <v>314</v>
       </c>
       <c r="B194" t="s">
+        <v>840</v>
+      </c>
+      <c r="C194" t="s">
         <v>841</v>
-      </c>
-      <c r="C194" t="s">
-        <v>842</v>
       </c>
       <c r="D194" t="str">
         <f t="shared" si="3"/>
         <v>受注者による品目識別子</v>
       </c>
       <c r="E194" t="s">
+        <v>842</v>
+      </c>
+      <c r="H194" t="s">
+        <v>842</v>
+      </c>
+      <c r="J194" t="s">
         <v>843</v>
-      </c>
-      <c r="H194" t="s">
-        <v>843</v>
-      </c>
-      <c r="J194" t="s">
-        <v>844</v>
       </c>
     </row>
     <row r="195" spans="1:10">
@@ -13886,23 +13886,23 @@
         <v>315</v>
       </c>
       <c r="B195" t="s">
+        <v>844</v>
+      </c>
+      <c r="C195" t="s">
         <v>845</v>
-      </c>
-      <c r="C195" t="s">
-        <v>846</v>
       </c>
       <c r="D195" t="str">
         <f t="shared" si="3"/>
         <v>発注者による品目識別子</v>
       </c>
       <c r="E195" t="s">
+        <v>846</v>
+      </c>
+      <c r="H195" t="s">
+        <v>846</v>
+      </c>
+      <c r="J195" t="s">
         <v>847</v>
-      </c>
-      <c r="H195" t="s">
-        <v>847</v>
-      </c>
-      <c r="J195" t="s">
-        <v>848</v>
       </c>
     </row>
     <row r="196" spans="1:10">
@@ -13910,29 +13910,29 @@
         <v>316</v>
       </c>
       <c r="B196" t="s">
+        <v>848</v>
+      </c>
+      <c r="C196" t="s">
         <v>849</v>
-      </c>
-      <c r="C196" t="s">
-        <v>850</v>
       </c>
       <c r="D196" t="str">
         <f t="shared" si="3"/>
         <v>品名コード</v>
       </c>
       <c r="E196" t="s">
+        <v>850</v>
+      </c>
+      <c r="F196" t="s">
+        <v>92</v>
+      </c>
+      <c r="G196" t="s">
+        <v>92</v>
+      </c>
+      <c r="H196" t="s">
+        <v>850</v>
+      </c>
+      <c r="J196" t="s">
         <v>851</v>
-      </c>
-      <c r="F196" t="s">
-        <v>93</v>
-      </c>
-      <c r="G196" t="s">
-        <v>93</v>
-      </c>
-      <c r="H196" t="s">
-        <v>851</v>
-      </c>
-      <c r="J196" t="s">
-        <v>852</v>
       </c>
     </row>
     <row r="197" spans="1:10">
@@ -13940,23 +13940,23 @@
         <v>317</v>
       </c>
       <c r="B197" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="C197" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D197" t="str">
         <f t="shared" si="3"/>
         <v>スキーマ識別子</v>
       </c>
       <c r="E197" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="I197" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="J197" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="198" spans="1:10">
@@ -13964,23 +13964,23 @@
         <v>318</v>
       </c>
       <c r="B198" t="s">
+        <v>853</v>
+      </c>
+      <c r="C198" t="s">
         <v>854</v>
-      </c>
-      <c r="C198" t="s">
-        <v>855</v>
       </c>
       <c r="D198" t="str">
         <f t="shared" si="3"/>
         <v>品目分類識別子</v>
       </c>
       <c r="E198" t="s">
+        <v>855</v>
+      </c>
+      <c r="H198" t="s">
+        <v>855</v>
+      </c>
+      <c r="J198" t="s">
         <v>856</v>
-      </c>
-      <c r="H198" t="s">
-        <v>856</v>
-      </c>
-      <c r="J198" t="s">
-        <v>857</v>
       </c>
     </row>
     <row r="199" spans="1:10">
@@ -13988,23 +13988,23 @@
         <v>319</v>
       </c>
       <c r="B199" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="C199" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D199" t="str">
         <f t="shared" si="3"/>
         <v>スキーマ識別子</v>
       </c>
       <c r="E199" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="I199" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="J199" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
     </row>
     <row r="200" spans="1:10">
@@ -14012,23 +14012,23 @@
         <v>320</v>
       </c>
       <c r="B200" t="s">
+        <v>859</v>
+      </c>
+      <c r="C200" t="s">
         <v>860</v>
-      </c>
-      <c r="C200" t="s">
-        <v>861</v>
       </c>
       <c r="D200" t="str">
         <f t="shared" si="3"/>
         <v>スキーマのバージョン識別子</v>
       </c>
       <c r="E200" t="s">
+        <v>861</v>
+      </c>
+      <c r="I200" t="s">
+        <v>861</v>
+      </c>
+      <c r="J200" t="s">
         <v>862</v>
-      </c>
-      <c r="I200" t="s">
-        <v>862</v>
-      </c>
-      <c r="J200" t="s">
-        <v>863</v>
       </c>
     </row>
     <row r="201" spans="1:10">
@@ -14036,23 +14036,23 @@
         <v>321</v>
       </c>
       <c r="B201" t="s">
+        <v>863</v>
+      </c>
+      <c r="C201" t="s">
         <v>864</v>
-      </c>
-      <c r="C201" t="s">
-        <v>865</v>
       </c>
       <c r="D201" t="str">
         <f t="shared" si="3"/>
         <v>品目の原産国</v>
       </c>
       <c r="E201" t="s">
+        <v>865</v>
+      </c>
+      <c r="H201" t="s">
+        <v>865</v>
+      </c>
+      <c r="J201" t="s">
         <v>866</v>
-      </c>
-      <c r="H201" t="s">
-        <v>866</v>
-      </c>
-      <c r="J201" t="s">
-        <v>867</v>
       </c>
     </row>
     <row r="202" spans="1:10">
@@ -14060,23 +14060,23 @@
         <v>322</v>
       </c>
       <c r="B202" t="s">
+        <v>867</v>
+      </c>
+      <c r="C202" t="s">
         <v>868</v>
-      </c>
-      <c r="C202" t="s">
-        <v>869</v>
       </c>
       <c r="D202" t="str">
         <f t="shared" si="3"/>
         <v>品目属性</v>
       </c>
       <c r="E202" t="s">
+        <v>869</v>
+      </c>
+      <c r="H202" t="s">
+        <v>869</v>
+      </c>
+      <c r="J202" t="s">
         <v>870</v>
-      </c>
-      <c r="H202" t="s">
-        <v>870</v>
-      </c>
-      <c r="J202" t="s">
-        <v>871</v>
       </c>
     </row>
     <row r="203" spans="1:10">
@@ -14084,23 +14084,23 @@
         <v>323</v>
       </c>
       <c r="B203" t="s">
+        <v>871</v>
+      </c>
+      <c r="C203" t="s">
         <v>872</v>
-      </c>
-      <c r="C203" t="s">
-        <v>873</v>
       </c>
       <c r="D203" t="str">
         <f t="shared" si="3"/>
         <v>品目属性名</v>
       </c>
       <c r="E203" t="s">
+        <v>873</v>
+      </c>
+      <c r="I203" t="s">
+        <v>873</v>
+      </c>
+      <c r="J203" t="s">
         <v>874</v>
-      </c>
-      <c r="I203" t="s">
-        <v>874</v>
-      </c>
-      <c r="J203" t="s">
-        <v>875</v>
       </c>
     </row>
     <row r="204" spans="1:10">
@@ -14108,31 +14108,31 @@
         <v>324</v>
       </c>
       <c r="B204" t="s">
+        <v>875</v>
+      </c>
+      <c r="C204" t="s">
         <v>876</v>
-      </c>
-      <c r="C204" t="s">
-        <v>877</v>
       </c>
       <c r="D204" t="str">
         <f t="shared" si="3"/>
         <v>品目属性値</v>
       </c>
       <c r="E204" t="s">
+        <v>877</v>
+      </c>
+      <c r="I204" t="s">
+        <v>877</v>
+      </c>
+      <c r="J204" t="s">
         <v>878</v>
-      </c>
-      <c r="I204" t="s">
-        <v>878</v>
-      </c>
-      <c r="J204" t="s">
-        <v>879</v>
       </c>
     </row>
     <row r="324" spans="1:5">
       <c r="A324" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E324" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>
